--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_8.4E-09_15 s_724 TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_8.4E-09_15 s_724 TPD_output Acetic Acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:F232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4282 +417,4622 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>100.3</v>
+        <v>91</v>
       </c>
       <c r="B2">
-        <v>51111.09291521097</v>
+        <v>49700</v>
       </c>
       <c r="C2">
-        <v>4206.714298601388</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>63115.42128432395</v>
+        <v>9174.785671909576</v>
       </c>
       <c r="E2">
-        <v>4075.304883195607</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1769.194156179638</v>
+        <v>762.2945833409649</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>103.5</v>
+        <v>91</v>
       </c>
       <c r="B3">
-        <v>65713.40173136748</v>
+        <v>4000</v>
       </c>
       <c r="C3">
-        <v>4554.567409713469</v>
+        <v>2700</v>
       </c>
       <c r="D3">
-        <v>62961.06107914266</v>
+        <v>12324.78567190958</v>
       </c>
       <c r="E3">
-        <v>4012.04384979719</v>
+        <v>1930</v>
       </c>
       <c r="F3">
-        <v>1295.740434724562</v>
+        <v>972.2945833409649</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>106.5</v>
+        <v>91</v>
       </c>
       <c r="B4">
-        <v>65378.06624651406</v>
+        <v>1700</v>
       </c>
       <c r="C4">
-        <v>3381.92970138106</v>
+        <v>3780</v>
       </c>
       <c r="D4">
-        <v>60120.72338678519</v>
+        <v>12394.78567190958</v>
       </c>
       <c r="E4">
-        <v>3721.486630986172</v>
+        <v>2290</v>
       </c>
       <c r="F4">
-        <v>1330.002570860426</v>
+        <v>932.2945833409649</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>109.3</v>
+        <v>91</v>
       </c>
       <c r="B5">
-        <v>51005.08646065091</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3028.801173604132</v>
+        <v>4330</v>
       </c>
       <c r="D5">
-        <v>56374.40820725156</v>
+        <v>12324.78567190958</v>
       </c>
       <c r="E5">
-        <v>3783.633226762553</v>
+        <v>3170</v>
       </c>
       <c r="F5">
-        <v>1211.980564587234</v>
+        <v>1152.294583340965</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B6">
-        <v>36613.28452428291</v>
+        <v>2100</v>
       </c>
       <c r="C6">
-        <v>4540.427236104942</v>
+        <v>3370</v>
       </c>
       <c r="D6">
-        <v>49605.10428412988</v>
+        <v>14554.78567190958</v>
       </c>
       <c r="E6">
-        <v>3892.131729832639</v>
+        <v>3810</v>
       </c>
       <c r="F6">
-        <v>1532.816487109514</v>
+        <v>822.2945833409649</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>114.6</v>
+        <v>91</v>
       </c>
       <c r="B7">
-        <v>26202.66043741004</v>
+        <v>10200</v>
       </c>
       <c r="C7">
-        <v>3286.807888883523</v>
+        <v>6260</v>
       </c>
       <c r="D7">
-        <v>40042.81161742005</v>
+        <v>15244.78567190958</v>
       </c>
       <c r="E7">
-        <v>3556.982140196425</v>
+        <v>3260</v>
       </c>
       <c r="F7">
-        <v>1352.510338427266</v>
+        <v>1122.294583340965</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>116.9</v>
+        <v>91</v>
       </c>
       <c r="B8">
-        <v>20735.56989902249</v>
+        <v>2400</v>
       </c>
       <c r="C8">
-        <v>2197.452312495324</v>
+        <v>6050</v>
       </c>
       <c r="D8">
-        <v>34481.55271994602</v>
+        <v>14924.78567190958</v>
       </c>
       <c r="E8">
-        <v>3570.888272441308</v>
+        <v>3990</v>
       </c>
       <c r="F8">
-        <v>1118.77797613143</v>
+        <v>852.2945833409649</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>119.4</v>
+        <v>91</v>
       </c>
       <c r="B9">
-        <v>11406.12366164464</v>
+        <v>3700</v>
       </c>
       <c r="C9">
-        <v>2118.587555551645</v>
+        <v>6610</v>
       </c>
       <c r="D9">
-        <v>25976.27130964815</v>
+        <v>14964.78567190958</v>
       </c>
       <c r="E9">
-        <v>4122.090590098793</v>
+        <v>3580</v>
       </c>
       <c r="F9">
-        <v>1657.329756244653</v>
+        <v>1712.294583340965</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>121.5</v>
+        <v>91</v>
       </c>
       <c r="B10">
-        <v>5001.38882224726</v>
+        <v>2900</v>
       </c>
       <c r="C10">
-        <v>3628.741159718956</v>
+        <v>6630</v>
       </c>
       <c r="D10">
-        <v>23319.03492499792</v>
+        <v>18414.78567190958</v>
       </c>
       <c r="E10">
-        <v>1538.700536931082</v>
+        <v>3110</v>
       </c>
       <c r="F10">
-        <v>831.3132515397574</v>
+        <v>902.2945833409649</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>123.5</v>
+        <v>91.2</v>
       </c>
       <c r="B11">
-        <v>977.8318323450076</v>
+        <v>1914.499963038492</v>
       </c>
       <c r="C11">
-        <v>593.6493541640066</v>
+        <v>10974.8663919035</v>
       </c>
       <c r="D11">
-        <v>20778.80979675961</v>
+        <v>26233.34370935024</v>
       </c>
       <c r="E11">
-        <v>3001.66239105707</v>
+        <v>5314.156890677939</v>
       </c>
       <c r="F11">
-        <v>1074.154675630337</v>
+        <v>974.083488569717</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>125.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="B12">
-        <v>4554.274842442755</v>
+        <v>13128.99992607698</v>
       </c>
       <c r="C12">
-        <v>2138.557548609057</v>
+        <v>10669.73278380699</v>
       </c>
       <c r="D12">
-        <v>20178.5846685213</v>
+        <v>45911.90174679094</v>
       </c>
       <c r="E12">
-        <v>2564.624245183058</v>
+        <v>8978.313781355879</v>
       </c>
       <c r="F12">
-        <v>1396.996099720913</v>
+        <v>11935.87239379847</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>127.5</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="B13">
-        <v>7430.717852540518</v>
+        <v>34065.24983367315</v>
       </c>
       <c r="C13">
-        <v>3233.465743054108</v>
+        <v>19521.89876356578</v>
       </c>
       <c r="D13">
-        <v>19198.35954028298</v>
+        <v>64223.29684039263</v>
       </c>
       <c r="E13">
-        <v>2367.586099309045</v>
+        <v>7018.706008050734</v>
       </c>
       <c r="F13">
-        <v>1489.837523811489</v>
+        <v>5190.344656870352</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>129.6</v>
+        <v>92.8</v>
       </c>
       <c r="B14">
-        <v>6525.983013143239</v>
+        <v>27330.49966734643</v>
       </c>
       <c r="C14">
-        <v>1763.619347221419</v>
+        <v>21503.79752713155</v>
       </c>
       <c r="D14">
-        <v>19461.12315563275</v>
+        <v>63281.80800887568</v>
       </c>
       <c r="E14">
-        <v>3204.196046141335</v>
+        <v>8547.412016101462</v>
       </c>
       <c r="F14">
-        <v>883.8210191065971</v>
+        <v>3878.394730399735</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>132.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="B15">
-        <v>2115.358926270252</v>
+        <v>46724.74942709669</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>15335.42907450435</v>
       </c>
       <c r="D15">
-        <v>20258.83048892297</v>
+        <v>80597.43525224007</v>
       </c>
       <c r="E15">
-        <v>3569.04645650512</v>
+        <v>12184.43180550808</v>
       </c>
       <c r="F15">
-        <v>1403.514870424349</v>
+        <v>2980.022614386629</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>134.5</v>
+        <v>95.7</v>
       </c>
       <c r="B16">
-        <v>4048.268387882694</v>
+        <v>57440.74913140463</v>
       </c>
       <c r="C16">
-        <v>1700.644423611801</v>
+        <v>18144.3602097324</v>
       </c>
       <c r="D16">
-        <v>20657.57159144891</v>
+        <v>90155.89955176547</v>
       </c>
       <c r="E16">
-        <v>4352.952588750003</v>
+        <v>9607.686930931603</v>
       </c>
       <c r="F16">
-        <v>1219.782508128513</v>
+        <v>2324.333856216646</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>136.9</v>
+        <v>97.8</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>56492.99874330897</v>
       </c>
       <c r="C17">
-        <v>4036.534256945862</v>
+        <v>15385.45732471924</v>
       </c>
       <c r="D17">
-        <v>21199.30143756296</v>
+        <v>94945.75894489256</v>
       </c>
       <c r="E17">
-        <v>3780.506813701188</v>
+        <v>11021.33428304998</v>
       </c>
       <c r="F17">
-        <v>1037.192217037205</v>
+        <v>2203.11736111855</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>139.4</v>
+        <v>100.3</v>
       </c>
       <c r="B18">
-        <v>3470.553762622279</v>
+        <v>67174.24828129019</v>
       </c>
       <c r="C18">
-        <v>1297.669500002183</v>
+        <v>16336.28722351307</v>
       </c>
       <c r="D18">
-        <v>21754.02002726506</v>
+        <v>104722.734412901</v>
       </c>
       <c r="E18">
-        <v>3971.709131358672</v>
+        <v>9953.295416524243</v>
       </c>
       <c r="F18">
-        <v>1155.743997150428</v>
+        <v>2415.478676477957</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>142.2</v>
+        <v>103.5</v>
       </c>
       <c r="B19">
-        <v>6697.573976759129</v>
+        <v>81406.24768990617</v>
       </c>
       <c r="C19">
-        <v>294.5409722252543</v>
+        <v>16594.14949396918</v>
       </c>
       <c r="D19">
-        <v>18317.70484773146</v>
+        <v>103969.6630119518</v>
       </c>
       <c r="E19">
-        <v>4953.85572713506</v>
+        <v>9839.805667371294</v>
       </c>
       <c r="F19">
-        <v>1087.721990877236</v>
+        <v>1934.101160137996</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>144.7</v>
+        <v>106.5</v>
       </c>
       <c r="B20">
-        <v>7068.127739381292</v>
+        <v>80723.74713548356</v>
       </c>
       <c r="C20">
-        <v>1195.676215281575</v>
+        <v>15337.1453725218</v>
       </c>
       <c r="D20">
-        <v>15102.42343743355</v>
+        <v>100568.033573562</v>
       </c>
       <c r="E20">
-        <v>4565.058044792538</v>
+        <v>9502.159027540407</v>
       </c>
       <c r="F20">
-        <v>2126.273770990456</v>
+        <v>1960.934738569286</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>147.1</v>
+        <v>109.3</v>
       </c>
       <c r="B21">
-        <v>10419.8593514986</v>
+        <v>66026.74661802257</v>
       </c>
       <c r="C21">
-        <v>2171.566048615637</v>
+        <v>14905.27485917092</v>
       </c>
       <c r="D21">
-        <v>14304.15328354761</v>
+        <v>96297.84609773141</v>
       </c>
       <c r="E21">
-        <v>5042.612269743729</v>
+        <v>9520.35549703158</v>
       </c>
       <c r="F21">
-        <v>4093.683479899149</v>
+        <v>1835.97941177182</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>149.4</v>
+        <v>112</v>
       </c>
       <c r="B22">
-        <v>6152.768813111034</v>
+        <v>51322.49611904228</v>
       </c>
       <c r="C22">
-        <v>4992.210472227437</v>
+        <v>16340.97114986825</v>
       </c>
       <c r="D22">
-        <v>12222.89438607355</v>
+        <v>89023.37960318054</v>
       </c>
       <c r="E22">
-        <v>5616.518401988612</v>
+        <v>9586.473521183776</v>
       </c>
       <c r="F22">
-        <v>5959.951117603316</v>
+        <v>2150.129632359979</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>151.6</v>
+        <v>114.6</v>
       </c>
       <c r="B23">
-        <v>13966.85612421861</v>
+        <v>40610.99563854279</v>
       </c>
       <c r="C23">
-        <v>4457.609486117008</v>
+        <v>15014.23424461384</v>
       </c>
       <c r="D23">
-        <v>11408.64674501141</v>
+        <v>78974.63408990935</v>
       </c>
       <c r="E23">
-        <v>6516.776441527201</v>
+        <v>9210.513099997008</v>
       </c>
       <c r="F23">
-        <v>9975.076684102949</v>
+        <v>1963.385400333761</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>154</v>
+        <v>116.9</v>
       </c>
       <c r="B24">
-        <v>8918.587736335918</v>
+        <v>34877.74521348551</v>
       </c>
       <c r="C24">
-        <v>7363.499319451069</v>
+        <v>13860.19775150418</v>
       </c>
       <c r="D24">
-        <v>12710.37659112544</v>
+        <v>72983.05152047709</v>
       </c>
       <c r="E24">
-        <v>7434.330666478385</v>
+        <v>9188.317342793325</v>
       </c>
       <c r="F24">
-        <v>15772.48639301164</v>
+        <v>1723.957810464417</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>156.1</v>
+        <v>119.4</v>
       </c>
       <c r="B25">
-        <v>8913.852896938537</v>
+        <v>25258.99475146684</v>
       </c>
       <c r="C25">
-        <v>10823.65292361838</v>
+        <v>13711.02765029803</v>
       </c>
       <c r="D25">
-        <v>14403.14020647523</v>
+        <v>64010.02698848555</v>
       </c>
       <c r="E25">
-        <v>9290.940613310675</v>
+        <v>9700.27847626758</v>
       </c>
       <c r="F25">
-        <v>24086.46988830675</v>
+        <v>2256.319125823821</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>158.2</v>
+        <v>121.5</v>
       </c>
       <c r="B26">
-        <v>12709.11805754114</v>
+        <v>18611.24436337106</v>
       </c>
       <c r="C26">
-        <v>18733.80652778569</v>
+        <v>15162.12476528485</v>
       </c>
       <c r="D26">
-        <v>19115.90382182501</v>
+        <v>60959.88638161264</v>
       </c>
       <c r="E26">
-        <v>10567.55056014296</v>
+        <v>7083.92582838596</v>
       </c>
       <c r="F26">
-        <v>32680.45338360186</v>
+        <v>1425.102630725724</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>160.3</v>
+        <v>123.5</v>
       </c>
       <c r="B27">
-        <v>22104.38321814386</v>
+        <v>14356.24399375599</v>
       </c>
       <c r="C27">
-        <v>23673.960131953</v>
+        <v>12070.78868431992</v>
       </c>
       <c r="D27">
-        <v>21508.66743717478</v>
+        <v>58045.46675601941</v>
       </c>
       <c r="E27">
-        <v>12234.16050697524</v>
+        <v>8515.494735165366</v>
       </c>
       <c r="F27">
-        <v>38024.43687889696</v>
+        <v>1662.99168301325</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>162.5</v>
+        <v>125.5</v>
       </c>
       <c r="B28">
-        <v>27418.47052925134</v>
+        <v>17701.24362414103</v>
       </c>
       <c r="C28">
-        <v>25839.35914584254</v>
+        <v>13559.452603355</v>
       </c>
       <c r="D28">
-        <v>21354.41979611266</v>
+        <v>57071.04713042617</v>
       </c>
       <c r="E28">
-        <v>10694.41854651383</v>
+        <v>8047.063641944775</v>
       </c>
       <c r="F28">
-        <v>27329.56244539659</v>
+        <v>1980.880735300775</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>165.1</v>
+        <v>127.5</v>
       </c>
       <c r="B29">
-        <v>30807.84644237848</v>
+        <v>20346.24325452595</v>
       </c>
       <c r="C29">
-        <v>23665.73979862112</v>
+        <v>14598.11652239008</v>
       </c>
       <c r="D29">
-        <v>16192.12712940284</v>
+        <v>55716.62750483291</v>
       </c>
       <c r="E29">
-        <v>8749.26895687762</v>
+        <v>7818.632548724183</v>
       </c>
       <c r="F29">
-        <v>14109.25629671435</v>
+        <v>2068.7697875883</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>167.5</v>
+        <v>129.6</v>
       </c>
       <c r="B30">
-        <v>21959.57805449577</v>
+        <v>19198.49286643018</v>
       </c>
       <c r="C30">
-        <v>21601.62963195518</v>
+        <v>13069.21363737692</v>
       </c>
       <c r="D30">
-        <v>12943.85697551687</v>
+        <v>55586.48689796003</v>
       </c>
       <c r="E30">
-        <v>8056.823181828804</v>
+        <v>8622.279900842561</v>
       </c>
       <c r="F30">
-        <v>10916.66600562304</v>
+        <v>1457.5532924902</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>169.8</v>
+        <v>132.2</v>
       </c>
       <c r="B31">
-        <v>16392.48751610822</v>
+        <v>14486.99238593069</v>
       </c>
       <c r="C31">
-        <v>20032.27405556698</v>
+        <v>11232.47673212251</v>
       </c>
       <c r="D31">
-        <v>10392.59807804284</v>
+        <v>55897.7413846888</v>
       </c>
       <c r="E31">
-        <v>6700.729314073687</v>
+        <v>8946.319479655793</v>
       </c>
       <c r="F31">
-        <v>9612.933643327207</v>
+        <v>1970.809060463982</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>172.2</v>
+        <v>134.5</v>
       </c>
       <c r="B32">
-        <v>8144.219128225523</v>
+        <v>16153.74196087342</v>
       </c>
       <c r="C32">
-        <v>22748.16388890105</v>
+        <v>12868.44023901285</v>
       </c>
       <c r="D32">
-        <v>9154.32792415686</v>
+        <v>55866.15881525658</v>
       </c>
       <c r="E32">
-        <v>6978.283539024878</v>
+        <v>9694.123722452108</v>
       </c>
       <c r="F32">
-        <v>8620.343352235899</v>
+        <v>1781.381470594637</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>174.5</v>
+        <v>136.9</v>
       </c>
       <c r="B33">
-        <v>6977.128589837957</v>
+        <v>11827.74151733544</v>
       </c>
       <c r="C33">
-        <v>23608.80831251288</v>
+        <v>15136.83694185491</v>
       </c>
       <c r="D33">
-        <v>6883.069026682802</v>
+        <v>55958.85526454469</v>
       </c>
       <c r="E33">
-        <v>7432.189671269762</v>
+        <v>9084.006410587404</v>
       </c>
       <c r="F33">
-        <v>7806.610989940064</v>
+        <v>1592.848333339667</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>176.8</v>
+        <v>139.4</v>
       </c>
       <c r="B34">
-        <v>13010.03805145029</v>
+        <v>15008.99105531666</v>
       </c>
       <c r="C34">
-        <v>24259.45273612468</v>
+        <v>12327.66684064877</v>
       </c>
       <c r="D34">
-        <v>7641.810129208767</v>
+        <v>56045.83073255314</v>
       </c>
       <c r="E34">
-        <v>6756.095803514645</v>
+        <v>9235.967544061659</v>
       </c>
       <c r="F34">
-        <v>7132.878627644226</v>
+        <v>1705.209648699075</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>179.4</v>
+        <v>142.2</v>
       </c>
       <c r="B35">
-        <v>8999.413964577427</v>
+        <v>17911.99053785566</v>
       </c>
       <c r="C35">
-        <v>23735.83338890326</v>
+        <v>11245.79632729786</v>
       </c>
       <c r="D35">
-        <v>6179.517462498945</v>
+        <v>52085.64325672259</v>
       </c>
       <c r="E35">
-        <v>5640.946213878431</v>
+        <v>10174.16401355283</v>
       </c>
       <c r="F35">
-        <v>7152.572478961978</v>
+        <v>1630.254321901609</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>181.7</v>
+        <v>144.7</v>
       </c>
       <c r="B36">
-        <v>15832.32342618986</v>
+        <v>17993.24007583687</v>
       </c>
       <c r="C36">
-        <v>23146.47781251506</v>
+        <v>12076.6262260917</v>
       </c>
       <c r="D36">
-        <v>5108.258565024909</v>
+        <v>48402.61872473104</v>
       </c>
       <c r="E36">
-        <v>7074.852346123314</v>
+        <v>9746.125147027087</v>
       </c>
       <c r="F36">
-        <v>6678.840116666139</v>
+        <v>2662.615637261017</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>183.9</v>
+        <v>147.1</v>
       </c>
       <c r="B37">
-        <v>14846.41073729734</v>
+        <v>21067.23963229889</v>
       </c>
       <c r="C37">
-        <v>23751.87682640463</v>
+        <v>12985.02292893379</v>
       </c>
       <c r="D37">
-        <v>4394.010923962785</v>
+        <v>47155.31517401914</v>
       </c>
       <c r="E37">
-        <v>6575.110385661904</v>
+        <v>10186.00783516238</v>
       </c>
       <c r="F37">
-        <v>6723.965683165778</v>
+        <v>4624.082500006047</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>186.2</v>
+        <v>149.4</v>
       </c>
       <c r="B38">
-        <v>9579.320198909787</v>
+        <v>16533.98920724162</v>
       </c>
       <c r="C38">
-        <v>25932.52125001643</v>
+        <v>15740.98643582413</v>
       </c>
       <c r="D38">
-        <v>6972.752026488721</v>
+        <v>44643.73260458693</v>
       </c>
       <c r="E38">
-        <v>6909.016517906794</v>
+        <v>10723.8120779587</v>
       </c>
       <c r="F38">
-        <v>6420.233320869938</v>
+        <v>6484.654910136702</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>188.7</v>
+        <v>151.6</v>
       </c>
       <c r="B39">
-        <v>18349.87396153205</v>
+        <v>24093.48880066515</v>
       </c>
       <c r="C39">
-        <v>25623.65649307275</v>
+        <v>15144.5167467627</v>
       </c>
       <c r="D39">
-        <v>5647.47061619084</v>
+        <v>43417.87101643436</v>
       </c>
       <c r="E39">
-        <v>6460.218835564272</v>
+        <v>11589.53787541604</v>
       </c>
       <c r="F39">
-        <v>6128.785100983163</v>
+        <v>10494.33286765298</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="B40">
-        <v>19382.78342314438</v>
+        <v>18767.48835712705</v>
       </c>
       <c r="C40">
-        <v>26114.30091668455</v>
+        <v>17982.9134496048</v>
       </c>
       <c r="D40">
-        <v>3566.211718716775</v>
+        <v>44270.56746572247</v>
       </c>
       <c r="E40">
-        <v>7424.124967809163</v>
+        <v>12469.42056355133</v>
       </c>
       <c r="F40">
-        <v>6015.052738687325</v>
+        <v>16285.79973039801</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>193.2</v>
+        <v>156.1</v>
       </c>
       <c r="B41">
-        <v>17596.87073425196</v>
+        <v>18519.73796903128</v>
       </c>
       <c r="C41">
-        <v>25849.69993057413</v>
+        <v>21384.01056459161</v>
       </c>
       <c r="D41">
-        <v>4301.964077654644</v>
+        <v>45570.42685884955</v>
       </c>
       <c r="E41">
-        <v>6504.383007347753</v>
+        <v>14293.06791566971</v>
       </c>
       <c r="F41">
-        <v>5980.178305186962</v>
+        <v>24594.58323529992</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>195.5</v>
+        <v>158.2</v>
       </c>
       <c r="B42">
-        <v>19429.78019586441</v>
+        <v>22071.98758093551</v>
       </c>
       <c r="C42">
-        <v>26770.34435418592</v>
+        <v>29235.10767957845</v>
       </c>
       <c r="D42">
-        <v>3440.705180180586</v>
+        <v>49890.28625197667</v>
       </c>
       <c r="E42">
-        <v>6348.289139592635</v>
+        <v>15536.71526778809</v>
       </c>
       <c r="F42">
-        <v>5956.445942891125</v>
+        <v>33183.36674020181</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>197.7</v>
+        <v>160.3</v>
       </c>
       <c r="B43">
-        <v>15243.86750697187</v>
+        <v>31224.23719283986</v>
       </c>
       <c r="C43">
-        <v>29295.7433680755</v>
+        <v>34116.20479456526</v>
       </c>
       <c r="D43">
-        <v>3506.457539118455</v>
+        <v>51890.14564510375</v>
       </c>
       <c r="E43">
-        <v>6898.547179131217</v>
+        <v>17170.36261990646</v>
       </c>
       <c r="F43">
-        <v>6061.571509390762</v>
+        <v>38522.15024510371</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>200</v>
+        <v>162.5</v>
       </c>
       <c r="B44">
-        <v>15276.77696858432</v>
+        <v>36283.73678626327</v>
       </c>
       <c r="C44">
-        <v>26826.3877916873</v>
+        <v>36219.73510550386</v>
       </c>
       <c r="D44">
-        <v>3835.198641644427</v>
+        <v>51324.28405695119</v>
       </c>
       <c r="E44">
-        <v>6552.453311376108</v>
+        <v>15596.08841736381</v>
       </c>
       <c r="F44">
-        <v>5437.839147094925</v>
+        <v>27821.82820261999</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>202.6</v>
+        <v>165.1</v>
       </c>
       <c r="B45">
-        <v>15766.15288171146</v>
+        <v>39372.23630576378</v>
       </c>
       <c r="C45">
-        <v>25682.76844446588</v>
+        <v>33972.99820024945</v>
       </c>
       <c r="D45">
-        <v>4652.905974934605</v>
+        <v>45675.53854367996</v>
       </c>
       <c r="E45">
-        <v>6687.303721739894</v>
+        <v>13610.12799617705</v>
       </c>
       <c r="F45">
-        <v>5447.532998412677</v>
+        <v>14595.08397059377</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>204.9</v>
+        <v>167.5</v>
       </c>
       <c r="B46">
-        <v>19999.06234332389</v>
+        <v>30246.23586222581</v>
       </c>
       <c r="C46">
-        <v>28703.41286807768</v>
+        <v>31841.39490309152</v>
       </c>
       <c r="D46">
-        <v>1631.64707746057</v>
+        <v>41978.2349929681</v>
       </c>
       <c r="E46">
-        <v>5111.209853984778</v>
+        <v>12880.01068431234</v>
       </c>
       <c r="F46">
-        <v>6023.800636116841</v>
+        <v>11396.5508333388</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>207.2</v>
+        <v>169.8</v>
       </c>
       <c r="B47">
-        <v>21831.97180493634</v>
+        <v>24412.98543716854</v>
       </c>
       <c r="C47">
-        <v>26504.05729168948</v>
+        <v>30207.35840998186</v>
       </c>
       <c r="D47">
-        <v>4870.388179986505</v>
+        <v>38996.65242353585</v>
       </c>
       <c r="E47">
-        <v>6385.115986229668</v>
+        <v>11487.81492710865</v>
       </c>
       <c r="F47">
-        <v>5160.068273821004</v>
+        <v>10087.12324346946</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>209.5</v>
+        <v>172.2</v>
       </c>
       <c r="B48">
-        <v>31164.88126654868</v>
+        <v>15886.98499363044</v>
       </c>
       <c r="C48">
-        <v>25934.70171530128</v>
+        <v>32855.75511282396</v>
       </c>
       <c r="D48">
-        <v>2249.129282512469</v>
+        <v>37309.34887282396</v>
       </c>
       <c r="E48">
-        <v>5369.022118474551</v>
+        <v>11727.69761524394</v>
       </c>
       <c r="F48">
-        <v>5606.33591152517</v>
+        <v>9088.590106214489</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>211.8</v>
+        <v>174.5</v>
       </c>
       <c r="B49">
-        <v>35697.79072816111</v>
+        <v>14453.73456857327</v>
       </c>
       <c r="C49">
-        <v>29705.34613891311</v>
+        <v>33651.71861971429</v>
       </c>
       <c r="D49">
-        <v>2407.870385038412</v>
+        <v>34607.76630339174</v>
       </c>
       <c r="E49">
-        <v>6012.928250719435</v>
+        <v>12145.50185804026</v>
       </c>
       <c r="F49">
-        <v>5572.603549229332</v>
+        <v>8269.162516345141</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>214</v>
+        <v>176.8</v>
       </c>
       <c r="B50">
-        <v>50111.8780392687</v>
+        <v>20220.484143516</v>
       </c>
       <c r="C50">
-        <v>27280.74515280268</v>
+        <v>34237.68212660463</v>
       </c>
       <c r="D50">
-        <v>183.6227439762806</v>
+        <v>34936.1837339595</v>
       </c>
       <c r="E50">
-        <v>6893.186290258023</v>
+        <v>11433.30610083657</v>
       </c>
       <c r="F50">
-        <v>6187.729115728969</v>
+        <v>7589.734926475797</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>216.6</v>
+        <v>179.4</v>
       </c>
       <c r="B51">
-        <v>76301.25395239572</v>
+        <v>15908.98366301639</v>
       </c>
       <c r="C51">
-        <v>26227.12580558124</v>
+        <v>33640.94522135022</v>
       </c>
       <c r="D51">
-        <v>3351.330077266466</v>
+        <v>32987.4382206883</v>
       </c>
       <c r="E51">
-        <v>6738.036700621809</v>
+        <v>10277.34567964981</v>
       </c>
       <c r="F51">
-        <v>5907.422967046718</v>
+        <v>7602.990694449579</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>218.9</v>
+        <v>181.7</v>
       </c>
       <c r="B52">
-        <v>108134.1634140082</v>
+        <v>22475.73323795923</v>
       </c>
       <c r="C52">
-        <v>28827.77022919303</v>
+        <v>32986.90872824055</v>
       </c>
       <c r="D52">
-        <v>4960.07117979243</v>
+        <v>31485.85565125606</v>
       </c>
       <c r="E52">
-        <v>5511.942832866693</v>
+        <v>11675.14992244613</v>
       </c>
       <c r="F52">
-        <v>5493.69060475088</v>
+        <v>7123.563104580235</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>221.2</v>
+        <v>183.9</v>
       </c>
       <c r="B53">
-        <v>126667.0728756206</v>
+        <v>21235.23283138264</v>
       </c>
       <c r="C53">
-        <v>27148.41465280487</v>
+        <v>33530.43903917912</v>
       </c>
       <c r="D53">
-        <v>2958.812282318366</v>
+        <v>30359.99406310349</v>
       </c>
       <c r="E53">
-        <v>5165.848965111583</v>
+        <v>11140.87571990347</v>
       </c>
       <c r="F53">
-        <v>5629.958242455044</v>
+        <v>7163.241062096512</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>223.4</v>
+        <v>186.2</v>
       </c>
       <c r="B54">
-        <v>154281.1601867282</v>
+        <v>15701.98240632536</v>
       </c>
       <c r="C54">
-        <v>29073.8136666944</v>
+        <v>35646.40254606947</v>
       </c>
       <c r="D54">
-        <v>3304.564641256235</v>
+        <v>32508.41149367128</v>
       </c>
       <c r="E54">
-        <v>6506.107004650166</v>
+        <v>11438.6799626998</v>
       </c>
       <c r="F54">
-        <v>5775.08380895468</v>
+        <v>6853.813472227163</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>225.7</v>
+        <v>188.7</v>
       </c>
       <c r="B55">
-        <v>189814.0696483406</v>
+        <v>24183.2319443067</v>
       </c>
       <c r="C55">
-        <v>25684.45809030624</v>
+        <v>35267.23244486333</v>
       </c>
       <c r="D55">
-        <v>2433.30574378217</v>
+        <v>30715.38696167973</v>
       </c>
       <c r="E55">
-        <v>5440.01313689505</v>
+        <v>10950.64109617405</v>
       </c>
       <c r="F55">
-        <v>5601.351446658844</v>
+        <v>6556.174787586571</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="B56">
-        <v>221246.979109953</v>
+        <v>24949.98151924941</v>
       </c>
       <c r="C56">
-        <v>26215.10251391804</v>
+        <v>35693.19595175366</v>
       </c>
       <c r="D56">
-        <v>3582.046846308134</v>
+        <v>28203.80439224749</v>
       </c>
       <c r="E56">
-        <v>4733.919269139939</v>
+        <v>11878.44533897037</v>
       </c>
       <c r="F56">
-        <v>5057.619084363011</v>
+        <v>6436.747197717227</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>230.5</v>
+        <v>193.2</v>
       </c>
       <c r="B57">
-        <v>275417.5328725752</v>
+        <v>22909.48111267283</v>
       </c>
       <c r="C57">
-        <v>27246.23775697436</v>
+        <v>35366.72626269224</v>
       </c>
       <c r="D57">
-        <v>3546.765436010261</v>
+        <v>28527.94280409492</v>
       </c>
       <c r="E57">
-        <v>4905.121586797424</v>
+        <v>10924.17113642772</v>
       </c>
       <c r="F57">
-        <v>4756.170864476231</v>
+        <v>6396.425155233504</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>232.8</v>
+        <v>195.5</v>
       </c>
       <c r="B58">
-        <v>310950.4423341877</v>
+        <v>24476.23068761555</v>
       </c>
       <c r="C58">
-        <v>23246.88218058616</v>
+        <v>36222.68976958257</v>
       </c>
       <c r="D58">
-        <v>3245.506538536196</v>
+        <v>27236.3602346627</v>
       </c>
       <c r="E58">
-        <v>4849.027719042308</v>
+        <v>10731.97537922404</v>
       </c>
       <c r="F58">
-        <v>4832.438502180396</v>
+        <v>6366.997565364157</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>235.1</v>
+        <v>197.7</v>
       </c>
       <c r="B59">
-        <v>331183.3517958</v>
+        <v>20035.73028103908</v>
       </c>
       <c r="C59">
-        <v>26197.52660419799</v>
+        <v>38686.22008052115</v>
       </c>
       <c r="D59">
-        <v>1364.24764106216</v>
+        <v>26890.49864651014</v>
       </c>
       <c r="E59">
-        <v>5522.933851287198</v>
+        <v>11247.70117668139</v>
       </c>
       <c r="F59">
-        <v>4758.70613988456</v>
+        <v>6466.675522880434</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>237.3</v>
+        <v>200</v>
       </c>
       <c r="B60">
-        <v>395697.4391069076</v>
+        <v>19802.4798559818</v>
       </c>
       <c r="C60">
-        <v>28002.92561808753</v>
+        <v>36152.18358741148</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>26788.9160770779</v>
       </c>
       <c r="E60">
-        <v>4603.19189082578</v>
+        <v>10865.5054194777</v>
       </c>
       <c r="F60">
-        <v>4413.831706384195</v>
+        <v>5837.247933011089</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>239.6</v>
+        <v>202.6</v>
       </c>
       <c r="B61">
-        <v>416030.34856852</v>
+        <v>19990.97937548232</v>
       </c>
       <c r="C61">
-        <v>28153.57004169933</v>
+        <v>34935.44668215707</v>
       </c>
       <c r="D61">
-        <v>2088.741102525964</v>
+        <v>27120.1705638067</v>
       </c>
       <c r="E61">
-        <v>5087.098023070664</v>
+        <v>10959.54499829094</v>
       </c>
       <c r="F61">
-        <v>4310.099344088359</v>
+        <v>5840.503700984871</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>242.2</v>
+        <v>204.9</v>
       </c>
       <c r="B62">
-        <v>462419.724481647</v>
+        <v>23957.72895042504</v>
       </c>
       <c r="C62">
-        <v>25309.95069447791</v>
+        <v>37891.41018904741</v>
       </c>
       <c r="D62">
-        <v>4336.448435816157</v>
+        <v>23668.58799437445</v>
       </c>
       <c r="E62">
-        <v>5191.948433434456</v>
+        <v>9347.349241087257</v>
       </c>
       <c r="F62">
-        <v>4419.793195406108</v>
+        <v>6411.076111115527</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>244.5</v>
+        <v>207.2</v>
       </c>
       <c r="B63">
-        <v>513652.6339432596</v>
+        <v>25524.47852536775</v>
       </c>
       <c r="C63">
-        <v>25590.59511808972</v>
+        <v>35627.37369593774</v>
       </c>
       <c r="D63">
-        <v>1385.189538342122</v>
+        <v>26477.00542494224</v>
       </c>
       <c r="E63">
-        <v>4385.854565679339</v>
+        <v>10585.15348388357</v>
       </c>
       <c r="F63">
-        <v>3786.060833110274</v>
+        <v>5541.648521246178</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>246.7</v>
+        <v>209.5</v>
       </c>
       <c r="B64">
-        <v>532766.7212543669</v>
+        <v>34591.22810031047</v>
       </c>
       <c r="C64">
-        <v>26585.99413197929</v>
+        <v>34993.33720282808</v>
       </c>
       <c r="D64">
-        <v>2440.941897279961</v>
+        <v>23425.42285550999</v>
       </c>
       <c r="E64">
-        <v>5116.112605217922</v>
+        <v>9532.95772667989</v>
       </c>
       <c r="F64">
-        <v>4161.186399609911</v>
+        <v>5982.220931376834</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>248.9</v>
+        <v>211.8</v>
       </c>
       <c r="B65">
-        <v>573880.8085654746</v>
+        <v>38857.97767525332</v>
       </c>
       <c r="C65">
-        <v>26121.39314586886</v>
+        <v>38699.30070971842</v>
       </c>
       <c r="D65">
-        <v>2656.69425621783</v>
+        <v>23153.84028607778</v>
       </c>
       <c r="E65">
-        <v>5206.370644756512</v>
+        <v>10140.76196947621</v>
       </c>
       <c r="F65">
-        <v>2966.311966109542</v>
+        <v>5942.793341507489</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>251.1</v>
+        <v>214</v>
       </c>
       <c r="B66">
-        <v>596994.8958765821</v>
+        <v>53017.47726867672</v>
       </c>
       <c r="C66">
-        <v>23086.7921597584</v>
+        <v>36212.83102065699</v>
       </c>
       <c r="D66">
-        <v>1182.446615155706</v>
+        <v>20517.97869792522</v>
       </c>
       <c r="E66">
-        <v>4736.628684295101</v>
+        <v>10986.48776693356</v>
       </c>
       <c r="F66">
-        <v>3391.437532609179</v>
+        <v>6552.471299023767</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>253.7</v>
+        <v>216.6</v>
       </c>
       <c r="B67">
-        <v>640284.2717897091</v>
+        <v>78905.97678817724</v>
       </c>
       <c r="C67">
-        <v>23943.17281253698</v>
+        <v>35086.09411540258</v>
       </c>
       <c r="D67">
-        <v>720.1539484459208</v>
+        <v>23199.23318465399</v>
       </c>
       <c r="E67">
-        <v>3411.47909465888</v>
+        <v>10790.52734574679</v>
       </c>
       <c r="F67">
-        <v>3121.13138392693</v>
+        <v>6265.727066997549</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>255.9</v>
+        <v>218.9</v>
       </c>
       <c r="B68">
-        <v>656398.3591008168</v>
+        <v>110472.72636312</v>
       </c>
       <c r="C68">
-        <v>22988.57182642652</v>
+        <v>37622.05762229292</v>
       </c>
       <c r="D68">
-        <v>1745.906307383761</v>
+        <v>24377.65061522177</v>
       </c>
       <c r="E68">
-        <v>4621.737134197469</v>
+        <v>9528.331588543111</v>
       </c>
       <c r="F68">
-        <v>2756.256950426566</v>
+        <v>5846.299477128204</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>258.2</v>
+        <v>221.2</v>
       </c>
       <c r="B69">
-        <v>692631.268562429</v>
+        <v>128739.4759380627</v>
       </c>
       <c r="C69">
-        <v>19269.21625003835</v>
+        <v>35878.02112918325</v>
       </c>
       <c r="D69">
-        <v>124.647409909725</v>
+        <v>21946.06804578956</v>
       </c>
       <c r="E69">
-        <v>3115.64326644236</v>
+        <v>9146.135831339428</v>
       </c>
       <c r="F69">
-        <v>2822.52458813073</v>
+        <v>5976.871887258856</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>260.5</v>
+        <v>223.4</v>
       </c>
       <c r="B70">
-        <v>717164.1780240416</v>
+        <v>156098.9755314862</v>
       </c>
       <c r="C70">
-        <v>19309.86067365015</v>
+        <v>37741.55144012182</v>
       </c>
       <c r="D70">
-        <v>413.3885124356602</v>
+        <v>21880.20645763697</v>
       </c>
       <c r="E70">
-        <v>3519.549398687243</v>
+        <v>10451.86162879677</v>
       </c>
       <c r="F70">
-        <v>2048.792225834894</v>
+        <v>6116.549844775133</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>263.1</v>
+        <v>225.7</v>
       </c>
       <c r="B71">
-        <v>754653.5539371687</v>
+        <v>191365.7251064289</v>
       </c>
       <c r="C71">
-        <v>19626.24132642873</v>
+        <v>34287.51494701215</v>
       </c>
       <c r="D71">
-        <v>1251.095845725882</v>
+        <v>20578.62388820475</v>
       </c>
       <c r="E71">
-        <v>3724.399809051022</v>
+        <v>9349.665871593093</v>
       </c>
       <c r="F71">
-        <v>2098.486077152645</v>
+        <v>5937.122254905789</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>265.4</v>
+        <v>228</v>
       </c>
       <c r="B72">
-        <v>776786.4633987811</v>
+        <v>222532.4746813716</v>
       </c>
       <c r="C72">
-        <v>20816.88575004053</v>
+        <v>34753.47845390249</v>
       </c>
       <c r="D72">
-        <v>2239.83694825181</v>
+        <v>21297.04131877254</v>
       </c>
       <c r="E72">
-        <v>1888.305941295912</v>
+        <v>8607.470114389409</v>
       </c>
       <c r="F72">
-        <v>2034.753714856809</v>
+        <v>5387.694665036441</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>267.7</v>
+        <v>230.5</v>
       </c>
       <c r="B73">
-        <v>751819.3728603935</v>
+        <v>276413.7242193529</v>
       </c>
       <c r="C73">
-        <v>20197.53017365233</v>
+        <v>35714.30835269635</v>
       </c>
       <c r="D73">
-        <v>1518.578050777782</v>
+        <v>20794.01678678096</v>
       </c>
       <c r="E73">
-        <v>3402.212073540796</v>
+        <v>8739.431247863673</v>
       </c>
       <c r="F73">
-        <v>2021.021352560973</v>
+        <v>5080.055980395849</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>270</v>
+        <v>232.8</v>
       </c>
       <c r="B74">
-        <v>721052.2823220058</v>
+        <v>311680.4737942956</v>
       </c>
       <c r="C74">
-        <v>17418.17459726416</v>
+        <v>31650.27185958669</v>
       </c>
       <c r="D74">
-        <v>2787.319153303717</v>
+        <v>20062.43421734874</v>
       </c>
       <c r="E74">
-        <v>4326.118205785686</v>
+        <v>8647.235490659988</v>
       </c>
       <c r="F74">
-        <v>1757.288990265137</v>
+        <v>5150.628390526505</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>272.4</v>
+        <v>235.1</v>
       </c>
       <c r="B75">
-        <v>688904.0139341231</v>
+        <v>331647.2233692384</v>
       </c>
       <c r="C75">
-        <v>16514.06443059822</v>
+        <v>34536.23536647702</v>
       </c>
       <c r="D75">
-        <v>3489.048999417741</v>
+        <v>17750.85164791653</v>
       </c>
       <c r="E75">
-        <v>3223.67243073687</v>
+        <v>9285.039733456313</v>
       </c>
       <c r="F75">
-        <v>1614.698699173829</v>
+        <v>5071.200800657156</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>274.7</v>
+        <v>237.3</v>
       </c>
       <c r="B76">
-        <v>630736.9233957357</v>
+        <v>395906.7229626619</v>
       </c>
       <c r="C76">
-        <v>14854.70885421003</v>
+        <v>36279.7656774156</v>
       </c>
       <c r="D76">
-        <v>2917.790101943712</v>
+        <v>15974.99005976396</v>
       </c>
       <c r="E76">
-        <v>3677.578562981753</v>
+        <v>8330.765530913661</v>
       </c>
       <c r="F76">
-        <v>2120.966336877993</v>
+        <v>4720.878758173433</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>277.3</v>
+        <v>239.6</v>
       </c>
       <c r="B77">
-        <v>567126.2993088628</v>
+        <v>415973.4725376046</v>
       </c>
       <c r="C77">
-        <v>15681.0895069886</v>
+        <v>36365.72918430594</v>
       </c>
       <c r="D77">
-        <v>3245.49743523389</v>
+        <v>17633.40749033172</v>
       </c>
       <c r="E77">
-        <v>3042.428973345539</v>
+        <v>8778.569773709978</v>
       </c>
       <c r="F77">
-        <v>1720.660188195744</v>
+        <v>4611.451168304089</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>279.7</v>
+        <v>242.2</v>
       </c>
       <c r="B78">
-        <v>491378.03092098</v>
+        <v>462061.9720571052</v>
       </c>
       <c r="C78">
-        <v>16186.97934032267</v>
+        <v>33448.99227905153</v>
       </c>
       <c r="D78">
-        <v>1967.227281347921</v>
+        <v>19394.66197706052</v>
       </c>
       <c r="E78">
-        <v>1799.983198296723</v>
+        <v>8842.609352523205</v>
       </c>
       <c r="F78">
-        <v>1458.069897104437</v>
+        <v>4714.706936277871</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>281.9</v>
+        <v>244.5</v>
       </c>
       <c r="B79">
-        <v>464892.1182320876</v>
+        <v>513028.7216320478</v>
       </c>
       <c r="C79">
-        <v>16582.37835421221</v>
+        <v>33664.95578594186</v>
       </c>
       <c r="D79">
-        <v>4652.97964028579</v>
+        <v>16013.07940762828</v>
       </c>
       <c r="E79">
-        <v>3190.241237835313</v>
+        <v>8000.41359531952</v>
       </c>
       <c r="F79">
-        <v>1493.195463604073</v>
+        <v>4075.279346408526</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>284.2</v>
+        <v>246.7</v>
       </c>
       <c r="B80">
-        <v>422525.0276937</v>
+        <v>531888.2212254714</v>
       </c>
       <c r="C80">
-        <v>17713.02277782404</v>
+        <v>34598.48609688043</v>
       </c>
       <c r="D80">
-        <v>3261.720742811754</v>
+        <v>16657.21781947571</v>
       </c>
       <c r="E80">
-        <v>2564.147370080203</v>
+        <v>8696.139392776875</v>
       </c>
       <c r="F80">
-        <v>1659.463101308237</v>
+        <v>4444.957303924804</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>286.5</v>
+        <v>248.9</v>
       </c>
       <c r="B81">
-        <v>389957.9371553125</v>
+        <v>572747.7208188948</v>
       </c>
       <c r="C81">
-        <v>15713.66720143584</v>
+        <v>34072.01640781903</v>
       </c>
       <c r="D81">
-        <v>4790.46184533769</v>
+        <v>16461.35623132315</v>
       </c>
       <c r="E81">
-        <v>3508.053502325086</v>
+        <v>8751.865190234223</v>
       </c>
       <c r="F81">
-        <v>1525.7307390124</v>
+        <v>3244.635261441082</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>288.8</v>
+        <v>251.1</v>
       </c>
       <c r="B82">
-        <v>363490.846616925</v>
+        <v>595607.2204123184</v>
       </c>
       <c r="C82">
-        <v>19534.31162504764</v>
+        <v>30975.54671875761</v>
       </c>
       <c r="D82">
-        <v>5149.202947863632</v>
+        <v>14575.49464317059</v>
       </c>
       <c r="E82">
-        <v>2751.95963456997</v>
+        <v>8247.590987691568</v>
       </c>
       <c r="F82">
-        <v>1381.998376716564</v>
+        <v>3664.313218957359</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>291</v>
+        <v>253.7</v>
       </c>
       <c r="B83">
-        <v>344204.9339280324</v>
+        <v>638595.7199318185</v>
       </c>
       <c r="C83">
-        <v>16209.71063893721</v>
+        <v>31758.8098135032</v>
       </c>
       <c r="D83">
-        <v>5954.955306801501</v>
+        <v>13626.74912989936</v>
       </c>
       <c r="E83">
-        <v>3392.217674108559</v>
+        <v>6881.630566504803</v>
       </c>
       <c r="F83">
-        <v>1057.1239432162</v>
+        <v>3387.568986931141</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>293.6</v>
+        <v>255.9</v>
       </c>
       <c r="B84">
-        <v>320294.3098411596</v>
+        <v>654455.2195252421</v>
       </c>
       <c r="C84">
-        <v>18466.09129171579</v>
+        <v>30742.34012444177</v>
       </c>
       <c r="D84">
-        <v>3512.662640091716</v>
+        <v>14240.88754174679</v>
       </c>
       <c r="E84">
-        <v>1807.068084472337</v>
+        <v>8057.35636396215</v>
       </c>
       <c r="F84">
-        <v>776.8177945339517</v>
+        <v>3017.246944447419</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>295.7</v>
+        <v>258.2</v>
       </c>
       <c r="B85">
-        <v>303189.5750017621</v>
+        <v>690421.969100185</v>
       </c>
       <c r="C85">
-        <v>17436.24489588308</v>
+        <v>26958.30363133211</v>
       </c>
       <c r="D85">
-        <v>5575.426255441496</v>
+        <v>12189.30497231458</v>
       </c>
       <c r="E85">
-        <v>1833.678031304627</v>
+        <v>6515.160606758467</v>
       </c>
       <c r="F85">
-        <v>1120.801289829056</v>
+        <v>3077.819354578074</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>298</v>
+        <v>260.5</v>
       </c>
       <c r="B86">
-        <v>289922.4844633746</v>
+        <v>714688.7186751276</v>
       </c>
       <c r="C86">
-        <v>20626.88931949491</v>
+        <v>26934.26713822245</v>
       </c>
       <c r="D86">
-        <v>4214.167357967432</v>
+        <v>12047.72240288234</v>
       </c>
       <c r="E86">
-        <v>2067.584163549517</v>
+        <v>6882.964849554784</v>
       </c>
       <c r="F86">
-        <v>1057.06892753322</v>
+        <v>2298.39176470873</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>300.5</v>
+        <v>263.1</v>
       </c>
       <c r="B87">
-        <v>283093.0382259968</v>
+        <v>751877.2181946281</v>
       </c>
       <c r="C87">
-        <v>22288.02456255123</v>
+        <v>27177.53023296804</v>
       </c>
       <c r="D87">
-        <v>5948.885947669551</v>
+        <v>12398.97688961113</v>
       </c>
       <c r="E87">
-        <v>1828.786481206995</v>
+        <v>7047.004428368009</v>
       </c>
       <c r="F87">
-        <v>1115.620707646443</v>
+        <v>2341.647532682511</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>302.4</v>
+        <v>265.4</v>
       </c>
       <c r="B88">
-        <v>261950.6590855897</v>
+        <v>773743.9677695709</v>
       </c>
       <c r="C88">
-        <v>21337.68734727402</v>
+        <v>28303.49373985838</v>
       </c>
       <c r="D88">
-        <v>6475.672075843177</v>
+        <v>12957.39432017889</v>
       </c>
       <c r="E88">
-        <v>1538.100242626689</v>
+        <v>5174.808671164333</v>
       </c>
       <c r="F88">
-        <v>1157.320060532491</v>
+        <v>2272.219942813163</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>305.1</v>
+        <v>267.7</v>
       </c>
       <c r="B89">
-        <v>251558.8571492217</v>
+        <v>748510.7173445135</v>
       </c>
       <c r="C89">
-        <v>21879.31340977483</v>
+        <v>27619.45724674871</v>
       </c>
       <c r="D89">
-        <v>4406.368152721458</v>
+        <v>11805.81175074668</v>
       </c>
       <c r="E89">
-        <v>3006.598745696775</v>
+        <v>6652.612913960657</v>
       </c>
       <c r="F89">
-        <v>1098.155983054771</v>
+        <v>2252.792352943819</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>307.4</v>
+        <v>270</v>
       </c>
       <c r="B90">
-        <v>246691.7666108341</v>
+        <v>717477.4669194564</v>
       </c>
       <c r="C90">
-        <v>24059.95783338666</v>
+        <v>24775.42075363904</v>
       </c>
       <c r="D90">
-        <v>3915.109255247415</v>
+        <v>12644.22918131446</v>
       </c>
       <c r="E90">
-        <v>2030.504877941659</v>
+        <v>7540.417156756975</v>
       </c>
       <c r="F90">
-        <v>824.4236207589352</v>
+        <v>1983.364763074474</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>309.6</v>
+        <v>272.4</v>
       </c>
       <c r="B91">
-        <v>250305.8539219416</v>
+        <v>685051.4664759183</v>
       </c>
       <c r="C91">
-        <v>26035.3568472762</v>
+        <v>23803.81745648115</v>
       </c>
       <c r="D91">
-        <v>6810.861614185262</v>
+        <v>12896.92563060257</v>
       </c>
       <c r="E91">
-        <v>2690.762917480241</v>
+        <v>6400.299844892262</v>
       </c>
       <c r="F91">
-        <v>1079.549187258571</v>
+        <v>1834.8316258195</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>311.9</v>
+        <v>274.7</v>
       </c>
       <c r="B92">
-        <v>242538.763383554</v>
+        <v>626618.2160508611</v>
       </c>
       <c r="C92">
-        <v>24516.00127088803</v>
+        <v>22079.78096337145</v>
       </c>
       <c r="D92">
-        <v>3619.602716711219</v>
+        <v>11895.34306117032</v>
       </c>
       <c r="E92">
-        <v>1544.669049725132</v>
+        <v>6818.104087688578</v>
       </c>
       <c r="F92">
-        <v>1135.816824962735</v>
+        <v>2335.404035950156</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>314.6</v>
+        <v>277.3</v>
       </c>
       <c r="B93">
-        <v>233846.961447186</v>
+        <v>562706.7155703616</v>
       </c>
       <c r="C93">
-        <v>19907.62733338884</v>
+        <v>22833.04405811704</v>
       </c>
       <c r="D93">
-        <v>6270.298793589507</v>
+        <v>11736.59754789912</v>
       </c>
       <c r="E93">
-        <v>1393.167552795211</v>
+        <v>6142.143666501804</v>
       </c>
       <c r="F93">
-        <v>796.6527474850145</v>
+        <v>1928.659803923941</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>316.9</v>
+        <v>279.7</v>
       </c>
       <c r="B94">
-        <v>222279.8709087984</v>
+        <v>486680.7151268236</v>
       </c>
       <c r="C94">
-        <v>20558.27175700064</v>
+        <v>23271.44076095914</v>
       </c>
       <c r="D94">
-        <v>3859.039896115442</v>
+        <v>10009.29399718723</v>
       </c>
       <c r="E94">
-        <v>1987.073685040102</v>
+        <v>4862.026354637097</v>
       </c>
       <c r="F94">
-        <v>1352.920385189179</v>
+        <v>1660.126666668968</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>319.2</v>
+        <v>281.9</v>
       </c>
       <c r="B95">
-        <v>223412.7803704109</v>
+        <v>459940.2147202471</v>
       </c>
       <c r="C95">
-        <v>16578.91618061247</v>
+        <v>23604.97107189771</v>
       </c>
       <c r="D95">
-        <v>5237.780998641407</v>
+        <v>12283.43240903467</v>
       </c>
       <c r="E95">
-        <v>1120.979817284992</v>
+        <v>6217.752152094445</v>
       </c>
       <c r="F95">
-        <v>839.1880228933428</v>
+        <v>1689.804624185245</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>321.1</v>
+        <v>284.2</v>
       </c>
       <c r="B96">
-        <v>215470.4012300037</v>
+        <v>417306.9642951899</v>
       </c>
       <c r="C96">
-        <v>16518.57896533526</v>
+        <v>24670.93457878805</v>
       </c>
       <c r="D96">
-        <v>4374.567126815004</v>
+        <v>10461.84983960245</v>
       </c>
       <c r="E96">
-        <v>1470.293578704679</v>
+        <v>5555.556394890769</v>
       </c>
       <c r="F96">
-        <v>430.8873757793904</v>
+        <v>1850.3770343159</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>323.8</v>
+        <v>286.5</v>
       </c>
       <c r="B97">
-        <v>225578.5992936357</v>
+        <v>384473.7138701326</v>
       </c>
       <c r="C97">
-        <v>13970.20502783607</v>
+        <v>22606.89808567839</v>
       </c>
       <c r="D97">
-        <v>4215.263203693306</v>
+        <v>11560.2672701702</v>
       </c>
       <c r="E97">
-        <v>1218.792081774759</v>
+        <v>6463.360637687086</v>
       </c>
       <c r="F97">
-        <v>151.7232983016702</v>
+        <v>1710.949444446556</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>326.1</v>
+        <v>288.8</v>
       </c>
       <c r="B98">
-        <v>210711.5087552481</v>
+        <v>357740.4634450753</v>
       </c>
       <c r="C98">
-        <v>12290.8494514479</v>
+        <v>26362.86159256872</v>
       </c>
       <c r="D98">
-        <v>4934.004306219242</v>
+        <v>11488.68470073796</v>
       </c>
       <c r="E98">
-        <v>1962.698214019649</v>
+        <v>5671.164880483402</v>
       </c>
       <c r="F98">
-        <v>877.9909360058341</v>
+        <v>1561.521854577208</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>328.3</v>
+        <v>291</v>
       </c>
       <c r="B99">
-        <v>207925.5960663557</v>
+        <v>338199.9630384989</v>
       </c>
       <c r="C99">
-        <v>12156.24846533744</v>
+        <v>22976.39190350732</v>
       </c>
       <c r="D99">
-        <v>7029.756665157111</v>
+        <v>11882.8231125854</v>
       </c>
       <c r="E99">
-        <v>852.9562535582313</v>
+        <v>6276.89067794075</v>
       </c>
       <c r="F99">
-        <v>1133.11650250547</v>
+        <v>1231.199812093485</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>330.7</v>
+        <v>293.6</v>
       </c>
       <c r="B100">
-        <v>212377.327678473</v>
+        <v>313988.4625579994</v>
       </c>
       <c r="C100">
-        <v>10642.13829867151</v>
+        <v>25159.65499825291</v>
       </c>
       <c r="D100">
-        <v>6381.486511271141</v>
+        <v>8954.077599314194</v>
       </c>
       <c r="E100">
-        <v>530.5104785094154</v>
+        <v>4650.930256753974</v>
       </c>
       <c r="F100">
-        <v>870.5262114141619</v>
+        <v>944.4555800672706</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>333.3</v>
+        <v>295.7</v>
       </c>
       <c r="B101">
-        <v>213466.7035916</v>
+        <v>296640.7121699036</v>
       </c>
       <c r="C101">
-        <v>12508.51895145009</v>
+        <v>24070.75211323973</v>
       </c>
       <c r="D101">
-        <v>5149.193844561356</v>
+        <v>10623.93699244129</v>
       </c>
       <c r="E101">
-        <v>1345.360888873201</v>
+        <v>4644.577608872352</v>
       </c>
       <c r="F101">
-        <v>920.2200627319135</v>
+        <v>1283.239084969171</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>335.6</v>
+        <v>298</v>
       </c>
       <c r="B102">
-        <v>215299.6130532124</v>
+        <v>283107.4617448463</v>
       </c>
       <c r="C102">
-        <v>10189.16337506189</v>
+        <v>27196.71562013006</v>
       </c>
       <c r="D102">
-        <v>6117.934947087291</v>
+        <v>8832.35442300907</v>
       </c>
       <c r="E102">
-        <v>419.2670211180844</v>
+        <v>4842.381851668669</v>
       </c>
       <c r="F102">
-        <v>856.4877004360774</v>
+        <v>1213.811495099826</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>337.9</v>
+        <v>300.5</v>
       </c>
       <c r="B103">
-        <v>202532.5225148249</v>
+        <v>275988.7112828275</v>
       </c>
       <c r="C103">
-        <v>8389.807798673721</v>
+        <v>28787.54551892392</v>
       </c>
       <c r="D103">
-        <v>5536.676049613226</v>
+        <v>10099.32989101752</v>
       </c>
       <c r="E103">
-        <v>483.173153362975</v>
+        <v>4564.342985142933</v>
       </c>
       <c r="F103">
-        <v>942.7553381402417</v>
+        <v>1266.17281045923</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>339.8</v>
+        <v>302.4</v>
       </c>
       <c r="B104">
-        <v>206590.1433744178</v>
+        <v>254626.4609316932</v>
       </c>
       <c r="C104">
-        <v>9949.470583396509</v>
+        <v>27783.77624200724</v>
       </c>
       <c r="D104">
-        <v>7053.462177786852</v>
+        <v>10270.63124670394</v>
       </c>
       <c r="E104">
-        <v>402.4869147826621</v>
+        <v>4243.833446583371</v>
       </c>
       <c r="F104">
-        <v>724.4546910262893</v>
+        <v>1303.167410132381</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>342.7</v>
+        <v>305.1</v>
       </c>
       <c r="B105">
-        <v>204935.9857390595</v>
+        <v>243922.2104327129</v>
       </c>
       <c r="C105">
-        <v>11421.58746534184</v>
+        <v>28249.47253270459</v>
       </c>
       <c r="D105">
-        <v>7110.13574184131</v>
+        <v>7696.164752153061</v>
       </c>
       <c r="E105">
-        <v>908.2816032653432</v>
+        <v>5669.951470735574</v>
       </c>
       <c r="F105">
-        <v>897.5747559576257</v>
+        <v>1237.31763072054</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>345</v>
+        <v>307.4</v>
       </c>
       <c r="B106">
-        <v>195468.8952006719</v>
+        <v>238788.9600076556</v>
       </c>
       <c r="C106">
-        <v>10712.23188895364</v>
+        <v>30365.43603959493</v>
       </c>
       <c r="D106">
-        <v>6988.876844367252</v>
+        <v>6774.58218272082</v>
       </c>
       <c r="E106">
-        <v>372.1877355102338</v>
+        <v>4657.75571353189</v>
       </c>
       <c r="F106">
-        <v>403.8423936617928</v>
+        <v>957.8900408511927</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>347.3</v>
+        <v>309.6</v>
       </c>
       <c r="B107">
-        <v>189801.8046622844</v>
+        <v>242148.4596010792</v>
       </c>
       <c r="C107">
-        <v>10642.87631256547</v>
+        <v>32278.9663505335</v>
       </c>
       <c r="D107">
-        <v>5737.617946893217</v>
+        <v>9258.720594568254</v>
       </c>
       <c r="E107">
-        <v>976.0938677551167</v>
+        <v>5283.481510989237</v>
       </c>
       <c r="F107">
-        <v>710.1100313659567</v>
+        <v>1207.56799836747</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>349.6</v>
+        <v>311.9</v>
       </c>
       <c r="B108">
-        <v>185934.7141238968</v>
+        <v>234115.2091760219</v>
       </c>
       <c r="C108">
-        <v>9173.520736177272</v>
+        <v>30694.92985742384</v>
       </c>
       <c r="D108">
-        <v>8056.359049419152</v>
+        <v>5637.138025136042</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>4101.285753785554</v>
       </c>
       <c r="F108">
-        <v>606.3776690701206</v>
+        <v>1258.140408498126</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>351.9</v>
+        <v>314.6</v>
       </c>
       <c r="B109">
-        <v>181467.6235855093</v>
+        <v>225110.9586770416</v>
       </c>
       <c r="C109">
-        <v>7704.165159789077</v>
+        <v>26010.62614812116</v>
       </c>
       <c r="D109">
-        <v>6215.100151945117</v>
+        <v>7782.671530585158</v>
       </c>
       <c r="E109">
-        <v>343.9061322448906</v>
+        <v>3907.40377793775</v>
       </c>
       <c r="F109">
-        <v>1042.645306774285</v>
+        <v>912.2906290862852</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>354.5</v>
+        <v>316.9</v>
       </c>
       <c r="B110">
-        <v>187856.9994986363</v>
+        <v>213277.7082519845</v>
       </c>
       <c r="C110">
-        <v>9740.545812567654</v>
+        <v>26596.58965501153</v>
       </c>
       <c r="D110">
-        <v>5952.807485235302</v>
+        <v>4941.088961152949</v>
       </c>
       <c r="E110">
-        <v>1438.756542608669</v>
+        <v>4465.208020734081</v>
       </c>
       <c r="F110">
-        <v>622.3391580920329</v>
+        <v>1462.863039216938</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>356.8</v>
+        <v>319.2</v>
       </c>
       <c r="B111">
-        <v>182389.9089602488</v>
+        <v>214144.4578269272</v>
       </c>
       <c r="C111">
-        <v>11561.19023617946</v>
+        <v>22552.55316190186</v>
       </c>
       <c r="D111">
-        <v>7901.548587761237</v>
+        <v>5889.506391720701</v>
       </c>
       <c r="E111">
-        <v>752.6626748535596</v>
+        <v>3563.012263530398</v>
       </c>
       <c r="F111">
-        <v>1088.6067957962</v>
+        <v>943.435449347593</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>359</v>
+        <v>321.1</v>
       </c>
       <c r="B112">
-        <v>185503.9962713563</v>
+        <v>205982.2074757929</v>
       </c>
       <c r="C112">
-        <v>10786.58925006903</v>
+        <v>22438.78388498515</v>
       </c>
       <c r="D112">
-        <v>8557.300946699106</v>
+        <v>4670.807747407118</v>
       </c>
       <c r="E112">
-        <v>1702.920714392149</v>
+        <v>3882.502724970828</v>
       </c>
       <c r="F112">
-        <v>433.7323622958361</v>
+        <v>530.4300490207438</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>361.3</v>
+        <v>323.8</v>
       </c>
       <c r="B113">
-        <v>190536.9057329687</v>
+        <v>215777.9569768126</v>
       </c>
       <c r="C113">
-        <v>12647.23367368083</v>
+        <v>19814.4801756825</v>
       </c>
       <c r="D113">
-        <v>9216.042049225078</v>
+        <v>4006.34125285624</v>
       </c>
       <c r="E113">
-        <v>2046.826846637032</v>
+        <v>3588.620749123032</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>244.5802696088999</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>363.6</v>
+        <v>326.1</v>
       </c>
       <c r="B114">
-        <v>185169.8151945811</v>
+        <v>200644.7065517553</v>
       </c>
       <c r="C114">
-        <v>9687.878097292631</v>
+        <v>18070.44368257284</v>
       </c>
       <c r="D114">
-        <v>11374.78315175101</v>
+        <v>4294.758683424025</v>
       </c>
       <c r="E114">
-        <v>2510.732978881915</v>
+        <v>4296.424991919348</v>
       </c>
       <c r="F114">
-        <v>1066.267637704164</v>
+        <v>965.1526797395554</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>365.8</v>
+        <v>328.3</v>
       </c>
       <c r="B115">
-        <v>203183.9025056887</v>
+        <v>197604.2061451789</v>
       </c>
       <c r="C115">
-        <v>12523.2771111822</v>
+        <v>17873.97399351141</v>
       </c>
       <c r="D115">
-        <v>13430.53551068888</v>
+        <v>5978.897095271463</v>
       </c>
       <c r="E115">
-        <v>2680.991018420505</v>
+        <v>3152.150789376696</v>
       </c>
       <c r="F115">
-        <v>661.3932042037959</v>
+        <v>1214.830637255833</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>368.5</v>
+        <v>330.7</v>
       </c>
       <c r="B116">
-        <v>200092.1005693207</v>
+        <v>201778.2057016408</v>
       </c>
       <c r="C116">
-        <v>9394.903173683013</v>
+        <v>16292.37069635351</v>
       </c>
       <c r="D116">
-        <v>12751.23158756716</v>
+        <v>4881.593544559568</v>
       </c>
       <c r="E116">
-        <v>3029.489521490585</v>
+        <v>2792.033477511983</v>
       </c>
       <c r="F116">
-        <v>162.2291267260794</v>
+        <v>946.2975000008628</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>370.7</v>
+        <v>333.3</v>
       </c>
       <c r="B117">
-        <v>204306.1878804281</v>
+        <v>202566.7052211413</v>
       </c>
       <c r="C117">
-        <v>9930.302187572584</v>
+        <v>18085.6337910991</v>
       </c>
       <c r="D117">
-        <v>13916.98394650503</v>
+        <v>3162.848031288337</v>
       </c>
       <c r="E117">
-        <v>3979.747561029174</v>
+        <v>3566.073056325215</v>
       </c>
       <c r="F117">
-        <v>1007.354693225712</v>
+        <v>989.5532679746448</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>373</v>
+        <v>335.6</v>
       </c>
       <c r="B118">
-        <v>198839.0973420406</v>
+        <v>204133.454796084</v>
       </c>
       <c r="C118">
-        <v>11280.94661118438</v>
+        <v>15701.59729798944</v>
       </c>
       <c r="D118">
-        <v>16705.72504903097</v>
+        <v>3701.265461856121</v>
       </c>
       <c r="E118">
-        <v>4503.653693274065</v>
+        <v>2603.877299121532</v>
       </c>
       <c r="F118">
-        <v>803.6223309298757</v>
+        <v>920.1256781052998</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>375.4</v>
+        <v>337.9</v>
       </c>
       <c r="B119">
-        <v>199190.8289541579</v>
+        <v>191100.2043710268</v>
       </c>
       <c r="C119">
-        <v>7136.836444518448</v>
+        <v>13837.56080487978</v>
       </c>
       <c r="D119">
-        <v>17837.45489514502</v>
+        <v>2689.68289242388</v>
       </c>
       <c r="E119">
-        <v>5391.207918225249</v>
+        <v>2631.681541917857</v>
       </c>
       <c r="F119">
-        <v>921.0320398385716</v>
+        <v>1000.698088235956</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>377.6</v>
+        <v>339.8</v>
       </c>
       <c r="B120">
-        <v>199604.9162652655</v>
+        <v>194937.9540198926</v>
       </c>
       <c r="C120">
-        <v>10472.23545840801</v>
+        <v>15343.79152796309</v>
       </c>
       <c r="D120">
-        <v>19903.20725408287</v>
+        <v>3850.984248110297</v>
       </c>
       <c r="E120">
-        <v>7901.46595776383</v>
+        <v>2521.172003358294</v>
       </c>
       <c r="F120">
-        <v>936.1576063382031</v>
+        <v>777.6926879091029</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>380.2</v>
+        <v>342.7</v>
       </c>
       <c r="B121">
-        <v>217094.2921783925</v>
+        <v>192948.2034839508</v>
       </c>
       <c r="C121">
-        <v>9558.616111186568</v>
+        <v>16734.35421056394</v>
       </c>
       <c r="D121">
-        <v>22510.91458737308</v>
+        <v>3365.075791000119</v>
       </c>
       <c r="E121">
-        <v>7426.316368127624</v>
+        <v>2981.44691818843</v>
       </c>
       <c r="F121">
-        <v>585.8514576559551</v>
+        <v>943.631813726015</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>382.5</v>
+        <v>345</v>
       </c>
       <c r="B122">
-        <v>213727.2016400049</v>
+        <v>183214.9530588935</v>
       </c>
       <c r="C122">
-        <v>10209.2605347984</v>
+        <v>15960.31771745428</v>
       </c>
       <c r="D122">
-        <v>25669.65568989902</v>
+        <v>2813.493221567875</v>
       </c>
       <c r="E122">
-        <v>9620.2225003725</v>
+        <v>2409.251160984747</v>
       </c>
       <c r="F122">
-        <v>892.119095360119</v>
+        <v>444.2042238566669</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>384.8</v>
+        <v>347.3</v>
       </c>
       <c r="B123">
-        <v>222060.1111016174</v>
+        <v>177281.7026338362</v>
       </c>
       <c r="C123">
-        <v>8999.904958410198</v>
+        <v>15826.28122434461</v>
       </c>
       <c r="D123">
-        <v>30578.39679242498</v>
+        <v>1131.910652135655</v>
       </c>
       <c r="E123">
-        <v>11324.12863261739</v>
+        <v>2977.055403781063</v>
       </c>
       <c r="F123">
-        <v>648.3867330642829</v>
+        <v>744.7766339873224</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>387.1</v>
+        <v>349.6</v>
       </c>
       <c r="B124">
-        <v>234493.0205632298</v>
+        <v>173148.4522087789</v>
       </c>
       <c r="C124">
-        <v>7730.549382022028</v>
+        <v>14292.24473123495</v>
       </c>
       <c r="D124">
-        <v>33047.13789495092</v>
+        <v>3020.32808270344</v>
       </c>
       <c r="E124">
-        <v>13708.03476486228</v>
+        <v>1964.859646577388</v>
       </c>
       <c r="F124">
-        <v>1164.654370768447</v>
+        <v>635.3490441179774</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>389.4</v>
+        <v>351.9</v>
       </c>
       <c r="B125">
-        <v>243425.9300248423</v>
+        <v>168415.2017837217</v>
       </c>
       <c r="C125">
-        <v>8091.193805633832</v>
+        <v>12758.20823812528</v>
       </c>
       <c r="D125">
-        <v>36485.87899747688</v>
+        <v>748.7455132711984</v>
       </c>
       <c r="E125">
-        <v>16671.94089710716</v>
+        <v>2272.663889373712</v>
       </c>
       <c r="F125">
-        <v>550.9220084726107</v>
+        <v>1065.92145424863</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>392</v>
+        <v>354.5</v>
       </c>
       <c r="B126">
-        <v>251015.3059379693</v>
+        <v>174503.7013032222</v>
       </c>
       <c r="C126">
-        <v>10237.57445841241</v>
+        <v>14721.47133287087</v>
       </c>
       <c r="D126">
-        <v>44463.58633076707</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>20056.79130747095</v>
+        <v>3326.703468186937</v>
       </c>
       <c r="F126">
-        <v>640.6158597903627</v>
+        <v>639.1772222224117</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>394.3</v>
+        <v>356.8</v>
       </c>
       <c r="B127">
-        <v>261548.2153995817</v>
+        <v>168770.4508781649</v>
       </c>
       <c r="C127">
-        <v>9948.21888202421</v>
+        <v>16477.43483976121</v>
       </c>
       <c r="D127">
-        <v>52062.32743329305</v>
+        <v>1518.417430567755</v>
       </c>
       <c r="E127">
-        <v>25420.69743971583</v>
+        <v>2604.507710983254</v>
       </c>
       <c r="F127">
-        <v>446.8834974945262</v>
+        <v>1099.749632353067</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>396.5</v>
+        <v>359</v>
       </c>
       <c r="B128">
-        <v>287862.3027106893</v>
+        <v>171629.9504715884</v>
       </c>
       <c r="C128">
-        <v>10393.61789591375</v>
+        <v>15640.96515069981</v>
       </c>
       <c r="D128">
-        <v>56098.07979223088</v>
+        <v>1762.55584241519</v>
       </c>
       <c r="E128">
-        <v>30640.95547925441</v>
+        <v>3520.233508440601</v>
       </c>
       <c r="F128">
-        <v>652.0090639941623</v>
+        <v>439.4275898693445</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>398.8</v>
+        <v>361.3</v>
       </c>
       <c r="B129">
-        <v>304195.2121723017</v>
+        <v>176396.7000465312</v>
       </c>
       <c r="C129">
-        <v>8954.262319525582</v>
+        <v>17436.92865759015</v>
       </c>
       <c r="D129">
-        <v>64756.82089475685</v>
+        <v>1990.973272982945</v>
       </c>
       <c r="E129">
-        <v>37624.86161149931</v>
+        <v>3828.037751236918</v>
       </c>
       <c r="F129">
-        <v>728.2767016983262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>401.1</v>
+        <v>363.6</v>
       </c>
       <c r="B130">
-        <v>323128.1216339141</v>
+        <v>170763.4496214739</v>
       </c>
       <c r="C130">
-        <v>8894.906743137382</v>
+        <v>14412.89216448048</v>
       </c>
       <c r="D130">
-        <v>74655.56199728278</v>
+        <v>3719.390703550729</v>
       </c>
       <c r="E130">
-        <v>44188.7677437442</v>
+        <v>4255.841994033234</v>
       </c>
       <c r="F130">
-        <v>1164.54433940249</v>
+        <v>1060.572410130652</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>403.7</v>
+        <v>365.8</v>
       </c>
       <c r="B131">
-        <v>356117.4975470412</v>
+        <v>188522.9492148974</v>
       </c>
       <c r="C131">
-        <v>10151.28739591596</v>
+        <v>17186.42247541905</v>
       </c>
       <c r="D131">
-        <v>86113.26933057299</v>
+        <v>5363.529115398167</v>
       </c>
       <c r="E131">
-        <v>50673.61815410798</v>
+        <v>4391.567791490589</v>
       </c>
       <c r="F131">
-        <v>1004.238190720242</v>
+        <v>650.2503676469291</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>405.9</v>
+        <v>368.5</v>
       </c>
       <c r="B132">
-        <v>399731.5848581488</v>
+        <v>185118.6987159171</v>
       </c>
       <c r="C132">
-        <v>11016.68640980554</v>
+        <v>13982.11876611641</v>
       </c>
       <c r="D132">
-        <v>99119.02168951086</v>
+        <v>4179.06262084729</v>
       </c>
       <c r="E132">
-        <v>59163.87619364657</v>
+        <v>4697.685815642792</v>
       </c>
       <c r="F132">
-        <v>1129.363757219878</v>
+        <v>144.4005882350893</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>408.2</v>
+        <v>370.7</v>
       </c>
       <c r="B133">
-        <v>428064.4943197612</v>
+        <v>189078.1983093406</v>
       </c>
       <c r="C133">
-        <v>11507.33083341734</v>
+        <v>14455.64907705499</v>
       </c>
       <c r="D133">
-        <v>113677.7627920368</v>
+        <v>4933.201032694727</v>
       </c>
       <c r="E133">
-        <v>71747.78232589146</v>
+        <v>5613.41161310014</v>
       </c>
       <c r="F133">
-        <v>415.6313949240416</v>
+        <v>984.0785457513671</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>410.5</v>
+        <v>373</v>
       </c>
       <c r="B134">
-        <v>484597.4037813735</v>
+        <v>183344.9478842833</v>
       </c>
       <c r="C134">
-        <v>10997.97525702914</v>
+        <v>15741.61258394532</v>
       </c>
       <c r="D134">
-        <v>129236.5038945627</v>
+        <v>7291.618463262508</v>
       </c>
       <c r="E134">
-        <v>84311.68845813634</v>
+        <v>6101.215855896457</v>
       </c>
       <c r="F134">
-        <v>831.8990326282055</v>
+        <v>774.6509558820221</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>413.1</v>
+        <v>375.4</v>
       </c>
       <c r="B135">
-        <v>559486.7796945006</v>
+        <v>183418.9474407454</v>
       </c>
       <c r="C135">
-        <v>9644.355909807718</v>
+        <v>11530.00928678742</v>
       </c>
       <c r="D135">
-        <v>144594.2112278529</v>
+        <v>7974.314912550617</v>
       </c>
       <c r="E135">
-        <v>100446.5388685001</v>
+        <v>6951.098544031744</v>
       </c>
       <c r="F135">
-        <v>201.5928839459571</v>
+        <v>886.1178186270522</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>415.3</v>
+        <v>377.6</v>
       </c>
       <c r="B136">
-        <v>631300.8670056082</v>
+        <v>183578.4470341688</v>
       </c>
       <c r="C136">
-        <v>10659.75492369726</v>
+        <v>14803.53959772596</v>
       </c>
       <c r="D136">
-        <v>168449.9635867908</v>
+        <v>9628.453324398048</v>
       </c>
       <c r="E136">
-        <v>125486.7969080387</v>
+        <v>9426.824341489089</v>
       </c>
       <c r="F136">
-        <v>1236.718450445589</v>
+        <v>895.7957761433295</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>417.6</v>
+        <v>380.2</v>
       </c>
       <c r="B137">
-        <v>751033.7764672207</v>
+        <v>200766.9465536693</v>
       </c>
       <c r="C137">
-        <v>9920.399347309061</v>
+        <v>13816.80269247159</v>
       </c>
       <c r="D137">
-        <v>200528.7046893168</v>
+        <v>11749.70781112682</v>
       </c>
       <c r="E137">
-        <v>165250.7030402836</v>
+        <v>8910.863920302323</v>
       </c>
       <c r="F137">
-        <v>1492.986088149753</v>
+        <v>539.0515441171115</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>419.9</v>
+        <v>382.5</v>
       </c>
       <c r="B138">
-        <v>932566.685928833</v>
+        <v>197133.696128612</v>
       </c>
       <c r="C138">
-        <v>13081.04377092089</v>
+        <v>14402.76619936192</v>
       </c>
       <c r="D138">
-        <v>238727.4457918427</v>
+        <v>14478.12524169461</v>
       </c>
       <c r="E138">
-        <v>219994.6091725285</v>
+        <v>11068.66816309864</v>
       </c>
       <c r="F138">
-        <v>1359.253725853917</v>
+        <v>839.623954247767</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>422.2</v>
+        <v>384.8</v>
       </c>
       <c r="B139">
-        <v>1166699.595390446</v>
+        <v>205200.4457035548</v>
       </c>
       <c r="C139">
-        <v>8811.688194532695</v>
+        <v>13128.72970625226</v>
       </c>
       <c r="D139">
-        <v>283836.1868943687</v>
+        <v>18956.54267226236</v>
       </c>
       <c r="E139">
-        <v>330198.5153047735</v>
+        <v>12736.47240589496</v>
       </c>
       <c r="F139">
-        <v>1875.521363558081</v>
+        <v>590.1963643784188</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>424.4</v>
+        <v>387.1</v>
       </c>
       <c r="B140">
-        <v>1619613.682701553</v>
+        <v>217367.1952784975</v>
       </c>
       <c r="C140">
-        <v>13277.08720842226</v>
+        <v>11794.69321314256</v>
       </c>
       <c r="D140">
-        <v>345181.9392533065</v>
+        <v>20994.96010283015</v>
       </c>
       <c r="E140">
-        <v>634528.7733443117</v>
+        <v>15084.27664869128</v>
       </c>
       <c r="F140">
-        <v>2040.646930057717</v>
+        <v>1100.768774509074</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>427</v>
+        <v>389.4</v>
       </c>
       <c r="B141">
-        <v>2686203.05861468</v>
+        <v>226033.9448534403</v>
       </c>
       <c r="C141">
-        <v>13463.46786120084</v>
+        <v>12090.65672003293</v>
       </c>
       <c r="D141">
-        <v>423009.6465865968</v>
+        <v>24003.37753339794</v>
       </c>
       <c r="E141">
-        <v>1379753.623754676</v>
+        <v>18012.0808914876</v>
       </c>
       <c r="F141">
-        <v>3160.340781375468</v>
+        <v>481.3411846397298</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>429.3</v>
+        <v>392</v>
       </c>
       <c r="B142">
-        <v>4168735.968076292</v>
+        <v>233322.4443729407</v>
       </c>
       <c r="C142">
-        <v>14754.11228481265</v>
+        <v>14163.91981477852</v>
       </c>
       <c r="D142">
-        <v>493578.3876891227</v>
+        <v>31494.63202012671</v>
       </c>
       <c r="E142">
-        <v>1138857.529886921</v>
+        <v>21356.12047030083</v>
       </c>
       <c r="F142">
-        <v>2916.608419079632</v>
+        <v>564.5969526135118</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>431.5</v>
+        <v>394.3</v>
       </c>
       <c r="B143">
-        <v>3419550.0553874</v>
+        <v>243589.1939478834</v>
       </c>
       <c r="C143">
-        <v>16049.51129870219</v>
+        <v>13809.88332166883</v>
       </c>
       <c r="D143">
-        <v>472004.1400480606</v>
+        <v>38663.04945069449</v>
       </c>
       <c r="E143">
-        <v>463547.7879264593</v>
+        <v>26683.92471309714</v>
       </c>
       <c r="F143">
-        <v>1591.733985579268</v>
+        <v>365.1693627441632</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>433.8</v>
+        <v>396.5</v>
       </c>
       <c r="B144">
-        <v>1739982.964849013</v>
+        <v>269648.693541307</v>
       </c>
       <c r="C144">
-        <v>12410.15572231399</v>
+        <v>14193.41363260743</v>
       </c>
       <c r="D144">
-        <v>417702.8811505865</v>
+        <v>42287.18786254193</v>
       </c>
       <c r="E144">
-        <v>189181.6940587041</v>
+        <v>31869.6505105545</v>
       </c>
       <c r="F144">
-        <v>1568.001623283432</v>
+        <v>564.8473202604409</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>436</v>
+        <v>398.8</v>
       </c>
       <c r="B145">
-        <v>1050597.05216012</v>
+        <v>285715.4431162497</v>
       </c>
       <c r="C145">
-        <v>15575.55473620356</v>
+        <v>12689.37713949776</v>
       </c>
       <c r="D145">
-        <v>378348.6335095244</v>
+        <v>50515.60529310968</v>
       </c>
       <c r="E145">
-        <v>127611.9520982427</v>
+        <v>38817.4547533508</v>
       </c>
       <c r="F145">
-        <v>1673.127189783068</v>
+        <v>635.4197303910964</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>438.3</v>
+        <v>401.1</v>
       </c>
       <c r="B146">
-        <v>821229.9616217323</v>
+        <v>304382.1926911924</v>
       </c>
       <c r="C146">
-        <v>13156.19915981539</v>
+        <v>12565.3406463881</v>
       </c>
       <c r="D146">
-        <v>334217.3746120502</v>
+        <v>59984.02272367744</v>
       </c>
       <c r="E146">
-        <v>101945.8582304876</v>
+        <v>45345.25899614714</v>
       </c>
       <c r="F146">
-        <v>1649.394827487232</v>
+        <v>1065.992140521752</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>440.6</v>
+        <v>403.7</v>
       </c>
       <c r="B147">
-        <v>708462.8710833449</v>
+        <v>337070.6922106929</v>
       </c>
       <c r="C147">
-        <v>12366.84358342719</v>
+        <v>13748.60374113369</v>
       </c>
       <c r="D147">
-        <v>295246.1157145763</v>
+        <v>70955.27721040623</v>
       </c>
       <c r="E147">
-        <v>85149.76436273244</v>
+        <v>51789.29857496036</v>
       </c>
       <c r="F147">
-        <v>695.6624651913958</v>
+        <v>899.2479084955339</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>443.2</v>
+        <v>405.9</v>
       </c>
       <c r="B148">
-        <v>602952.2469964719</v>
+        <v>380430.1918041165</v>
       </c>
       <c r="C148">
-        <v>11473.22423620577</v>
+        <v>14552.13405207227</v>
       </c>
       <c r="D148">
-        <v>258343.8230478664</v>
+        <v>83549.41562225367</v>
       </c>
       <c r="E148">
-        <v>75684.61477309623</v>
+        <v>60245.02437241771</v>
       </c>
       <c r="F148">
-        <v>1045.356316509144</v>
+        <v>1018.925866011812</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>445.5</v>
+        <v>408.2</v>
       </c>
       <c r="B149">
-        <v>557085.1564580845</v>
+        <v>408496.9413790592</v>
       </c>
       <c r="C149">
-        <v>9093.868659817572</v>
+        <v>14978.0975589626</v>
       </c>
       <c r="D149">
-        <v>228792.5641503924</v>
+        <v>97677.83305282146</v>
       </c>
       <c r="E149">
-        <v>69118.52090534111</v>
+        <v>72792.82861521402</v>
       </c>
       <c r="F149">
-        <v>1121.623954213312</v>
+        <v>299.4982761424671</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>447.7</v>
+        <v>410.5</v>
       </c>
       <c r="B150">
-        <v>499999.2437691919</v>
+        <v>464763.6909540018</v>
       </c>
       <c r="C150">
-        <v>13819.26767370711</v>
+        <v>14404.06106585294</v>
       </c>
       <c r="D150">
-        <v>198718.3165093303</v>
+        <v>112806.2504833892</v>
       </c>
       <c r="E150">
-        <v>60658.77894487971</v>
+        <v>85320.63285801034</v>
       </c>
       <c r="F150">
-        <v>1066.749520712947</v>
+        <v>710.0706862731186</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>450</v>
+        <v>413.1</v>
       </c>
       <c r="B151">
-        <v>454432.1532308043</v>
+        <v>539352.1904735023</v>
       </c>
       <c r="C151">
-        <v>11819.91209731894</v>
+        <v>12977.32416059853</v>
       </c>
       <c r="D151">
-        <v>169657.0576118562</v>
+        <v>127677.504970118</v>
       </c>
       <c r="E151">
-        <v>58562.6850771246</v>
+        <v>101414.6724368236</v>
       </c>
       <c r="F151">
-        <v>933.0171584171112</v>
+        <v>73.32645424690418</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>452.3</v>
+        <v>415.3</v>
       </c>
       <c r="B152">
-        <v>433165.0626924167</v>
+        <v>610911.6900669257</v>
       </c>
       <c r="C152">
-        <v>11340.55652093074</v>
+        <v>13930.8544715371</v>
       </c>
       <c r="D152">
-        <v>149945.7987143821</v>
+        <v>151121.6433819654</v>
       </c>
       <c r="E152">
-        <v>54176.59120936948</v>
+        <v>126420.3982342809</v>
       </c>
       <c r="F152">
-        <v>839.2847961212751</v>
+        <v>1103.004411763182</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>454.9</v>
+        <v>417.6</v>
       </c>
       <c r="B153">
-        <v>392054.4386055439</v>
+        <v>730378.4396418686</v>
       </c>
       <c r="C153">
-        <v>10726.93717370933</v>
+        <v>13126.81797842744</v>
       </c>
       <c r="D153">
-        <v>138623.5060476723</v>
+        <v>182770.0608125332</v>
       </c>
       <c r="E153">
-        <v>48721.44161973328</v>
+        <v>166148.2024770773</v>
       </c>
       <c r="F153">
-        <v>608.9786474390271</v>
+        <v>1353.576821893833</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>456.8</v>
+        <v>419.9</v>
       </c>
       <c r="B154">
-        <v>360512.0594651367</v>
+        <v>911645.1892168112</v>
       </c>
       <c r="C154">
-        <v>11076.59995843212</v>
+        <v>16222.78148531777</v>
       </c>
       <c r="D154">
-        <v>124150.292175846</v>
+        <v>220538.478243101</v>
       </c>
       <c r="E154">
-        <v>47540.75538115296</v>
+        <v>220856.0067198735</v>
       </c>
       <c r="F154">
-        <v>1120.678000325071</v>
+        <v>1214.149232024489</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>459.5</v>
+        <v>422.2</v>
       </c>
       <c r="B155">
-        <v>330720.2575287687</v>
+        <v>1145511.938791754</v>
       </c>
       <c r="C155">
-        <v>10698.22602093296</v>
+        <v>11888.74499220811</v>
       </c>
       <c r="D155">
-        <v>118420.9882527243</v>
+        <v>265216.8956736688</v>
       </c>
       <c r="E155">
-        <v>43219.25388422304</v>
+        <v>331023.8109626699</v>
       </c>
       <c r="F155">
-        <v>741.5139228473545</v>
+        <v>1724.721642155145</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>461.8</v>
+        <v>424.4</v>
       </c>
       <c r="B156">
-        <v>307453.1669903811</v>
+        <v>1598171.438385177</v>
       </c>
       <c r="C156">
-        <v>9208.870444544757</v>
+        <v>16292.27530314671</v>
       </c>
       <c r="D156">
-        <v>110809.7293552502</v>
+        <v>326151.0340855162</v>
       </c>
       <c r="E156">
-        <v>42393.16001646793</v>
+        <v>635319.5367601272</v>
       </c>
       <c r="F156">
-        <v>887.7815605515184</v>
+        <v>1884.399599671422</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="B157">
-        <v>290667.2543014886</v>
+        <v>2664459.937904678</v>
       </c>
       <c r="C157">
-        <v>8924.269458434299</v>
+        <v>16405.53839789231</v>
       </c>
       <c r="D157">
-        <v>107235.4817141881</v>
+        <v>403492.2885722449</v>
       </c>
       <c r="E157">
-        <v>38513.41805600652</v>
+        <v>1380503.57633894</v>
       </c>
       <c r="F157">
-        <v>912.9071270511508</v>
+        <v>2997.655367645204</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>466.6</v>
+        <v>429.3</v>
       </c>
       <c r="B158">
-        <v>274456.6302146158</v>
+        <v>4146726.687479621</v>
       </c>
       <c r="C158">
-        <v>5160.650111212878</v>
+        <v>17631.50190478264</v>
       </c>
       <c r="D158">
-        <v>98033.18904747826</v>
+        <v>473630.7060028128</v>
       </c>
       <c r="E158">
-        <v>37068.2684663703</v>
+        <v>1139571.380581737</v>
       </c>
       <c r="F158">
-        <v>672.6009783689024</v>
+        <v>2748.227777775856</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>468.6</v>
+        <v>431.5</v>
       </c>
       <c r="B159">
-        <v>259633.0732247136</v>
+        <v>3397286.187073044</v>
       </c>
       <c r="C159">
-        <v>5675.55830565793</v>
+        <v>18865.03221572121</v>
       </c>
       <c r="D159">
-        <v>98662.96391923998</v>
+        <v>451644.8444146602</v>
       </c>
       <c r="E159">
-        <v>36041.23032049629</v>
+        <v>464227.1063791941</v>
       </c>
       <c r="F159">
-        <v>835.4424024594782</v>
+        <v>1417.905735292134</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>471.2</v>
+        <v>433.8</v>
       </c>
       <c r="B160">
-        <v>247122.4491378406</v>
+        <v>1717452.936647987</v>
       </c>
       <c r="C160">
-        <v>8221.938958436511</v>
+        <v>15160.99572261155</v>
       </c>
       <c r="D160">
-        <v>95360.67125253016</v>
+        <v>396913.2618452279</v>
       </c>
       <c r="E160">
-        <v>35396.08073086006</v>
+        <v>189824.9106219904</v>
       </c>
       <c r="F160">
-        <v>1005.13625377723</v>
+        <v>1388.478145422789</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>473.4</v>
+        <v>436</v>
       </c>
       <c r="B161">
-        <v>236136.5364489482</v>
+        <v>1027812.43624141</v>
       </c>
       <c r="C161">
-        <v>9187.337972326053</v>
+        <v>18264.52603355012</v>
       </c>
       <c r="D161">
-        <v>95646.42361146802</v>
+        <v>357147.4002570754</v>
       </c>
       <c r="E161">
-        <v>32026.33877039865</v>
+        <v>128220.6364194478</v>
       </c>
       <c r="F161">
-        <v>550.2618202768663</v>
+        <v>1488.156102939066</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>475.7</v>
+        <v>438.3</v>
       </c>
       <c r="B162">
-        <v>224969.4459105606</v>
+        <v>798179.1858163532</v>
       </c>
       <c r="C162">
-        <v>9967.982395937883</v>
+        <v>15780.48954044046</v>
       </c>
       <c r="D162">
-        <v>94745.16471399399</v>
+        <v>312585.8176876432</v>
       </c>
       <c r="E162">
-        <v>31060.24490264354</v>
+        <v>102518.4406622441</v>
       </c>
       <c r="F162">
-        <v>776.5294579810297</v>
+        <v>1458.728513069722</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>478</v>
+        <v>440.6</v>
       </c>
       <c r="B163">
-        <v>214902.3553721729</v>
+        <v>685145.9353912958</v>
       </c>
       <c r="C163">
-        <v>8988.626819549683</v>
+        <v>14926.45304733079</v>
       </c>
       <c r="D163">
-        <v>91603.90581651992</v>
+        <v>273184.235118211</v>
       </c>
       <c r="E163">
-        <v>29214.15103488843</v>
+        <v>85686.24490504042</v>
       </c>
       <c r="F163">
-        <v>442.7970956851941</v>
+        <v>499.3009232003737</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>480.6</v>
+        <v>443.2</v>
       </c>
       <c r="B164">
-        <v>208891.7312853001</v>
+        <v>579334.4349107962</v>
       </c>
       <c r="C164">
-        <v>9655.007472328265</v>
+        <v>13959.71614207639</v>
       </c>
       <c r="D164">
-        <v>87981.61314981015</v>
+        <v>235795.4896049397</v>
       </c>
       <c r="E164">
-        <v>29839.00144525221</v>
+        <v>76180.28448385367</v>
       </c>
       <c r="F164">
-        <v>952.4909470029452</v>
+        <v>842.5566911741557</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>482.8</v>
+        <v>445.5</v>
       </c>
       <c r="B165">
-        <v>203305.8185964077</v>
+        <v>533201.1844857392</v>
       </c>
       <c r="C165">
-        <v>8220.406486217807</v>
+        <v>11515.67964896672</v>
       </c>
       <c r="D165">
-        <v>87677.36550874799</v>
+        <v>205813.9070355075</v>
       </c>
       <c r="E165">
-        <v>27719.2594847908</v>
+        <v>69578.08872664996</v>
       </c>
       <c r="F165">
-        <v>1197.616513502581</v>
+        <v>913.1291013048112</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>485.1</v>
+        <v>447.7</v>
       </c>
       <c r="B166">
-        <v>194938.7280580201</v>
+        <v>475860.6840791628</v>
       </c>
       <c r="C166">
-        <v>10461.05090982961</v>
+        <v>16179.20995990529</v>
       </c>
       <c r="D166">
-        <v>87316.10661127395</v>
+        <v>175328.0454473549</v>
       </c>
       <c r="E166">
-        <v>23763.16561703569</v>
+        <v>61083.81452410733</v>
       </c>
       <c r="F166">
-        <v>913.8841512067447</v>
+        <v>852.807058821089</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>487.3</v>
+        <v>450</v>
       </c>
       <c r="B167">
-        <v>188752.8153691276</v>
+        <v>430027.4336541055</v>
       </c>
       <c r="C167">
-        <v>9476.449923719176</v>
+        <v>14115.17346679563</v>
       </c>
       <c r="D167">
-        <v>82701.85897021179</v>
+        <v>145836.4628779227</v>
       </c>
       <c r="E167">
-        <v>24133.42365657428</v>
+        <v>58951.61876690365</v>
       </c>
       <c r="F167">
-        <v>1349.009717706377</v>
+        <v>713.379468951744</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>490</v>
+        <v>452.3</v>
       </c>
       <c r="B168">
-        <v>178461.0134327596</v>
+        <v>408494.1832290482</v>
       </c>
       <c r="C168">
-        <v>7178.075986219991</v>
+        <v>13571.13697368596</v>
       </c>
       <c r="D168">
-        <v>79212.55504709011</v>
+        <v>125694.8803084905</v>
       </c>
       <c r="E168">
-        <v>23411.92215964436</v>
+        <v>54529.42300969995</v>
       </c>
       <c r="F168">
-        <v>609.8456402286611</v>
+        <v>613.9518790823959</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>492.2</v>
+        <v>454.9</v>
       </c>
       <c r="B169">
-        <v>165075.1007438672</v>
+        <v>367082.6827485486</v>
       </c>
       <c r="C169">
-        <v>10383.47500010956</v>
+        <v>12884.40006843156</v>
       </c>
       <c r="D169">
-        <v>78448.30740602795</v>
+        <v>113886.1347952193</v>
       </c>
       <c r="E169">
-        <v>20992.18019918295</v>
+        <v>49033.4625885132</v>
       </c>
       <c r="F169">
-        <v>944.9712067282935</v>
+        <v>377.2076470561778</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>494.5</v>
+        <v>456.8</v>
       </c>
       <c r="B170">
-        <v>165108.0102054795</v>
+        <v>335320.4323974143</v>
       </c>
       <c r="C170">
-        <v>6624.119423721363</v>
+        <v>13180.63079151487</v>
       </c>
       <c r="D170">
-        <v>77687.04850855391</v>
+        <v>99057.43615090568</v>
       </c>
       <c r="E170">
-        <v>19436.08633142782</v>
+        <v>47822.95304995363</v>
       </c>
       <c r="F170">
-        <v>1251.238844432457</v>
+        <v>884.2022467293291</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>496.8</v>
+        <v>459.5</v>
       </c>
       <c r="B171">
-        <v>172640.9196670919</v>
+        <v>305216.1818984342</v>
       </c>
       <c r="C171">
-        <v>10154.76384733319</v>
+        <v>12726.32708221223</v>
       </c>
       <c r="D171">
-        <v>78045.78961107985</v>
+        <v>92822.96965635478</v>
       </c>
       <c r="E171">
-        <v>20309.99246367272</v>
+        <v>43459.07107410583</v>
       </c>
       <c r="F171">
-        <v>907.5064821366204</v>
+        <v>498.3524673174888</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>499.1</v>
+        <v>461.8</v>
       </c>
       <c r="B172">
-        <v>159473.8291287044</v>
+        <v>281682.9314733769</v>
       </c>
       <c r="C172">
-        <v>9245.408270944992</v>
+        <v>11172.29058910256</v>
       </c>
       <c r="D172">
-        <v>75414.53071360581</v>
+        <v>84781.38708692256</v>
       </c>
       <c r="E172">
-        <v>17103.89859591761</v>
+        <v>42596.87531690214</v>
       </c>
       <c r="F172">
-        <v>613.7741198407884</v>
+        <v>638.9248774481403</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>501.3</v>
+        <v>464</v>
       </c>
       <c r="B173">
-        <v>165287.916439812</v>
+        <v>264642.4310668003</v>
       </c>
       <c r="C173">
-        <v>8970.807284834535</v>
+        <v>10825.82090004114</v>
       </c>
       <c r="D173">
-        <v>73880.28307254365</v>
+        <v>80795.52549877</v>
       </c>
       <c r="E173">
-        <v>16344.15663545619</v>
+        <v>38682.60111435949</v>
       </c>
       <c r="F173">
-        <v>928.8996863404245</v>
+        <v>658.6028349644184</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>503.6</v>
+        <v>466.6</v>
       </c>
       <c r="B174">
-        <v>151020.8259014243</v>
+        <v>248130.9305863008</v>
       </c>
       <c r="C174">
-        <v>7671.451708446365</v>
+        <v>6989.083994786729</v>
       </c>
       <c r="D174">
-        <v>71649.02417506962</v>
+        <v>71106.77998549878</v>
       </c>
       <c r="E174">
-        <v>16108.06276770107</v>
+        <v>37196.64069317273</v>
       </c>
       <c r="F174">
-        <v>1045.167324044588</v>
+        <v>411.8586029382031</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>506.2</v>
+        <v>468.6</v>
       </c>
       <c r="B175">
-        <v>150410.2018145514</v>
+        <v>233075.9302166858</v>
       </c>
       <c r="C175">
-        <v>8717.832361224917</v>
+        <v>7447.747913821809</v>
       </c>
       <c r="D175">
-        <v>70296.73150835981</v>
+        <v>71362.36035990555</v>
       </c>
       <c r="E175">
-        <v>14642.91317806486</v>
+        <v>36138.20959995213</v>
       </c>
       <c r="F175">
-        <v>764.8611753623363</v>
+        <v>569.7476552257285</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>508.5</v>
+        <v>471.2</v>
       </c>
       <c r="B176">
-        <v>131743.1112761639</v>
+        <v>220264.4297361863</v>
       </c>
       <c r="C176">
-        <v>8838.476784836746</v>
+        <v>9921.011008567402</v>
       </c>
       <c r="D176">
-        <v>69935.47261088577</v>
+        <v>67573.61484663436</v>
       </c>
       <c r="E176">
-        <v>15656.81931030974</v>
+        <v>35452.24917876536</v>
       </c>
       <c r="F176">
-        <v>801.1288130665034</v>
+        <v>733.0034231995114</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>510.7</v>
+        <v>473.4</v>
       </c>
       <c r="B177">
-        <v>136957.1985872713</v>
+        <v>209023.9293296098</v>
       </c>
       <c r="C177">
-        <v>6883.875798726319</v>
+        <v>10824.541319506</v>
       </c>
       <c r="D177">
-        <v>68521.22496982364</v>
+        <v>67447.7532584818</v>
       </c>
       <c r="E177">
-        <v>15417.07734984833</v>
+        <v>32047.97497622271</v>
       </c>
       <c r="F177">
-        <v>846.2543795661359</v>
+        <v>272.6813807157887</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>513.3</v>
+        <v>475.7</v>
       </c>
       <c r="B178">
-        <v>126746.5745003984</v>
+        <v>197590.6789045525</v>
       </c>
       <c r="C178">
-        <v>9580.256451504871</v>
+        <v>11540.50482639634</v>
       </c>
       <c r="D178">
-        <v>71348.93230311383</v>
+        <v>66116.17068904954</v>
       </c>
       <c r="E178">
-        <v>13161.92776021212</v>
+        <v>31045.77921901903</v>
       </c>
       <c r="F178">
-        <v>995.9482308838878</v>
+        <v>493.2537908464401</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>515.3</v>
+        <v>478</v>
       </c>
       <c r="B179">
-        <v>121523.0175104962</v>
+        <v>187257.4284794952</v>
       </c>
       <c r="C179">
-        <v>11145.16464594992</v>
+        <v>10496.46833328667</v>
       </c>
       <c r="D179">
-        <v>68658.70717487554</v>
+        <v>62544.5881196173</v>
       </c>
       <c r="E179">
-        <v>13424.88961433811</v>
+        <v>29163.58346181535</v>
       </c>
       <c r="F179">
-        <v>938.7896549744646</v>
+        <v>153.8262009770961</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>517.9</v>
+        <v>480.6</v>
       </c>
       <c r="B180">
-        <v>118812.3934236233</v>
+        <v>180945.9279989957</v>
       </c>
       <c r="C180">
-        <v>12361.5452987285</v>
+        <v>11089.73142803227</v>
       </c>
       <c r="D180">
-        <v>70546.41450816573</v>
+        <v>58435.84260634609</v>
       </c>
       <c r="E180">
-        <v>12459.74002470189</v>
+        <v>29747.62304062858</v>
       </c>
       <c r="F180">
-        <v>1078.483506292216</v>
+        <v>657.0819689508808</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>520.1</v>
+        <v>482.8</v>
       </c>
       <c r="B181">
-        <v>122626.4807347308</v>
+        <v>175105.4275924192</v>
       </c>
       <c r="C181">
-        <v>10366.94431261804</v>
+        <v>9593.261738970839</v>
       </c>
       <c r="D181">
-        <v>65292.1668671036</v>
+        <v>57719.98101819353</v>
       </c>
       <c r="E181">
-        <v>10829.99806424047</v>
+        <v>27593.34883808594</v>
       </c>
       <c r="F181">
-        <v>1273.609072791851</v>
+        <v>896.7599264671589</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>522.4</v>
+        <v>485.1</v>
       </c>
       <c r="B182">
-        <v>104359.3901963433</v>
+        <v>166472.177167362</v>
       </c>
       <c r="C182">
-        <v>10897.58873622987</v>
+        <v>11769.22524586118</v>
       </c>
       <c r="D182">
-        <v>64230.90796962954</v>
+        <v>56928.39844876129</v>
       </c>
       <c r="E182">
-        <v>9693.904196485362</v>
+        <v>23601.15308088224</v>
       </c>
       <c r="F182">
-        <v>1119.876710496012</v>
+        <v>607.3323365978104</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>524.7</v>
+        <v>487.3</v>
       </c>
       <c r="B183">
-        <v>100792.2996579557</v>
+        <v>160031.6767607855</v>
       </c>
       <c r="C183">
-        <v>9248.233159841669</v>
+        <v>10722.75555679975</v>
       </c>
       <c r="D183">
-        <v>63979.6490721555</v>
+        <v>51902.53686060873</v>
       </c>
       <c r="E183">
-        <v>9367.810328730246</v>
+        <v>23936.8788783396</v>
       </c>
       <c r="F183">
-        <v>1006.144348200179</v>
+        <v>1037.010294114089</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>526.9</v>
+        <v>490</v>
       </c>
       <c r="B184">
-        <v>95606.38696906329</v>
+        <v>149427.4262618052</v>
       </c>
       <c r="C184">
-        <v>8463.632173731245</v>
+        <v>8348.451847497105</v>
       </c>
       <c r="D184">
-        <v>63555.40143109337</v>
+        <v>47908.07036605784</v>
       </c>
       <c r="E184">
-        <v>9428.068368268836</v>
+        <v>23172.9969024918</v>
       </c>
       <c r="F184">
-        <v>901.2699146998148</v>
+        <v>291.1605147022483</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>529.5</v>
+        <v>492.2</v>
       </c>
       <c r="B185">
-        <v>89695.76288219032</v>
+        <v>135786.9258552286</v>
       </c>
       <c r="C185">
-        <v>8370.012826509794</v>
+        <v>11491.98215843568</v>
       </c>
       <c r="D185">
-        <v>61183.10876438356</v>
+        <v>46732.20877790528</v>
       </c>
       <c r="E185">
-        <v>9872.918778632613</v>
+        <v>20718.72269994914</v>
       </c>
       <c r="F185">
-        <v>990.9637660175667</v>
+        <v>620.8384722185256</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>531.8</v>
+        <v>494.5</v>
       </c>
       <c r="B186">
-        <v>92728.67234380275</v>
+        <v>135553.6754301715</v>
       </c>
       <c r="C186">
-        <v>10700.65725012163</v>
+        <v>7667.945665326014</v>
       </c>
       <c r="D186">
-        <v>60631.84986690953</v>
+        <v>45540.62620847307</v>
       </c>
       <c r="E186">
-        <v>7886.824910877503</v>
+        <v>19126.52694274546</v>
       </c>
       <c r="F186">
-        <v>1287.231403721731</v>
+        <v>921.4108823491815</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>534.1</v>
+        <v>496.8</v>
       </c>
       <c r="B187">
-        <v>79161.58180541519</v>
+        <v>142820.4250051142</v>
       </c>
       <c r="C187">
-        <v>7621.301673733425</v>
+        <v>11133.90917221635</v>
       </c>
       <c r="D187">
-        <v>59960.59096943546</v>
+        <v>45469.04363904085</v>
       </c>
       <c r="E187">
-        <v>7510.731043122387</v>
+        <v>19964.33118554178</v>
       </c>
       <c r="F187">
-        <v>1293.499041425895</v>
+        <v>571.9832924798329</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>536.3</v>
+        <v>499.1</v>
       </c>
       <c r="B188">
-        <v>77475.66911652268</v>
+        <v>129387.1745800569</v>
       </c>
       <c r="C188">
-        <v>6216.700687622971</v>
+        <v>10159.87267910668</v>
       </c>
       <c r="D188">
-        <v>57726.34332837333</v>
+        <v>42407.46106960861</v>
       </c>
       <c r="E188">
-        <v>6710.989082660977</v>
+        <v>16722.13542833809</v>
       </c>
       <c r="F188">
-        <v>1178.624607925527</v>
+        <v>272.555702610488</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>538.6</v>
+        <v>501.3</v>
       </c>
       <c r="B189">
-        <v>72808.57857813512</v>
+        <v>134946.6741734803</v>
       </c>
       <c r="C189">
-        <v>9997.345111234796</v>
+        <v>9823.402990045255</v>
       </c>
       <c r="D189">
-        <v>60555.08443089927</v>
+        <v>40461.59948145605</v>
       </c>
       <c r="E189">
-        <v>8524.89521490586</v>
+        <v>15927.86122579544</v>
       </c>
       <c r="F189">
-        <v>1104.89224562969</v>
+        <v>582.2336601267662</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>541.2</v>
+        <v>503.6</v>
       </c>
       <c r="B190">
-        <v>71497.95449126224</v>
+        <v>120413.4237484231</v>
       </c>
       <c r="C190">
-        <v>8153.725764013348</v>
+        <v>8459.366496935592</v>
       </c>
       <c r="D190">
-        <v>57732.79176418949</v>
+        <v>37800.0169120238</v>
       </c>
       <c r="E190">
-        <v>7049.745625269637</v>
+        <v>15655.66546859177</v>
       </c>
       <c r="F190">
-        <v>1074.586096947442</v>
+        <v>692.8060702574212</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>543.5</v>
+        <v>506.2</v>
       </c>
       <c r="B191">
-        <v>72530.8639528747</v>
+        <v>119501.9232679235</v>
       </c>
       <c r="C191">
-        <v>7354.370187625183</v>
+        <v>9432.629591681187</v>
       </c>
       <c r="D191">
-        <v>58511.53286671542</v>
+        <v>35961.2713987526</v>
       </c>
       <c r="E191">
-        <v>6373.651757514528</v>
+        <v>14149.705047405</v>
       </c>
       <c r="F191">
-        <v>1500.853734651606</v>
+        <v>406.0618382312032</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>545.8</v>
+        <v>508.5</v>
       </c>
       <c r="B192">
-        <v>76563.77341448699</v>
+        <v>100568.6728428662</v>
       </c>
       <c r="C192">
-        <v>8905.014611236982</v>
+        <v>9488.59309857152</v>
       </c>
       <c r="D192">
-        <v>57630.27396924139</v>
+        <v>35169.68882932036</v>
       </c>
       <c r="E192">
-        <v>5577.557889759421</v>
+        <v>15127.50929020131</v>
       </c>
       <c r="F192">
-        <v>967.1213723557703</v>
+        <v>436.6342483618555</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>548</v>
+        <v>510.7</v>
       </c>
       <c r="B193">
-        <v>72577.8607255946</v>
+        <v>105528.1724362898</v>
       </c>
       <c r="C193">
-        <v>8530.41362512655</v>
+        <v>7472.123409510096</v>
       </c>
       <c r="D193">
-        <v>57776.02632817923</v>
+        <v>33343.8272411678</v>
       </c>
       <c r="E193">
-        <v>4957.815929298009</v>
+        <v>14853.23508765866</v>
       </c>
       <c r="F193">
-        <v>1192.246938855406</v>
+        <v>476.3122058781328</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>550.3</v>
+        <v>513.3</v>
       </c>
       <c r="B194">
-        <v>68710.77018720703</v>
+        <v>95016.67195579028</v>
       </c>
       <c r="C194">
-        <v>7001.058048738355</v>
+        <v>10095.38650425572</v>
       </c>
       <c r="D194">
-        <v>54494.76743070519</v>
+        <v>35685.0817278966</v>
       </c>
       <c r="E194">
-        <v>5861.722061542892</v>
+        <v>12557.27466647189</v>
       </c>
       <c r="F194">
-        <v>1298.51457655957</v>
+        <v>619.5679738519148</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>552.8</v>
+        <v>515.3</v>
       </c>
       <c r="B195">
-        <v>66881.3239498292</v>
+        <v>89561.67158617522</v>
       </c>
       <c r="C195">
-        <v>7362.193291794675</v>
+        <v>11604.05042329077</v>
       </c>
       <c r="D195">
-        <v>54519.4860204073</v>
+        <v>32620.66210230337</v>
       </c>
       <c r="E195">
-        <v>4292.924379200378</v>
+        <v>12788.8435732513</v>
       </c>
       <c r="F195">
-        <v>1087.066356672794</v>
+        <v>557.4570261394438</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>555.1</v>
+        <v>517.9</v>
       </c>
       <c r="B196">
-        <v>61514.23341144166</v>
+        <v>86550.17110567575</v>
       </c>
       <c r="C196">
-        <v>9522.837715406475</v>
+        <v>12747.31351803636</v>
       </c>
       <c r="D196">
-        <v>52238.22712293325</v>
+        <v>34021.91658903214</v>
       </c>
       <c r="E196">
-        <v>4536.83051144526</v>
+        <v>11782.88315206453</v>
       </c>
       <c r="F196">
-        <v>1323.333994376957</v>
+        <v>690.7127941132258</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>557.3</v>
+        <v>520.1</v>
       </c>
       <c r="B197">
-        <v>65328.32072254922</v>
+        <v>90109.67069909928</v>
       </c>
       <c r="C197">
-        <v>7148.236729296047</v>
+        <v>10690.84382897496</v>
       </c>
       <c r="D197">
-        <v>56973.97948187112</v>
+        <v>28356.05500087957</v>
       </c>
       <c r="E197">
-        <v>5577.08855098385</v>
+        <v>10118.60894952187</v>
       </c>
       <c r="F197">
-        <v>1228.45956087659</v>
+        <v>880.390751629503</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>559.6</v>
+        <v>522.4</v>
       </c>
       <c r="B198">
-        <v>60361.23018416157</v>
+        <v>71576.420274042</v>
       </c>
       <c r="C198">
-        <v>9078.881152907847</v>
+        <v>11156.8073358653</v>
       </c>
       <c r="D198">
-        <v>52612.72058439706</v>
+        <v>26864.47243144736</v>
       </c>
       <c r="E198">
-        <v>4760.994683228733</v>
+        <v>8946.413192318199</v>
       </c>
       <c r="F198">
-        <v>1454.727198580757</v>
+        <v>720.9631617601553</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>561.8</v>
+        <v>524.7</v>
       </c>
       <c r="B199">
-        <v>60475.31749526913</v>
+        <v>67743.16984898472</v>
       </c>
       <c r="C199">
-        <v>9224.280166797418</v>
+        <v>9442.770842755628</v>
       </c>
       <c r="D199">
-        <v>56038.47294333493</v>
+        <v>26182.88986201511</v>
       </c>
       <c r="E199">
-        <v>4621.252722767324</v>
+        <v>8584.217435114508</v>
       </c>
       <c r="F199">
-        <v>1619.852765080394</v>
+        <v>601.535571890814</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>564.1</v>
+        <v>526.9</v>
       </c>
       <c r="B200">
-        <v>61208.2269568816</v>
+        <v>62302.66944240825</v>
       </c>
       <c r="C200">
-        <v>6674.924590409219</v>
+        <v>8596.301153694203</v>
       </c>
       <c r="D200">
-        <v>54147.21404586089</v>
+        <v>25347.02827386255</v>
       </c>
       <c r="E200">
-        <v>3945.158855012206</v>
+        <v>8609.943232571863</v>
       </c>
       <c r="F200">
-        <v>1286.120402784557</v>
+        <v>491.2135294070886</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>566.7</v>
+        <v>529.5</v>
       </c>
       <c r="B201">
-        <v>60797.60287000862</v>
+        <v>56091.16896190864</v>
       </c>
       <c r="C201">
-        <v>6991.305243187798</v>
+        <v>8429.564248439798</v>
       </c>
       <c r="D201">
-        <v>55304.92137915108</v>
+        <v>22488.28276059135</v>
       </c>
       <c r="E201">
-        <v>5060.009265375991</v>
+        <v>9013.982811385096</v>
       </c>
       <c r="F201">
-        <v>1155.814254102308</v>
+        <v>574.4692973808733</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>569</v>
+        <v>531.8</v>
       </c>
       <c r="B202">
-        <v>63730.51233162105</v>
+        <v>58857.91853685147</v>
       </c>
       <c r="C202">
-        <v>5221.949666799602</v>
+        <v>10695.52775533013</v>
       </c>
       <c r="D202">
-        <v>53323.66248167705</v>
+        <v>21506.70019115911</v>
       </c>
       <c r="E202">
-        <v>4153.915397620882</v>
+        <v>6991.787054181414</v>
       </c>
       <c r="F202">
-        <v>1432.081891806472</v>
+        <v>865.0417075115256</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>571.3</v>
+        <v>534.1</v>
       </c>
       <c r="B203">
-        <v>56363.42179323349</v>
+        <v>45024.66811179421</v>
       </c>
       <c r="C203">
-        <v>4982.594090411406</v>
+        <v>7551.491262220469</v>
       </c>
       <c r="D203">
-        <v>53332.40358420298</v>
+        <v>20405.11762172686</v>
       </c>
       <c r="E203">
-        <v>4337.821529865765</v>
+        <v>6579.591296977729</v>
       </c>
       <c r="F203">
-        <v>1448.349529510633</v>
+        <v>865.614117642177</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>573.5</v>
+        <v>536.3</v>
       </c>
       <c r="B204">
-        <v>53477.50910434108</v>
+        <v>43084.16770521761</v>
       </c>
       <c r="C204">
-        <v>6977.993104300974</v>
+        <v>6085.021573159044</v>
       </c>
       <c r="D204">
-        <v>53838.15594314085</v>
+        <v>17759.25603357433</v>
       </c>
       <c r="E204">
-        <v>3648.079569404348</v>
+        <v>5745.317094435086</v>
       </c>
       <c r="F204">
-        <v>1253.475096010268</v>
+        <v>745.2920751584552</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>575.8</v>
+        <v>538.6</v>
       </c>
       <c r="B205">
-        <v>53210.41856595351</v>
+        <v>38150.91728016034</v>
       </c>
       <c r="C205">
-        <v>5138.637527912803</v>
+        <v>9800.985080049377</v>
       </c>
       <c r="D205">
-        <v>52866.89704566679</v>
+        <v>20157.67346414208</v>
       </c>
       <c r="E205">
-        <v>3531.985701649239</v>
+        <v>7523.121337231394</v>
       </c>
       <c r="F205">
-        <v>1119.742733714433</v>
+        <v>665.8644852891139</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>578.3</v>
+        <v>541.2</v>
       </c>
       <c r="B206">
-        <v>50780.97232857568</v>
+        <v>36539.41679966086</v>
       </c>
       <c r="C206">
-        <v>6109.772770969098</v>
+        <v>7884.248174794969</v>
       </c>
       <c r="D206">
-        <v>53781.6156353689</v>
+        <v>16848.92795087085</v>
       </c>
       <c r="E206">
-        <v>2473.188019306724</v>
+        <v>6007.160916044626</v>
       </c>
       <c r="F206">
-        <v>1218.294513827653</v>
+        <v>629.1202532628959</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>580.6</v>
+        <v>543.5</v>
       </c>
       <c r="B207">
-        <v>51113.88179018813</v>
+        <v>37306.16637460358</v>
       </c>
       <c r="C207">
-        <v>4360.417194580924</v>
+        <v>7020.211681685306</v>
       </c>
       <c r="D207">
-        <v>55960.35673789485</v>
+        <v>17197.34538143864</v>
       </c>
       <c r="E207">
-        <v>4487.094151551606</v>
+        <v>5294.965158840942</v>
       </c>
       <c r="F207">
-        <v>1184.56215153182</v>
+        <v>1049.692663393547</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>582.9</v>
+        <v>545.8</v>
       </c>
       <c r="B208">
-        <v>57946.79125180056</v>
+        <v>41072.9159495463</v>
       </c>
       <c r="C208">
-        <v>6701.061618192728</v>
+        <v>8506.175188575642</v>
       </c>
       <c r="D208">
-        <v>55159.09784042081</v>
+        <v>15885.76281200643</v>
       </c>
       <c r="E208">
-        <v>4691.000283796497</v>
+        <v>4462.769401637267</v>
       </c>
       <c r="F208">
-        <v>1690.829789235984</v>
+        <v>510.2650735241996</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>585.1</v>
+        <v>548</v>
       </c>
       <c r="B209">
-        <v>57260.87856290805</v>
+        <v>36832.41554296983</v>
       </c>
       <c r="C209">
-        <v>5466.460632082267</v>
+        <v>8069.705499514243</v>
       </c>
       <c r="D209">
-        <v>58334.85019935868</v>
+        <v>15619.90122385386</v>
       </c>
       <c r="E209">
-        <v>3661.258323335079</v>
+        <v>3808.495199094615</v>
       </c>
       <c r="F209">
-        <v>1365.955355735619</v>
+        <v>729.9430310404805</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>587.4</v>
+        <v>550.3</v>
       </c>
       <c r="B210">
-        <v>57693.78802452049</v>
+        <v>32699.16511791254</v>
       </c>
       <c r="C210">
-        <v>7587.1050556941</v>
+        <v>6475.669006404581</v>
       </c>
       <c r="D210">
-        <v>56573.59130188462</v>
+        <v>11908.31865442162</v>
       </c>
       <c r="E210">
-        <v>3645.16445557997</v>
+        <v>4676.299441890932</v>
       </c>
       <c r="F210">
-        <v>1822.222993439784</v>
+        <v>830.5154411711328</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>589.7</v>
+        <v>552.8</v>
       </c>
       <c r="B211">
-        <v>54626.69748613294</v>
+        <v>30580.41465589376</v>
       </c>
       <c r="C211">
-        <v>2867.749479305897</v>
+        <v>6766.498905198413</v>
       </c>
       <c r="D211">
-        <v>57492.33240441055</v>
+        <v>11465.29412243007</v>
       </c>
       <c r="E211">
-        <v>3559.070587824853</v>
+        <v>3068.260575365196</v>
       </c>
       <c r="F211">
-        <v>1418.490631143947</v>
+        <v>612.8767565305407</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1">
-        <v>592.2</v>
+        <v>555.1</v>
       </c>
       <c r="B212">
-        <v>52597.2512487551</v>
+        <v>24947.1642308366</v>
       </c>
       <c r="C212">
-        <v>3838.884722362217</v>
+        <v>8862.462412088713</v>
       </c>
       <c r="D212">
-        <v>58877.05099411268</v>
+        <v>8753.711552997855</v>
       </c>
       <c r="E212">
-        <v>2250.272905482338</v>
+        <v>3276.064818161504</v>
       </c>
       <c r="F212">
-        <v>1727.042411257167</v>
+        <v>843.4491666611957</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1">
-        <v>594.5</v>
+        <v>557.3</v>
       </c>
       <c r="B213">
-        <v>63630.16071036753</v>
+        <v>28506.66382426001</v>
       </c>
       <c r="C213">
-        <v>5979.529145974021</v>
+        <v>6425.992723027322</v>
       </c>
       <c r="D213">
-        <v>59045.79209663864</v>
+        <v>13077.84996484529</v>
       </c>
       <c r="E213">
-        <v>4664.179037727221</v>
+        <v>4281.790615618859</v>
       </c>
       <c r="F213">
-        <v>1673.310048961332</v>
+        <v>743.1271241774739</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1">
-        <v>596.7</v>
+        <v>559.6</v>
       </c>
       <c r="B214">
-        <v>59544.24802147513</v>
+        <v>23273.41339920273</v>
       </c>
       <c r="C214">
-        <v>2714.928159863589</v>
+        <v>8291.95622991765</v>
       </c>
       <c r="D214">
-        <v>63751.54445557648</v>
+        <v>8286.267395413044</v>
       </c>
       <c r="E214">
-        <v>4294.437077265811</v>
+        <v>3429.594858415175</v>
       </c>
       <c r="F214">
-        <v>1378.43561546097</v>
+        <v>963.6995343081244</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1">
+        <v>561.8</v>
+      </c>
+      <c r="B215">
+        <v>23132.91299262625</v>
+      </c>
+      <c r="C215">
+        <v>8375.486540856258</v>
+      </c>
+      <c r="D215">
+        <v>11300.40580726048</v>
+      </c>
+      <c r="E215">
+        <v>3255.320655872524</v>
+      </c>
+      <c r="F215">
+        <v>1123.377491824403</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>564.1</v>
+      </c>
+      <c r="B216">
+        <v>23599.66256756898</v>
+      </c>
+      <c r="C216">
+        <v>5761.45004774656</v>
+      </c>
+      <c r="D216">
+        <v>8978.823237828234</v>
+      </c>
+      <c r="E216">
+        <v>2543.12489866884</v>
+      </c>
+      <c r="F216">
+        <v>783.9499019550576</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>566.7</v>
+      </c>
+      <c r="B217">
+        <v>22888.1620870695</v>
+      </c>
+      <c r="C217">
+        <v>6004.713142492154</v>
+      </c>
+      <c r="D217">
+        <v>9650.077724557035</v>
+      </c>
+      <c r="E217">
+        <v>3617.164477482064</v>
+      </c>
+      <c r="F217">
+        <v>647.2056699288432</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>569</v>
+      </c>
+      <c r="B218">
+        <v>25554.91166201221</v>
+      </c>
+      <c r="C218">
+        <v>4170.676649382492</v>
+      </c>
+      <c r="D218">
+        <v>7238.495155124823</v>
+      </c>
+      <c r="E218">
+        <v>2674.968720278389</v>
+      </c>
+      <c r="F218">
+        <v>917.7780800594956</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>571.3</v>
+      </c>
+      <c r="B219">
+        <v>17921.66123695493</v>
+      </c>
+      <c r="C219">
+        <v>3866.640156272858</v>
+      </c>
+      <c r="D219">
+        <v>6816.912585692582</v>
+      </c>
+      <c r="E219">
+        <v>2822.772963074714</v>
+      </c>
+      <c r="F219">
+        <v>928.3504901901479</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>573.5</v>
+      </c>
+      <c r="B220">
+        <v>14781.16083037847</v>
+      </c>
+      <c r="C220">
+        <v>5800.1704672114</v>
+      </c>
+      <c r="D220">
+        <v>6911.050997540013</v>
+      </c>
+      <c r="E220">
+        <v>2098.498760532054</v>
+      </c>
+      <c r="F220">
+        <v>728.0284477064251</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>575.8</v>
+      </c>
+      <c r="B221">
+        <v>14247.91040532118</v>
+      </c>
+      <c r="C221">
+        <v>3896.133974101737</v>
+      </c>
+      <c r="D221">
+        <v>5509.468428107801</v>
+      </c>
+      <c r="E221">
+        <v>1946.303003328379</v>
+      </c>
+      <c r="F221">
+        <v>588.6008578370811</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>578.3</v>
+      </c>
+      <c r="B222">
+        <v>11529.15994330239</v>
+      </c>
+      <c r="C222">
+        <v>4796.963872895595</v>
+      </c>
+      <c r="D222">
+        <v>5956.44389611626</v>
+      </c>
+      <c r="E222">
+        <v>848.2641368026428</v>
+      </c>
+      <c r="F222">
+        <v>680.9621731964844</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>580.6</v>
+      </c>
+      <c r="B223">
+        <v>11595.90951824512</v>
+      </c>
+      <c r="C223">
+        <v>2982.927379785929</v>
+      </c>
+      <c r="D223">
+        <v>7704.861326684004</v>
+      </c>
+      <c r="E223">
+        <v>2826.068379598951</v>
+      </c>
+      <c r="F223">
+        <v>641.5345833271431</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>582.9</v>
+      </c>
+      <c r="B224">
+        <v>18162.65909318784</v>
+      </c>
+      <c r="C224">
+        <v>5258.890886676266</v>
+      </c>
+      <c r="D224">
+        <v>6473.278757251792</v>
+      </c>
+      <c r="E224">
+        <v>2993.872622395275</v>
+      </c>
+      <c r="F224">
+        <v>1142.106993457795</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>585.1</v>
+      </c>
+      <c r="B225">
+        <v>17222.15868661137</v>
+      </c>
+      <c r="C225">
+        <v>3962.421197614808</v>
+      </c>
+      <c r="D225">
+        <v>9237.41716909923</v>
+      </c>
+      <c r="E225">
+        <v>1929.598419852622</v>
+      </c>
+      <c r="F225">
+        <v>811.7849509740727</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>587.4</v>
+      </c>
+      <c r="B226">
+        <v>17388.90826155409</v>
+      </c>
+      <c r="C226">
+        <v>6018.384704505174</v>
+      </c>
+      <c r="D226">
+        <v>7045.834599666989</v>
+      </c>
+      <c r="E226">
+        <v>1877.402662648939</v>
+      </c>
+      <c r="F226">
+        <v>1262.357361104725</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>589.7</v>
+      </c>
+      <c r="B227">
+        <v>14055.65783649682</v>
+      </c>
+      <c r="C227">
+        <v>1234.348211395479</v>
+      </c>
+      <c r="D227">
+        <v>7534.25203023474</v>
+      </c>
+      <c r="E227">
+        <v>1755.206905445254</v>
+      </c>
+      <c r="F227">
+        <v>852.9297712353837</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>592.2</v>
+      </c>
+      <c r="B228">
+        <v>11736.90737447814</v>
+      </c>
+      <c r="C228">
+        <v>2135.178110189337</v>
+      </c>
+      <c r="D228">
+        <v>8451.227498243221</v>
+      </c>
+      <c r="E228">
+        <v>407.1680389195111</v>
+      </c>
+      <c r="F228">
+        <v>1155.291086594787</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>594.5</v>
+      </c>
+      <c r="B229">
+        <v>22503.65694942086</v>
+      </c>
+      <c r="C229">
+        <v>4211.141617079674</v>
+      </c>
+      <c r="D229">
+        <v>8189.64492881098</v>
+      </c>
+      <c r="E229">
+        <v>2784.972281715835</v>
+      </c>
+      <c r="F229">
+        <v>1095.863496725443</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>596.7</v>
+      </c>
+      <c r="B230">
+        <v>18163.15654284428</v>
+      </c>
+      <c r="C230">
+        <v>884.6719280182451</v>
+      </c>
+      <c r="D230">
+        <v>12483.78334065841</v>
+      </c>
+      <c r="E230">
+        <v>2380.698079173183</v>
+      </c>
+      <c r="F230">
+        <v>795.5414542417202</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
         <v>599</v>
       </c>
-      <c r="B215">
-        <v>55877.15748308745</v>
-      </c>
-      <c r="C215">
-        <v>4225.572583475393</v>
-      </c>
-      <c r="D215">
-        <v>61810.28555810245</v>
-      </c>
-      <c r="E215">
-        <v>2978.343209510694</v>
-      </c>
-      <c r="F215">
-        <v>1484.703253165135</v>
+      <c r="B231">
+        <v>14229.906117787</v>
+      </c>
+      <c r="C231">
+        <v>2330.635434908611</v>
+      </c>
+      <c r="D231">
+        <v>10112.20077122617</v>
+      </c>
+      <c r="E231">
+        <v>1028.502321969501</v>
+      </c>
+      <c r="F231">
+        <v>896.1138643723725</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>601.3</v>
+      </c>
+      <c r="B232">
+        <v>22496.65569272983</v>
+      </c>
+      <c r="C232">
+        <v>3606.598941798949</v>
+      </c>
+      <c r="D232">
+        <v>11900.61820179396</v>
+      </c>
+      <c r="E232">
+        <v>926.3065647658252</v>
+      </c>
+      <c r="F232">
+        <v>1036.686274503025</v>
       </c>
     </row>
   </sheetData>

--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_8.4E-09_15 s_724 TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_8.4E-09_15 s_724 TPD_output Acetic Acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4622 +417,4202 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B2">
-        <v>49700</v>
+        <v>38285.76928569923</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4570.112481698719</v>
       </c>
       <c r="D2">
-        <v>9174.785671909576</v>
+        <v>55689.44616700611</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4022.448805434105</v>
       </c>
       <c r="F2">
-        <v>762.2945833409649</v>
+        <v>1600.001824049516</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>91</v>
+        <v>114.6</v>
       </c>
       <c r="B3">
-        <v>4000</v>
+        <v>27700.50823578686</v>
       </c>
       <c r="C3">
-        <v>2700</v>
+        <v>3312.672261282047</v>
       </c>
       <c r="D3">
-        <v>12324.78567190958</v>
+        <v>46016.73371807167</v>
       </c>
       <c r="E3">
-        <v>1930</v>
+        <v>3685.873187192825</v>
       </c>
       <c r="F3">
-        <v>972.2945833409649</v>
+        <v>1418.994985932676</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>91</v>
+        <v>116.9</v>
       </c>
       <c r="B4">
-        <v>1700</v>
+        <v>22078.93115317204</v>
       </c>
       <c r="C4">
-        <v>3780</v>
+        <v>2219.936681682687</v>
       </c>
       <c r="D4">
-        <v>12394.78567190958</v>
+        <v>40357.79578247581</v>
       </c>
       <c r="E4">
-        <v>2290</v>
+        <v>3698.517832594762</v>
       </c>
       <c r="F4">
-        <v>932.2945833409649</v>
+        <v>1184.642782983162</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>91</v>
+        <v>119.4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>12581.56475902552</v>
       </c>
       <c r="C5">
-        <v>4330</v>
+        <v>2137.398008205119</v>
       </c>
       <c r="D5">
-        <v>12324.78567190958</v>
+        <v>31746.34150465421</v>
       </c>
       <c r="E5">
-        <v>3170</v>
+        <v>4248.348968901223</v>
       </c>
       <c r="F5">
-        <v>1152.294583340965</v>
+        <v>1722.520823255429</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>91</v>
+        <v>121.5</v>
       </c>
       <c r="B6">
-        <v>2100</v>
+        <v>6035.776987942503</v>
       </c>
       <c r="C6">
-        <v>3370</v>
+        <v>3644.465522483967</v>
       </c>
       <c r="D6">
-        <v>14554.78567190958</v>
+        <v>28999.9199112841</v>
       </c>
       <c r="E6">
-        <v>3810</v>
+        <v>1663.807123398651</v>
       </c>
       <c r="F6">
-        <v>822.2945833409649</v>
+        <v>895.9383770841339</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>91</v>
+        <v>123.5</v>
       </c>
       <c r="B7">
-        <v>10200</v>
+        <v>1877.883872625222</v>
       </c>
       <c r="C7">
-        <v>6260</v>
+        <v>606.4345837019191</v>
       </c>
       <c r="D7">
-        <v>15244.78567190958</v>
+        <v>26374.75648902682</v>
       </c>
       <c r="E7">
-        <v>3260</v>
+        <v>3125.67203244382</v>
       </c>
       <c r="F7">
-        <v>1122.294583340965</v>
+        <v>1138.240809301946</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>91</v>
+        <v>125.5</v>
       </c>
       <c r="B8">
-        <v>2400</v>
+        <v>5319.990757308049</v>
       </c>
       <c r="C8">
-        <v>6050</v>
+        <v>2148.403644919871</v>
       </c>
       <c r="D8">
-        <v>14924.78567190958</v>
+        <v>25689.59306676956</v>
       </c>
       <c r="E8">
-        <v>3990</v>
+        <v>2687.536941488989</v>
       </c>
       <c r="F8">
-        <v>852.2945833409649</v>
+        <v>1460.543241519758</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>91</v>
+        <v>127.5</v>
       </c>
       <c r="B9">
-        <v>3700</v>
+        <v>8062.097641990877</v>
       </c>
       <c r="C9">
-        <v>6610</v>
+        <v>3240.372706137823</v>
       </c>
       <c r="D9">
-        <v>14964.78567190958</v>
+        <v>24624.42964451229</v>
       </c>
       <c r="E9">
-        <v>3580</v>
+        <v>2489.401850534151</v>
       </c>
       <c r="F9">
-        <v>1712.294583340965</v>
+        <v>1552.845673737574</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>91</v>
+        <v>129.6</v>
       </c>
       <c r="B10">
-        <v>2900</v>
+        <v>7016.309870907746</v>
       </c>
       <c r="C10">
-        <v>6630</v>
+        <v>1767.440220416671</v>
       </c>
       <c r="D10">
-        <v>18414.78567190958</v>
+        <v>24798.00805114217</v>
       </c>
       <c r="E10">
-        <v>3110</v>
+        <v>3324.860005031578</v>
       </c>
       <c r="F10">
-        <v>902.2945833409649</v>
+        <v>946.2632275662788</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>91.2</v>
+        <v>132.2</v>
       </c>
       <c r="B11">
-        <v>1914.499963038492</v>
+        <v>2431.048820995376</v>
       </c>
       <c r="C11">
-        <v>10974.8663919035</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>26233.34370935024</v>
+        <v>25485.29560220773</v>
       </c>
       <c r="E11">
-        <v>5314.156890677939</v>
+        <v>3688.284386790298</v>
       </c>
       <c r="F11">
-        <v>974.083488569717</v>
+        <v>1465.256389449435</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>91.40000000000001</v>
+        <v>134.5</v>
       </c>
       <c r="B12">
-        <v>13128.99992607698</v>
+        <v>4209.471738380671</v>
       </c>
       <c r="C12">
-        <v>10669.73278380699</v>
+        <v>1697.26442040064</v>
       </c>
       <c r="D12">
-        <v>45911.90174679094</v>
+        <v>25786.35766661186</v>
       </c>
       <c r="E12">
-        <v>8978.313781355879</v>
+        <v>4470.929032192243</v>
       </c>
       <c r="F12">
-        <v>11935.87239379847</v>
+        <v>1280.904186499921</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>91.90000000000001</v>
+        <v>136.9</v>
       </c>
       <c r="B13">
-        <v>34065.24983367315</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>19521.89876356578</v>
+        <v>4029.627293862176</v>
       </c>
       <c r="D13">
-        <v>64223.29684039263</v>
+        <v>26226.16155990316</v>
       </c>
       <c r="E13">
-        <v>7018.706008050734</v>
+        <v>3897.166923046438</v>
       </c>
       <c r="F13">
-        <v>5190.344656870352</v>
+        <v>1097.667105161299</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>92.8</v>
+        <v>139.4</v>
       </c>
       <c r="B14">
-        <v>27330.49966734643</v>
+        <v>3302.63360585348</v>
       </c>
       <c r="C14">
-        <v>21503.79752713155</v>
+        <v>1287.088620384638</v>
       </c>
       <c r="D14">
-        <v>63281.80800887568</v>
+        <v>26674.70728208157</v>
       </c>
       <c r="E14">
-        <v>8547.412016101462</v>
+        <v>4086.998059352899</v>
       </c>
       <c r="F14">
-        <v>3878.394730399735</v>
+        <v>1215.545145433566</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>94.09999999999999</v>
+        <v>142.2</v>
       </c>
       <c r="B15">
-        <v>46724.74942709669</v>
+        <v>6341.583244409419</v>
       </c>
       <c r="C15">
-        <v>15335.42907450435</v>
+        <v>279.8453060897591</v>
       </c>
       <c r="D15">
-        <v>80597.43525224007</v>
+        <v>23119.47849092141</v>
       </c>
       <c r="E15">
-        <v>12184.43180550808</v>
+        <v>5067.608932016136</v>
       </c>
       <c r="F15">
-        <v>2980.022614386629</v>
+        <v>1146.768550538503</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>95.7</v>
+        <v>144.7</v>
       </c>
       <c r="B16">
-        <v>57440.74913140463</v>
+        <v>6544.216850262899</v>
       </c>
       <c r="C16">
-        <v>18144.3602097324</v>
+        <v>1177.306632612192</v>
       </c>
       <c r="D16">
-        <v>90155.89955176547</v>
+        <v>19798.02421309982</v>
       </c>
       <c r="E16">
-        <v>9607.686930931603</v>
+        <v>4677.440068322598</v>
       </c>
       <c r="F16">
-        <v>2324.333856216646</v>
+        <v>2184.64659081077</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>97.8</v>
+        <v>147.1</v>
       </c>
       <c r="B17">
-        <v>56492.99874330897</v>
+        <v>9734.745111882228</v>
       </c>
       <c r="C17">
-        <v>15385.45732471924</v>
+        <v>2149.669506073727</v>
       </c>
       <c r="D17">
-        <v>94945.75894489256</v>
+        <v>18897.82810639109</v>
       </c>
       <c r="E17">
-        <v>11021.33428304998</v>
+        <v>5153.677959176793</v>
       </c>
       <c r="F17">
-        <v>2203.11736111855</v>
+        <v>4151.409509472149</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>100.3</v>
+        <v>149.4</v>
       </c>
       <c r="B18">
-        <v>67174.24828129019</v>
+        <v>5313.168029267399</v>
       </c>
       <c r="C18">
-        <v>16336.28722351307</v>
+        <v>4966.933926474368</v>
       </c>
       <c r="D18">
-        <v>104722.734412901</v>
+        <v>16718.89017079525</v>
       </c>
       <c r="E18">
-        <v>9953.295416524243</v>
+        <v>5726.322604578738</v>
       </c>
       <c r="F18">
-        <v>2415.478676477957</v>
+        <v>6017.057306522634</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>103.5</v>
+        <v>151.6</v>
       </c>
       <c r="B19">
-        <v>81406.24768990617</v>
+        <v>12979.48560241854</v>
       </c>
       <c r="C19">
-        <v>16594.14949396918</v>
+        <v>4429.099893814112</v>
       </c>
       <c r="D19">
-        <v>103969.6630119518</v>
+        <v>15811.21040631225</v>
       </c>
       <c r="E19">
-        <v>9839.805667371294</v>
+        <v>6625.374004528424</v>
       </c>
       <c r="F19">
-        <v>1934.101160137996</v>
+        <v>10031.58998196223</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>106.5</v>
+        <v>154</v>
       </c>
       <c r="B20">
-        <v>80723.74713548356</v>
+        <v>7770.013864037865</v>
       </c>
       <c r="C20">
-        <v>15337.1453725218</v>
+        <v>7331.462767275649</v>
       </c>
       <c r="D20">
-        <v>100568.033573562</v>
+        <v>17011.01429960353</v>
       </c>
       <c r="E20">
-        <v>9502.159027540407</v>
+        <v>7541.611895382626</v>
       </c>
       <c r="F20">
-        <v>1960.934738569286</v>
+        <v>15828.35290062361</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>109.3</v>
+        <v>156.1</v>
       </c>
       <c r="B21">
-        <v>66026.74661802257</v>
+        <v>7624.226092954843</v>
       </c>
       <c r="C21">
-        <v>14905.27485917092</v>
+        <v>10788.5302815545</v>
       </c>
       <c r="D21">
-        <v>96297.84609773141</v>
+        <v>18614.59270623341</v>
       </c>
       <c r="E21">
-        <v>9520.35549703158</v>
+        <v>9397.070049880047</v>
       </c>
       <c r="F21">
-        <v>1835.97941177182</v>
+        <v>24141.77045445231</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>112</v>
+        <v>158.2</v>
       </c>
       <c r="B22">
-        <v>51322.49611904228</v>
+        <v>11278.43832187171</v>
       </c>
       <c r="C22">
-        <v>16340.97114986825</v>
+        <v>18695.59779583335</v>
       </c>
       <c r="D22">
-        <v>89023.37960318054</v>
+        <v>23238.17111286327</v>
       </c>
       <c r="E22">
-        <v>9586.473521183776</v>
+        <v>10672.52820437748</v>
       </c>
       <c r="F22">
-        <v>2150.129632359979</v>
+        <v>32735.18800828101</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>114.6</v>
+        <v>160.3</v>
       </c>
       <c r="B23">
-        <v>40610.99563854279</v>
+        <v>20532.6505507887</v>
       </c>
       <c r="C23">
-        <v>15014.23424461384</v>
+        <v>23632.66531011219</v>
       </c>
       <c r="D23">
-        <v>78974.63408990935</v>
+        <v>25541.74951949315</v>
       </c>
       <c r="E23">
-        <v>9210.513099997008</v>
+        <v>12337.9863588749</v>
       </c>
       <c r="F23">
-        <v>1963.385400333761</v>
+        <v>38078.60556210972</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>116.9</v>
+        <v>162.5</v>
       </c>
       <c r="B24">
-        <v>34877.74521348551</v>
+        <v>25698.96812393973</v>
       </c>
       <c r="C24">
-        <v>13860.19775150418</v>
+        <v>25794.83127745194</v>
       </c>
       <c r="D24">
-        <v>72983.05152047709</v>
+        <v>25294.06975501015</v>
       </c>
       <c r="E24">
-        <v>9188.317342793325</v>
+        <v>10797.03775882459</v>
       </c>
       <c r="F24">
-        <v>1723.957810464417</v>
+        <v>27383.13823754931</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>119.4</v>
+        <v>165.1</v>
       </c>
       <c r="B25">
-        <v>25258.99475146684</v>
+        <v>28913.70707402736</v>
       </c>
       <c r="C25">
-        <v>13711.02765029803</v>
+        <v>23617.3910570353</v>
       </c>
       <c r="D25">
-        <v>64010.02698848555</v>
+        <v>20021.3573060757</v>
       </c>
       <c r="E25">
-        <v>9700.27847626758</v>
+        <v>8850.462140583308</v>
       </c>
       <c r="F25">
-        <v>2256.319125823821</v>
+        <v>14162.13139943247</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>121.5</v>
+        <v>167.5</v>
       </c>
       <c r="B26">
-        <v>18611.24436337106</v>
+        <v>19904.23533564668</v>
       </c>
       <c r="C26">
-        <v>15162.12476528485</v>
+        <v>21549.75393049683</v>
       </c>
       <c r="D26">
-        <v>60959.88638161264</v>
+        <v>16671.16119936701</v>
       </c>
       <c r="E26">
-        <v>7083.92582838596</v>
+        <v>8156.700031437503</v>
       </c>
       <c r="F26">
-        <v>1425.102630725724</v>
+        <v>10968.89431809385</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>123.5</v>
+        <v>169.8</v>
       </c>
       <c r="B27">
-        <v>14356.24399375599</v>
+        <v>14182.65825303196</v>
       </c>
       <c r="C27">
-        <v>12070.78868431992</v>
+        <v>19977.01835089747</v>
       </c>
       <c r="D27">
-        <v>58045.46675601941</v>
+        <v>14022.22326377114</v>
       </c>
       <c r="E27">
-        <v>8515.494735165366</v>
+        <v>6799.344676839447</v>
       </c>
       <c r="F27">
-        <v>1662.99168301325</v>
+        <v>9664.542115144333</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>125.5</v>
+        <v>172.2</v>
       </c>
       <c r="B28">
-        <v>17701.24362414103</v>
+        <v>5773.186514651294</v>
       </c>
       <c r="C28">
-        <v>13559.452603355</v>
+        <v>22689.38122435901</v>
       </c>
       <c r="D28">
-        <v>57071.04713042617</v>
+        <v>12682.02715706241</v>
       </c>
       <c r="E28">
-        <v>8047.063641944775</v>
+        <v>7075.58256769365</v>
       </c>
       <c r="F28">
-        <v>1980.880735300775</v>
+        <v>8671.305033805707</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>127.5</v>
+        <v>174.5</v>
       </c>
       <c r="B29">
-        <v>20346.24325452595</v>
+        <v>4451.609432036472</v>
       </c>
       <c r="C29">
-        <v>14598.11652239008</v>
+        <v>23546.64564475965</v>
       </c>
       <c r="D29">
-        <v>55716.62750483291</v>
+        <v>10313.08922146658</v>
       </c>
       <c r="E29">
-        <v>7818.632548724183</v>
+        <v>7528.227213095587</v>
       </c>
       <c r="F29">
-        <v>2068.7697875883</v>
+        <v>7856.952830856198</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>129.6</v>
+        <v>176.8</v>
       </c>
       <c r="B30">
-        <v>19198.49286643018</v>
+        <v>10330.03234942177</v>
       </c>
       <c r="C30">
-        <v>13069.21363737692</v>
+        <v>24193.91006516029</v>
       </c>
       <c r="D30">
-        <v>55586.48689796003</v>
+        <v>10974.15128587071</v>
       </c>
       <c r="E30">
-        <v>8622.279900842561</v>
+        <v>6850.871858497531</v>
       </c>
       <c r="F30">
-        <v>1457.5532924902</v>
+        <v>7182.600627906681</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>132.2</v>
+        <v>179.4</v>
       </c>
       <c r="B31">
-        <v>14486.99238593069</v>
+        <v>6144.771299509281</v>
       </c>
       <c r="C31">
-        <v>11232.47673212251</v>
+        <v>23666.46984474362</v>
       </c>
       <c r="D31">
-        <v>55897.7413846888</v>
+        <v>9401.438836936264</v>
       </c>
       <c r="E31">
-        <v>8946.319479655793</v>
+        <v>5734.296240256252</v>
       </c>
       <c r="F31">
-        <v>1970.809060463982</v>
+        <v>7201.59378978984</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>134.5</v>
+        <v>181.7</v>
       </c>
       <c r="B32">
-        <v>16153.74196087342</v>
+        <v>12823.19421689456</v>
       </c>
       <c r="C32">
-        <v>12868.44023901285</v>
+        <v>23073.73426514426</v>
       </c>
       <c r="D32">
-        <v>55866.15881525658</v>
+        <v>8232.500901340398</v>
       </c>
       <c r="E32">
-        <v>9694.123722452108</v>
+        <v>7166.940885658196</v>
       </c>
       <c r="F32">
-        <v>1781.381470594637</v>
+        <v>6727.241586840326</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>136.9</v>
+        <v>183.9</v>
       </c>
       <c r="B33">
-        <v>11827.74151733544</v>
+        <v>11689.51179004559</v>
       </c>
       <c r="C33">
-        <v>15136.83694185491</v>
+        <v>23675.90023248403</v>
       </c>
       <c r="D33">
-        <v>55958.85526454469</v>
+        <v>7424.821136857427</v>
       </c>
       <c r="E33">
-        <v>9084.006410587404</v>
+        <v>6665.992285607882</v>
       </c>
       <c r="F33">
-        <v>1592.848333339667</v>
+        <v>6771.77426227992</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>139.4</v>
+        <v>186.2</v>
       </c>
       <c r="B34">
-        <v>15008.99105531666</v>
+        <v>6267.934707430875</v>
       </c>
       <c r="C34">
-        <v>12327.66684064877</v>
+        <v>25853.16465288467</v>
       </c>
       <c r="D34">
-        <v>56045.83073255314</v>
+        <v>9905.88320126156</v>
       </c>
       <c r="E34">
-        <v>9235.967544061659</v>
+        <v>6998.636931009819</v>
       </c>
       <c r="F34">
-        <v>1705.209648699075</v>
+        <v>6467.422059330405</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>142.2</v>
+        <v>188.7</v>
       </c>
       <c r="B35">
-        <v>17911.99053785566</v>
+        <v>14870.56831328436</v>
       </c>
       <c r="C35">
-        <v>11245.79632729786</v>
+        <v>25540.6259794071</v>
       </c>
       <c r="D35">
-        <v>52085.64325672259</v>
+        <v>8474.428923439969</v>
       </c>
       <c r="E35">
-        <v>10174.16401355283</v>
+        <v>6548.46806731628</v>
       </c>
       <c r="F35">
-        <v>1630.254321901609</v>
+        <v>6175.300099602672</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>144.7</v>
+        <v>191</v>
       </c>
       <c r="B36">
-        <v>17993.24007583687</v>
+        <v>15748.99123066953</v>
       </c>
       <c r="C36">
-        <v>12076.6262260917</v>
+        <v>26027.89039980774</v>
       </c>
       <c r="D36">
-        <v>48402.61872473104</v>
+        <v>6295.490987844139</v>
       </c>
       <c r="E36">
-        <v>9746.125147027087</v>
+        <v>7511.112712718225</v>
       </c>
       <c r="F36">
-        <v>2662.615637261017</v>
+        <v>6060.947896653158</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>147.1</v>
+        <v>193.2</v>
       </c>
       <c r="B37">
-        <v>21067.23963229889</v>
+        <v>13815.30880382055</v>
       </c>
       <c r="C37">
-        <v>12985.02292893379</v>
+        <v>25760.05636714749</v>
       </c>
       <c r="D37">
-        <v>47155.31517401914</v>
+        <v>6937.811223361132</v>
       </c>
       <c r="E37">
-        <v>10186.00783516238</v>
+        <v>6590.164112667911</v>
       </c>
       <c r="F37">
-        <v>4624.082500006047</v>
+        <v>6025.480572092755</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>149.4</v>
+        <v>195.5</v>
       </c>
       <c r="B38">
-        <v>16533.98920724162</v>
+        <v>15493.73172120585</v>
       </c>
       <c r="C38">
-        <v>15740.98643582413</v>
+        <v>26677.32078754812</v>
       </c>
       <c r="D38">
-        <v>44643.73260458693</v>
+        <v>5978.873287765295</v>
       </c>
       <c r="E38">
-        <v>10723.8120779587</v>
+        <v>6432.808758069847</v>
       </c>
       <c r="F38">
-        <v>6484.654910136702</v>
+        <v>6001.128369143241</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>151.6</v>
+        <v>197.7</v>
       </c>
       <c r="B39">
-        <v>24093.48880066515</v>
+        <v>11160.04929435686</v>
       </c>
       <c r="C39">
-        <v>15144.5167467627</v>
+        <v>29199.48675488787</v>
       </c>
       <c r="D39">
-        <v>43417.87101643436</v>
+        <v>5951.193523282287</v>
       </c>
       <c r="E39">
-        <v>11589.53787541604</v>
+        <v>6981.860158019535</v>
       </c>
       <c r="F39">
-        <v>10494.33286765298</v>
+        <v>6105.661044582835</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="B40">
-        <v>18767.48835712705</v>
+        <v>11038.47221174216</v>
       </c>
       <c r="C40">
-        <v>17982.9134496048</v>
+        <v>26726.75117528851</v>
       </c>
       <c r="D40">
-        <v>44270.56746572247</v>
+        <v>6182.255587686428</v>
       </c>
       <c r="E40">
-        <v>12469.42056355133</v>
+        <v>6634.504803421478</v>
       </c>
       <c r="F40">
-        <v>16285.79973039801</v>
+        <v>5481.308841633321</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>156.1</v>
+        <v>202.6</v>
       </c>
       <c r="B41">
-        <v>18519.73796903128</v>
+        <v>11353.21116182979</v>
       </c>
       <c r="C41">
-        <v>21384.01056459161</v>
+        <v>25579.31095487184</v>
       </c>
       <c r="D41">
-        <v>45570.42685884955</v>
+        <v>6889.543138751978</v>
       </c>
       <c r="E41">
-        <v>14293.06791566971</v>
+        <v>6767.929185180191</v>
       </c>
       <c r="F41">
-        <v>24594.58323529992</v>
+        <v>5490.30200351648</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>158.2</v>
+        <v>204.9</v>
       </c>
       <c r="B42">
-        <v>22071.98758093551</v>
+        <v>15431.63407921496</v>
       </c>
       <c r="C42">
-        <v>29235.10767957845</v>
+        <v>28596.57537527248</v>
       </c>
       <c r="D42">
-        <v>49890.28625197667</v>
+        <v>3770.605203156141</v>
       </c>
       <c r="E42">
-        <v>15536.71526778809</v>
+        <v>5190.573830582135</v>
       </c>
       <c r="F42">
-        <v>33183.36674020181</v>
+        <v>6065.949800566966</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>160.3</v>
+        <v>207.2</v>
       </c>
       <c r="B43">
-        <v>31224.23719283986</v>
+        <v>17110.05699660013</v>
       </c>
       <c r="C43">
-        <v>34116.20479456526</v>
+        <v>26393.83979567315</v>
       </c>
       <c r="D43">
-        <v>51890.14564510375</v>
+        <v>6911.667267560275</v>
       </c>
       <c r="E43">
-        <v>17170.36261990646</v>
+        <v>6463.218475984079</v>
       </c>
       <c r="F43">
-        <v>38522.15024510371</v>
+        <v>5201.597597617452</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>162.5</v>
+        <v>209.5</v>
       </c>
       <c r="B44">
-        <v>36283.73678626327</v>
+        <v>26288.47991398542</v>
       </c>
       <c r="C44">
-        <v>36219.73510550386</v>
+        <v>25821.10421607379</v>
       </c>
       <c r="D44">
-        <v>51324.28405695119</v>
+        <v>4192.729331964409</v>
       </c>
       <c r="E44">
-        <v>15596.08841736381</v>
+        <v>5445.863121386024</v>
       </c>
       <c r="F44">
-        <v>27821.82820261999</v>
+        <v>5647.245394667938</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>165.1</v>
+        <v>211.8</v>
       </c>
       <c r="B45">
-        <v>39372.23630576378</v>
+        <v>30666.9028313706</v>
       </c>
       <c r="C45">
-        <v>33972.99820024945</v>
+        <v>29588.36863647443</v>
       </c>
       <c r="D45">
-        <v>45675.53854367996</v>
+        <v>4253.791396368579</v>
       </c>
       <c r="E45">
-        <v>13610.12799617705</v>
+        <v>6088.507766787961</v>
       </c>
       <c r="F45">
-        <v>14595.08397059377</v>
+        <v>5612.893191718424</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>167.5</v>
+        <v>214</v>
       </c>
       <c r="B46">
-        <v>30246.23586222581</v>
+        <v>44933.22040452161</v>
       </c>
       <c r="C46">
-        <v>31841.39490309152</v>
+        <v>27160.53460381417</v>
       </c>
       <c r="D46">
-        <v>41978.2349929681</v>
+        <v>1936.111631885571</v>
       </c>
       <c r="E46">
-        <v>12880.01068431234</v>
+        <v>6967.559166737648</v>
       </c>
       <c r="F46">
-        <v>11396.5508333388</v>
+        <v>6227.425867158017</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>169.8</v>
+        <v>216.6</v>
       </c>
       <c r="B47">
-        <v>24412.98543716854</v>
+        <v>70947.95935460925</v>
       </c>
       <c r="C47">
-        <v>30207.35840998186</v>
+        <v>26103.0943833975</v>
       </c>
       <c r="D47">
-        <v>38996.65242353585</v>
+        <v>4993.399182951121</v>
       </c>
       <c r="E47">
-        <v>11487.81492710865</v>
+        <v>6810.983548496367</v>
       </c>
       <c r="F47">
-        <v>10087.12324346946</v>
+        <v>5946.419029041177</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>172.2</v>
+        <v>218.9</v>
       </c>
       <c r="B48">
-        <v>15886.98499363044</v>
+        <v>102626.3822719945</v>
       </c>
       <c r="C48">
-        <v>32855.75511282396</v>
+        <v>28700.35880379814</v>
       </c>
       <c r="D48">
-        <v>37309.34887282396</v>
+        <v>6504.461247355284</v>
       </c>
       <c r="E48">
-        <v>11727.69761524394</v>
+        <v>5583.628193898311</v>
       </c>
       <c r="F48">
-        <v>9088.590106214489</v>
+        <v>5532.066826091663</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>174.5</v>
+        <v>221.2</v>
       </c>
       <c r="B49">
-        <v>14453.73456857327</v>
+        <v>121004.8051893797</v>
       </c>
       <c r="C49">
-        <v>33651.71861971429</v>
+        <v>27017.62322419878</v>
       </c>
       <c r="D49">
-        <v>34607.76630339174</v>
+        <v>4405.523311759418</v>
       </c>
       <c r="E49">
-        <v>12145.50185804026</v>
+        <v>5236.272839300249</v>
       </c>
       <c r="F49">
-        <v>8269.162516345141</v>
+        <v>5667.714623142149</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>176.8</v>
+        <v>223.4</v>
       </c>
       <c r="B50">
-        <v>20220.484143516</v>
+        <v>148471.1227625308</v>
       </c>
       <c r="C50">
-        <v>34237.68212660463</v>
+        <v>28939.78919153853</v>
       </c>
       <c r="D50">
-        <v>34936.1837339595</v>
+        <v>4657.843547276418</v>
       </c>
       <c r="E50">
-        <v>11433.30610083657</v>
+        <v>6575.324239249934</v>
       </c>
       <c r="F50">
-        <v>7589.734926475797</v>
+        <v>5812.247298581742</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>179.4</v>
+        <v>225.7</v>
       </c>
       <c r="B51">
-        <v>15908.98366301639</v>
+        <v>183849.545679916</v>
       </c>
       <c r="C51">
-        <v>33640.94522135022</v>
+        <v>25547.05361193917</v>
       </c>
       <c r="D51">
-        <v>32987.4382206883</v>
+        <v>3688.90561168058</v>
       </c>
       <c r="E51">
-        <v>10277.34567964981</v>
+        <v>5507.968884651879</v>
       </c>
       <c r="F51">
-        <v>7602.990694449579</v>
+        <v>5637.895095632229</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>181.7</v>
+        <v>228</v>
       </c>
       <c r="B52">
-        <v>22475.73323795923</v>
+        <v>215127.9685973012</v>
       </c>
       <c r="C52">
-        <v>32986.90872824055</v>
+        <v>26074.3180323398</v>
       </c>
       <c r="D52">
-        <v>31485.85565125606</v>
+        <v>4739.967676084721</v>
       </c>
       <c r="E52">
-        <v>11675.14992244613</v>
+        <v>4800.613530053824</v>
       </c>
       <c r="F52">
-        <v>7123.563104580235</v>
+        <v>5093.542892682714</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>183.9</v>
+        <v>230.5</v>
       </c>
       <c r="B53">
-        <v>21235.23283138264</v>
+        <v>269130.6022031547</v>
       </c>
       <c r="C53">
-        <v>33530.43903917912</v>
+        <v>27101.77935886224</v>
       </c>
       <c r="D53">
-        <v>30359.99406310349</v>
+        <v>4598.513398263131</v>
       </c>
       <c r="E53">
-        <v>11140.87571990347</v>
+        <v>4970.444666360278</v>
       </c>
       <c r="F53">
-        <v>7163.241062096512</v>
+        <v>4791.420932954981</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>186.2</v>
+        <v>232.8</v>
       </c>
       <c r="B54">
-        <v>15701.98240632536</v>
+        <v>304509.0251205399</v>
       </c>
       <c r="C54">
-        <v>35646.40254606947</v>
+        <v>23099.04377926288</v>
       </c>
       <c r="D54">
-        <v>32508.41149367128</v>
+        <v>4199.575462667293</v>
       </c>
       <c r="E54">
-        <v>11438.6799626998</v>
+        <v>4913.089311762222</v>
       </c>
       <c r="F54">
-        <v>6853.813472227163</v>
+        <v>4867.068730005467</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>188.7</v>
+        <v>235.1</v>
       </c>
       <c r="B55">
-        <v>24183.2319443067</v>
+        <v>324587.4480379252</v>
       </c>
       <c r="C55">
-        <v>35267.23244486333</v>
+        <v>26046.30819966355</v>
       </c>
       <c r="D55">
-        <v>30715.38696167973</v>
+        <v>2220.637527071427</v>
       </c>
       <c r="E55">
-        <v>10950.64109617405</v>
+        <v>5585.733957164166</v>
       </c>
       <c r="F55">
-        <v>6556.174787586571</v>
+        <v>4792.716527055953</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>191</v>
+        <v>237.3</v>
       </c>
       <c r="B56">
-        <v>24949.98151924941</v>
+        <v>388953.7656110762</v>
       </c>
       <c r="C56">
-        <v>35693.19595175366</v>
+        <v>27848.47416700326</v>
       </c>
       <c r="D56">
-        <v>28203.80439224749</v>
+        <v>762.9577625884267</v>
       </c>
       <c r="E56">
-        <v>11878.44533897037</v>
+        <v>4664.785357113852</v>
       </c>
       <c r="F56">
-        <v>6436.747197717227</v>
+        <v>4447.249202495546</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>193.2</v>
+        <v>239.6</v>
       </c>
       <c r="B57">
-        <v>22909.48111267283</v>
+        <v>409132.1885284614</v>
       </c>
       <c r="C57">
-        <v>35366.72626269224</v>
+        <v>27995.73858740393</v>
       </c>
       <c r="D57">
-        <v>28527.94280409492</v>
+        <v>2754.01982699259</v>
       </c>
       <c r="E57">
-        <v>10924.17113642772</v>
+        <v>5147.430002515789</v>
       </c>
       <c r="F57">
-        <v>6396.425155233504</v>
+        <v>4342.896999546032</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>195.5</v>
+        <v>242.2</v>
       </c>
       <c r="B58">
-        <v>24476.23068761555</v>
+        <v>455346.927478549</v>
       </c>
       <c r="C58">
-        <v>36222.68976958257</v>
+        <v>25148.29836698726</v>
       </c>
       <c r="D58">
-        <v>27236.3602346627</v>
+        <v>4891.30737805814</v>
       </c>
       <c r="E58">
-        <v>10731.97537922404</v>
+        <v>5250.854384274509</v>
       </c>
       <c r="F58">
-        <v>6366.997565364157</v>
+        <v>4451.890161429192</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>197.7</v>
+        <v>244.5</v>
       </c>
       <c r="B59">
-        <v>20035.73028103908</v>
+        <v>506425.3503959341</v>
       </c>
       <c r="C59">
-        <v>38686.22008052115</v>
+        <v>25425.5627873879</v>
       </c>
       <c r="D59">
-        <v>26890.49864651014</v>
+        <v>1842.369442462274</v>
       </c>
       <c r="E59">
-        <v>11247.70117668139</v>
+        <v>4443.499029676454</v>
       </c>
       <c r="F59">
-        <v>6466.675522880434</v>
+        <v>3817.537958479678</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>200</v>
+        <v>246.7</v>
       </c>
       <c r="B60">
-        <v>19802.4798559818</v>
+        <v>525391.6679690853</v>
       </c>
       <c r="C60">
-        <v>36152.18358741148</v>
+        <v>26417.72875472765</v>
       </c>
       <c r="D60">
-        <v>26788.9160770779</v>
+        <v>2804.689677979302</v>
       </c>
       <c r="E60">
-        <v>10865.5054194777</v>
+        <v>5172.55042962614</v>
       </c>
       <c r="F60">
-        <v>5837.247933011089</v>
+        <v>4192.070633919271</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>202.6</v>
+        <v>248.9</v>
       </c>
       <c r="B61">
-        <v>19990.97937548232</v>
+        <v>566357.9855422365</v>
       </c>
       <c r="C61">
-        <v>34935.44668215707</v>
+        <v>25949.89472206739</v>
       </c>
       <c r="D61">
-        <v>27120.1705638067</v>
+        <v>2927.009913496295</v>
       </c>
       <c r="E61">
-        <v>10959.54499829094</v>
+        <v>5261.601829575818</v>
       </c>
       <c r="F61">
-        <v>5840.503700984871</v>
+        <v>2996.603309358868</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>204.9</v>
+        <v>251.1</v>
       </c>
       <c r="B62">
-        <v>23957.72895042504</v>
+        <v>589324.3031153876</v>
       </c>
       <c r="C62">
-        <v>37891.41018904741</v>
+        <v>22912.06068940714</v>
       </c>
       <c r="D62">
-        <v>23668.58799437445</v>
+        <v>1359.330149013316</v>
       </c>
       <c r="E62">
-        <v>9347.349241087257</v>
+        <v>4790.653229525504</v>
       </c>
       <c r="F62">
-        <v>6411.076111115527</v>
+        <v>3421.135984798462</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>207.2</v>
+        <v>253.7</v>
       </c>
       <c r="B63">
-        <v>25524.47852536775</v>
+        <v>632439.0420654751</v>
       </c>
       <c r="C63">
-        <v>35627.37369593774</v>
+        <v>23764.62046899046</v>
       </c>
       <c r="D63">
-        <v>26477.00542494224</v>
+        <v>786.6177000788739</v>
       </c>
       <c r="E63">
-        <v>10585.15348388357</v>
+        <v>3464.077611284224</v>
       </c>
       <c r="F63">
-        <v>5541.648521246178</v>
+        <v>3150.129146681621</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>209.5</v>
+        <v>255.9</v>
       </c>
       <c r="B64">
-        <v>34591.22810031047</v>
+        <v>648405.3596386263</v>
       </c>
       <c r="C64">
-        <v>34993.33720282808</v>
+        <v>22806.78643633021</v>
       </c>
       <c r="D64">
-        <v>23425.42285550999</v>
+        <v>1718.937935595866</v>
       </c>
       <c r="E64">
-        <v>9532.95772667989</v>
+        <v>4673.129011233909</v>
       </c>
       <c r="F64">
-        <v>5982.220931376834</v>
+        <v>2784.661822121215</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>211.8</v>
+        <v>258.2</v>
       </c>
       <c r="B65">
-        <v>38857.97767525332</v>
+        <v>684483.7825560115</v>
       </c>
       <c r="C65">
-        <v>38699.30070971842</v>
+        <v>19084.05085673088</v>
       </c>
       <c r="D65">
-        <v>23153.84028607778</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>10140.76196947621</v>
+        <v>3165.773656635847</v>
       </c>
       <c r="F65">
-        <v>5942.793341507489</v>
+        <v>2850.309619171701</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>214</v>
+        <v>260.5</v>
       </c>
       <c r="B66">
-        <v>53017.47726867672</v>
+        <v>708862.2054733966</v>
       </c>
       <c r="C66">
-        <v>36212.83102065699</v>
+        <v>19121.31527713152</v>
       </c>
       <c r="D66">
-        <v>20517.97869792522</v>
+        <v>191.0620644041628</v>
       </c>
       <c r="E66">
-        <v>10986.48776693356</v>
+        <v>3568.418302037791</v>
       </c>
       <c r="F66">
-        <v>6552.471299023767</v>
+        <v>2075.957416222187</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>216.6</v>
+        <v>263.1</v>
       </c>
       <c r="B67">
-        <v>78905.97678817724</v>
+        <v>746176.9444234844</v>
       </c>
       <c r="C67">
-        <v>35086.09411540258</v>
+        <v>19433.87505671485</v>
       </c>
       <c r="D67">
-        <v>23199.23318465399</v>
+        <v>918.3496154697204</v>
       </c>
       <c r="E67">
-        <v>10790.52734574679</v>
+        <v>3771.842683796511</v>
       </c>
       <c r="F67">
-        <v>6265.727066997549</v>
+        <v>2124.950578105346</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>218.9</v>
+        <v>265.4</v>
       </c>
       <c r="B68">
-        <v>110472.72636312</v>
+        <v>768155.3673408695</v>
       </c>
       <c r="C68">
-        <v>37622.05762229292</v>
+        <v>20621.13947711548</v>
       </c>
       <c r="D68">
-        <v>24377.65061522177</v>
+        <v>1809.411679873854</v>
       </c>
       <c r="E68">
-        <v>9528.331588543111</v>
+        <v>1934.487329198456</v>
       </c>
       <c r="F68">
-        <v>5846.299477128204</v>
+        <v>2060.598375155832</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>221.2</v>
+        <v>267.7</v>
       </c>
       <c r="B69">
-        <v>128739.4759380627</v>
+        <v>743033.7902582547</v>
       </c>
       <c r="C69">
-        <v>35878.02112918325</v>
+        <v>19998.40389751613</v>
       </c>
       <c r="D69">
-        <v>21946.06804578956</v>
+        <v>990.473744278017</v>
       </c>
       <c r="E69">
-        <v>9146.135831339428</v>
+        <v>3447.131974600393</v>
       </c>
       <c r="F69">
-        <v>5976.871887258856</v>
+        <v>2046.246172206314</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>223.4</v>
+        <v>270</v>
       </c>
       <c r="B70">
-        <v>156098.9755314862</v>
+        <v>712112.2131756399</v>
       </c>
       <c r="C70">
-        <v>37741.55144012182</v>
+        <v>17215.66831791677</v>
       </c>
       <c r="D70">
-        <v>21880.20645763697</v>
+        <v>2161.535808682151</v>
       </c>
       <c r="E70">
-        <v>10451.86162879677</v>
+        <v>4369.776620002337</v>
       </c>
       <c r="F70">
-        <v>6116.549844775133</v>
+        <v>1781.893969256804</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>225.7</v>
+        <v>272.4</v>
       </c>
       <c r="B71">
-        <v>191365.7251064289</v>
+        <v>679802.7414372594</v>
       </c>
       <c r="C71">
-        <v>34287.51494701215</v>
+        <v>16308.0311913783</v>
       </c>
       <c r="D71">
-        <v>20578.62388820475</v>
+        <v>2761.339701973426</v>
       </c>
       <c r="E71">
-        <v>9349.665871593093</v>
+        <v>3266.01451085654</v>
       </c>
       <c r="F71">
-        <v>5937.122254905789</v>
+        <v>1638.656887918179</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>228</v>
+        <v>274.7</v>
       </c>
       <c r="B72">
-        <v>222532.4746813716</v>
+        <v>621481.1643546445</v>
       </c>
       <c r="C72">
-        <v>34753.47845390249</v>
+        <v>14645.29561177894</v>
       </c>
       <c r="D72">
-        <v>21297.04131877254</v>
+        <v>2092.401766377589</v>
       </c>
       <c r="E72">
-        <v>8607.470114389409</v>
+        <v>3718.659156258484</v>
       </c>
       <c r="F72">
-        <v>5387.694665036441</v>
+        <v>2144.304684968664</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>230.5</v>
+        <v>277.3</v>
       </c>
       <c r="B73">
-        <v>276413.7242193529</v>
+        <v>557695.9033047321</v>
       </c>
       <c r="C73">
-        <v>35714.30835269635</v>
+        <v>15467.85539136227</v>
       </c>
       <c r="D73">
-        <v>20794.01678678096</v>
+        <v>2309.689317443146</v>
       </c>
       <c r="E73">
-        <v>8739.431247863673</v>
+        <v>3082.083538017204</v>
       </c>
       <c r="F73">
-        <v>5080.055980395849</v>
+        <v>1743.297846851824</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>232.8</v>
+        <v>279.7</v>
       </c>
       <c r="B74">
-        <v>311680.4737942956</v>
+        <v>481786.4315663514</v>
       </c>
       <c r="C74">
-        <v>31650.27185958669</v>
+        <v>15970.21826482381</v>
       </c>
       <c r="D74">
-        <v>20062.43421734874</v>
+        <v>929.4932107344139</v>
       </c>
       <c r="E74">
-        <v>8647.235490659988</v>
+        <v>1838.3214288714</v>
       </c>
       <c r="F74">
-        <v>5150.628390526505</v>
+        <v>1480.060765513199</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>235.1</v>
+        <v>281.9</v>
       </c>
       <c r="B75">
-        <v>331647.2233692384</v>
+        <v>455152.7491395025</v>
       </c>
       <c r="C75">
-        <v>34536.23536647702</v>
+        <v>16362.38423216358</v>
       </c>
       <c r="D75">
-        <v>17750.85164791653</v>
+        <v>3521.813446251443</v>
       </c>
       <c r="E75">
-        <v>9285.039733456313</v>
+        <v>3227.372828821086</v>
       </c>
       <c r="F75">
-        <v>5071.200800657156</v>
+        <v>1514.593440952792</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>237.3</v>
+        <v>284.2</v>
       </c>
       <c r="B76">
-        <v>395906.7229626619</v>
+        <v>412631.1720568877</v>
       </c>
       <c r="C76">
-        <v>36279.7656774156</v>
+        <v>17489.64865256422</v>
       </c>
       <c r="D76">
-        <v>15974.99005976396</v>
+        <v>2032.875510655576</v>
       </c>
       <c r="E76">
-        <v>8330.765530913661</v>
+        <v>2600.01747422303</v>
       </c>
       <c r="F76">
-        <v>4720.878758173433</v>
+        <v>1680.241238003282</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>239.6</v>
+        <v>286.5</v>
       </c>
       <c r="B77">
-        <v>415973.4725376046</v>
+        <v>379909.5949742729</v>
       </c>
       <c r="C77">
-        <v>36365.72918430594</v>
+        <v>15486.91307296486</v>
       </c>
       <c r="D77">
-        <v>17633.40749033172</v>
+        <v>3463.93757505971</v>
       </c>
       <c r="E77">
-        <v>8778.569773709978</v>
+        <v>3542.662119624967</v>
       </c>
       <c r="F77">
-        <v>4611.451168304089</v>
+        <v>1545.889035053764</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>242.2</v>
+        <v>288.8</v>
       </c>
       <c r="B78">
-        <v>462061.9720571052</v>
+        <v>353288.0178916581</v>
       </c>
       <c r="C78">
-        <v>33448.99227905153</v>
+        <v>19304.1774933655</v>
       </c>
       <c r="D78">
-        <v>19394.66197706052</v>
+        <v>3724.999639463844</v>
       </c>
       <c r="E78">
-        <v>8842.609352523205</v>
+        <v>2785.306765026911</v>
       </c>
       <c r="F78">
-        <v>4714.706936277871</v>
+        <v>1401.536832104253</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>244.5</v>
+        <v>291</v>
       </c>
       <c r="B79">
-        <v>513028.7216320478</v>
+        <v>333854.3354648092</v>
       </c>
       <c r="C79">
-        <v>33664.95578594186</v>
+        <v>15976.34346070525</v>
       </c>
       <c r="D79">
-        <v>16013.07940762828</v>
+        <v>4437.319874980873</v>
       </c>
       <c r="E79">
-        <v>8000.41359531952</v>
+        <v>3424.358164976597</v>
       </c>
       <c r="F79">
-        <v>4075.279346408526</v>
+        <v>1076.069507543847</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>246.7</v>
+        <v>293.6</v>
       </c>
       <c r="B80">
-        <v>531888.2212254714</v>
+        <v>309769.0744148968</v>
       </c>
       <c r="C80">
-        <v>34598.48609688043</v>
+        <v>18228.90324028858</v>
       </c>
       <c r="D80">
-        <v>16657.21781947571</v>
+        <v>1884.607426046423</v>
       </c>
       <c r="E80">
-        <v>8696.139392776875</v>
+        <v>1837.78254673531</v>
       </c>
       <c r="F80">
-        <v>4444.957303924804</v>
+        <v>795.0626694270063</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>248.9</v>
+        <v>295.7</v>
       </c>
       <c r="B81">
-        <v>572747.7208188948</v>
+        <v>292523.2866438137</v>
       </c>
       <c r="C81">
-        <v>34072.01640781903</v>
+        <v>17195.97075456742</v>
       </c>
       <c r="D81">
-        <v>16461.35623132315</v>
+        <v>3858.185832676303</v>
       </c>
       <c r="E81">
-        <v>8751.865190234223</v>
+        <v>1863.240701232745</v>
       </c>
       <c r="F81">
-        <v>3244.635261441082</v>
+        <v>1138.480223255708</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>251.1</v>
+        <v>298</v>
       </c>
       <c r="B82">
-        <v>595607.2204123184</v>
+        <v>279101.709561199</v>
       </c>
       <c r="C82">
-        <v>30975.54671875761</v>
+        <v>20383.23517496806</v>
       </c>
       <c r="D82">
-        <v>14575.49464317059</v>
+        <v>2399.247897080444</v>
       </c>
       <c r="E82">
-        <v>8247.590987691568</v>
+        <v>2095.885346634682</v>
       </c>
       <c r="F82">
-        <v>3664.313218957359</v>
+        <v>1074.128020306197</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>253.7</v>
+        <v>300.5</v>
       </c>
       <c r="B83">
-        <v>638595.7199318185</v>
+        <v>272104.3431670525</v>
       </c>
       <c r="C83">
-        <v>31758.8098135032</v>
+        <v>22040.69650149049</v>
       </c>
       <c r="D83">
-        <v>13626.74912989936</v>
+        <v>4027.793619258853</v>
       </c>
       <c r="E83">
-        <v>6881.630566504803</v>
+        <v>1855.716482941143</v>
       </c>
       <c r="F83">
-        <v>3387.568986931141</v>
+        <v>1132.006060578464</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>255.9</v>
+        <v>302.4</v>
       </c>
       <c r="B84">
-        <v>654455.2195252421</v>
+        <v>250834.3447075011</v>
       </c>
       <c r="C84">
-        <v>30742.34012444177</v>
+        <v>21087.56710964755</v>
       </c>
       <c r="D84">
-        <v>14240.88754174679</v>
+        <v>4473.888368114465</v>
       </c>
       <c r="E84">
-        <v>8057.35636396215</v>
+        <v>1563.988146534054</v>
       </c>
       <c r="F84">
-        <v>3017.246944447419</v>
+        <v>1173.193371185384</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>258.2</v>
+        <v>305.1</v>
       </c>
       <c r="B85">
-        <v>690421.969100185</v>
+        <v>240261.1890018228</v>
       </c>
       <c r="C85">
-        <v>26958.30363133211</v>
+        <v>21625.22534229177</v>
       </c>
       <c r="D85">
-        <v>12189.30497231458</v>
+        <v>2289.917748067157</v>
       </c>
       <c r="E85">
-        <v>6515.160606758467</v>
+        <v>3031.005773745024</v>
       </c>
       <c r="F85">
-        <v>3077.819354578074</v>
+        <v>1113.301654679436</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>260.5</v>
+        <v>307.4</v>
       </c>
       <c r="B86">
-        <v>714688.7186751276</v>
+        <v>235239.6119192081</v>
       </c>
       <c r="C86">
-        <v>26934.26713822245</v>
+        <v>23802.48976269245</v>
       </c>
       <c r="D86">
-        <v>12047.72240288234</v>
+        <v>1700.979812471283</v>
       </c>
       <c r="E86">
-        <v>6882.964849554784</v>
+        <v>2053.650419146977</v>
       </c>
       <c r="F86">
-        <v>2298.39176470873</v>
+        <v>838.9494517299186</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>263.1</v>
+        <v>309.6</v>
       </c>
       <c r="B87">
-        <v>751877.2181946281</v>
+        <v>238705.9294923591</v>
       </c>
       <c r="C87">
-        <v>27177.53023296804</v>
+        <v>25774.65573003219</v>
       </c>
       <c r="D87">
-        <v>12398.97688961113</v>
+        <v>4503.30004798829</v>
       </c>
       <c r="E87">
-        <v>7047.004428368009</v>
+        <v>2712.701819096655</v>
       </c>
       <c r="F87">
-        <v>2341.647532682511</v>
+        <v>1093.482127169515</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>265.4</v>
+        <v>311.9</v>
       </c>
       <c r="B88">
-        <v>773743.9677695709</v>
+        <v>230784.3524097444</v>
       </c>
       <c r="C88">
-        <v>28303.49373985838</v>
+        <v>24251.92015043283</v>
       </c>
       <c r="D88">
-        <v>12957.39432017889</v>
+        <v>1214.362112392453</v>
       </c>
       <c r="E88">
-        <v>5174.808671164333</v>
+        <v>1565.3464644986</v>
       </c>
       <c r="F88">
-        <v>2272.219942813163</v>
+        <v>1149.129924220002</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>267.7</v>
+        <v>314.6</v>
       </c>
       <c r="B89">
-        <v>748510.7173445135</v>
+        <v>221911.1967040661</v>
       </c>
       <c r="C89">
-        <v>27619.45724674871</v>
+        <v>19639.57838307705</v>
       </c>
       <c r="D89">
-        <v>11805.81175074668</v>
+        <v>3750.391492345138</v>
       </c>
       <c r="E89">
-        <v>6652.612913960657</v>
+        <v>1412.36409170957</v>
       </c>
       <c r="F89">
-        <v>2252.792352943819</v>
+        <v>809.2382077140492</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>270</v>
+        <v>316.9</v>
       </c>
       <c r="B90">
-        <v>717477.4669194564</v>
+        <v>210189.6196214514</v>
       </c>
       <c r="C90">
-        <v>24775.42075363904</v>
+        <v>20286.8428034777</v>
       </c>
       <c r="D90">
-        <v>12644.22918131446</v>
+        <v>1241.453556749271</v>
       </c>
       <c r="E90">
-        <v>7540.417156756975</v>
+        <v>2005.008737111523</v>
       </c>
       <c r="F90">
-        <v>1983.364763074474</v>
+        <v>1364.886004764536</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>272.4</v>
+        <v>319.2</v>
       </c>
       <c r="B91">
-        <v>685051.4664759183</v>
+        <v>211168.0425388366</v>
       </c>
       <c r="C91">
-        <v>23803.81745648115</v>
+        <v>16304.10722387833</v>
       </c>
       <c r="D91">
-        <v>12896.92563060257</v>
+        <v>2522.515621153434</v>
       </c>
       <c r="E91">
-        <v>6400.299844892262</v>
+        <v>1137.653382513459</v>
       </c>
       <c r="F91">
-        <v>1834.8316258195</v>
+        <v>850.5338018150214</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>274.7</v>
+        <v>321.1</v>
       </c>
       <c r="B92">
-        <v>626618.2160508611</v>
+        <v>203098.0440792852</v>
       </c>
       <c r="C92">
-        <v>22079.78096337145</v>
+        <v>16240.97783203539</v>
       </c>
       <c r="D92">
-        <v>11895.34306117032</v>
+        <v>1578.610370009017</v>
       </c>
       <c r="E92">
-        <v>6818.104087688578</v>
+        <v>1485.925046106362</v>
       </c>
       <c r="F92">
-        <v>2335.404035950156</v>
+        <v>441.7211124219443</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>277.3</v>
+        <v>323.8</v>
       </c>
       <c r="B93">
-        <v>562706.7155703616</v>
+        <v>213024.888373607</v>
       </c>
       <c r="C93">
-        <v>22833.04405811704</v>
+        <v>13688.63606467961</v>
       </c>
       <c r="D93">
-        <v>11736.59754789912</v>
+        <v>1304.639749961709</v>
       </c>
       <c r="E93">
-        <v>6142.143666501804</v>
+        <v>1232.942673317348</v>
       </c>
       <c r="F93">
-        <v>1928.659803923941</v>
+        <v>161.8293959159928</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>279.7</v>
+        <v>326.1</v>
       </c>
       <c r="B94">
-        <v>486680.7151268236</v>
+        <v>198003.3112909922</v>
       </c>
       <c r="C94">
-        <v>23271.44076095914</v>
+        <v>12005.90048508025</v>
       </c>
       <c r="D94">
-        <v>10009.29399718723</v>
+        <v>1925.701814365879</v>
       </c>
       <c r="E94">
-        <v>4862.026354637097</v>
+        <v>1975.587318719285</v>
       </c>
       <c r="F94">
-        <v>1660.126666668968</v>
+        <v>887.4771929664789</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>281.9</v>
+        <v>328.3</v>
       </c>
       <c r="B95">
-        <v>459940.2147202471</v>
+        <v>195069.6288641432</v>
       </c>
       <c r="C95">
-        <v>23604.97107189771</v>
+        <v>11868.06645242</v>
       </c>
       <c r="D95">
-        <v>12283.43240903467</v>
+        <v>3928.022049882871</v>
       </c>
       <c r="E95">
-        <v>6217.752152094445</v>
+        <v>864.6387186689708</v>
       </c>
       <c r="F95">
-        <v>1689.804624185245</v>
+        <v>1142.009868406072</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>284.2</v>
+        <v>330.7</v>
       </c>
       <c r="B96">
-        <v>417306.9642951899</v>
+        <v>199360.1571257626</v>
       </c>
       <c r="C96">
-        <v>24670.93457878805</v>
+        <v>10350.42932588154</v>
       </c>
       <c r="D96">
-        <v>10461.84983960245</v>
+        <v>3177.825943174146</v>
       </c>
       <c r="E96">
-        <v>5555.556394890769</v>
+        <v>540.876609523174</v>
       </c>
       <c r="F96">
-        <v>1850.3770343159</v>
+        <v>878.7727870674471</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>286.5</v>
+        <v>333.3</v>
       </c>
       <c r="B97">
-        <v>384473.7138701326</v>
+        <v>200274.8960758503</v>
       </c>
       <c r="C97">
-        <v>22606.89808567839</v>
+        <v>12212.98910546489</v>
       </c>
       <c r="D97">
-        <v>11560.2672701702</v>
+        <v>1835.113494239697</v>
       </c>
       <c r="E97">
-        <v>6463.360637687086</v>
+        <v>1354.300991281893</v>
       </c>
       <c r="F97">
-        <v>1710.949444446556</v>
+        <v>927.7659489506068</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>288.8</v>
+        <v>335.6</v>
       </c>
       <c r="B98">
-        <v>357740.4634450753</v>
+        <v>201953.3189932354</v>
       </c>
       <c r="C98">
-        <v>26362.86159256872</v>
+        <v>9890.253525865533</v>
       </c>
       <c r="D98">
-        <v>11488.68470073796</v>
+        <v>2706.175558643859</v>
       </c>
       <c r="E98">
-        <v>5671.164880483402</v>
+        <v>426.9456366838313</v>
       </c>
       <c r="F98">
-        <v>1561.521854577208</v>
+        <v>863.4137460010925</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>291</v>
+        <v>337.9</v>
       </c>
       <c r="B99">
-        <v>338199.9630384989</v>
+        <v>189031.7419106206</v>
       </c>
       <c r="C99">
-        <v>22976.39190350732</v>
+        <v>8087.517946266176</v>
       </c>
       <c r="D99">
-        <v>11882.8231125854</v>
+        <v>2027.237623047993</v>
       </c>
       <c r="E99">
-        <v>6276.89067794075</v>
+        <v>489.5902820857755</v>
       </c>
       <c r="F99">
-        <v>1231.199812093485</v>
+        <v>949.0615430515786</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>293.6</v>
+        <v>339.8</v>
       </c>
       <c r="B100">
-        <v>313988.4625579994</v>
+        <v>192961.7434510693</v>
       </c>
       <c r="C100">
-        <v>25159.65499825291</v>
+        <v>9644.388554423229</v>
       </c>
       <c r="D100">
-        <v>8954.077599314194</v>
+        <v>3463.332371903598</v>
       </c>
       <c r="E100">
-        <v>4650.930256753974</v>
+        <v>407.8619456786855</v>
       </c>
       <c r="F100">
-        <v>944.4555800672706</v>
+        <v>730.248853658502</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>295.7</v>
+        <v>342.7</v>
       </c>
       <c r="B101">
-        <v>296640.7121699036</v>
+        <v>191112.7984338594</v>
       </c>
       <c r="C101">
-        <v>24070.75211323973</v>
+        <v>11112.24369318925</v>
       </c>
       <c r="D101">
-        <v>10623.93699244129</v>
+        <v>3396.845409630565</v>
       </c>
       <c r="E101">
-        <v>4644.577608872352</v>
+        <v>912.0660637941737</v>
       </c>
       <c r="F101">
-        <v>1283.239084969171</v>
+        <v>902.5873803743316</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="B102">
-        <v>283107.4617448463</v>
+        <v>181491.2213512446</v>
       </c>
       <c r="C102">
-        <v>27196.71562013006</v>
+        <v>10399.50811358989</v>
       </c>
       <c r="D102">
-        <v>8832.35442300907</v>
+        <v>3177.907474034706</v>
       </c>
       <c r="E102">
-        <v>4842.381851668669</v>
+        <v>374.7107091961252</v>
       </c>
       <c r="F102">
-        <v>1213.811495099826</v>
+        <v>408.2351774248173</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>300.5</v>
+        <v>347.3</v>
       </c>
       <c r="B103">
-        <v>275988.7112828275</v>
+        <v>175669.6442686298</v>
       </c>
       <c r="C103">
-        <v>28787.54551892392</v>
+        <v>10326.77253399053</v>
       </c>
       <c r="D103">
-        <v>10099.32989101752</v>
+        <v>1828.96953843884</v>
       </c>
       <c r="E103">
-        <v>4564.342985142933</v>
+        <v>977.3553545980631</v>
       </c>
       <c r="F103">
-        <v>1266.17281045923</v>
+        <v>713.8829744753034</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>302.4</v>
+        <v>349.6</v>
       </c>
       <c r="B104">
-        <v>254626.4609316932</v>
+        <v>171648.067186015</v>
       </c>
       <c r="C104">
-        <v>27783.77624200724</v>
+        <v>8854.036954391166</v>
       </c>
       <c r="D104">
-        <v>10270.63124670394</v>
+        <v>4050.03160284301</v>
       </c>
       <c r="E104">
-        <v>4243.833446583371</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1303.167410132381</v>
+        <v>609.5307715257891</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>305.1</v>
+        <v>351.9</v>
       </c>
       <c r="B105">
-        <v>243922.2104327129</v>
+        <v>167026.4901034002</v>
       </c>
       <c r="C105">
-        <v>28249.47253270459</v>
+        <v>7381.301374791808</v>
       </c>
       <c r="D105">
-        <v>7696.164752153061</v>
+        <v>2111.093667247136</v>
       </c>
       <c r="E105">
-        <v>5669.951470735574</v>
+        <v>342.6446454019515</v>
       </c>
       <c r="F105">
-        <v>1237.31763072054</v>
+        <v>1045.178568576275</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>307.4</v>
+        <v>354.5</v>
       </c>
       <c r="B106">
-        <v>238788.9600076556</v>
+        <v>173241.2290534879</v>
       </c>
       <c r="C106">
-        <v>30365.43603959493</v>
+        <v>9413.861154375165</v>
       </c>
       <c r="D106">
-        <v>6774.58218272082</v>
+        <v>1738.381218312687</v>
       </c>
       <c r="E106">
-        <v>4657.75571353189</v>
+        <v>1436.069027160672</v>
       </c>
       <c r="F106">
-        <v>957.8900408511927</v>
+        <v>624.1717304594308</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>309.6</v>
+        <v>356.8</v>
       </c>
       <c r="B107">
-        <v>242148.4596010792</v>
+        <v>167619.651970873</v>
       </c>
       <c r="C107">
-        <v>32278.9663505335</v>
+        <v>11231.1255747758</v>
       </c>
       <c r="D107">
-        <v>9258.720594568254</v>
+        <v>3589.443282716857</v>
       </c>
       <c r="E107">
-        <v>5283.481510989237</v>
+        <v>748.7136725626087</v>
       </c>
       <c r="F107">
-        <v>1207.56799836747</v>
+        <v>1089.819527509921</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>311.9</v>
+        <v>359</v>
       </c>
       <c r="B108">
-        <v>234115.2091760219</v>
+        <v>170585.9695440242</v>
       </c>
       <c r="C108">
-        <v>30694.92985742384</v>
+        <v>10453.29154211555</v>
       </c>
       <c r="D108">
-        <v>5637.138025136042</v>
+        <v>4151.763518233849</v>
       </c>
       <c r="E108">
-        <v>4101.285753785554</v>
+        <v>1697.765072512295</v>
       </c>
       <c r="F108">
-        <v>1258.140408498126</v>
+        <v>434.3522029495139</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>314.6</v>
+        <v>361.3</v>
       </c>
       <c r="B109">
-        <v>225110.9586770416</v>
+        <v>175464.3924614094</v>
       </c>
       <c r="C109">
-        <v>26010.62614812116</v>
+        <v>12310.55596251619</v>
       </c>
       <c r="D109">
-        <v>7782.671530585158</v>
+        <v>4712.82558263799</v>
       </c>
       <c r="E109">
-        <v>3907.40377793775</v>
+        <v>2040.409717914232</v>
       </c>
       <c r="F109">
-        <v>912.2906290862852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>316.9</v>
+        <v>363.6</v>
       </c>
       <c r="B110">
-        <v>213277.7082519845</v>
+        <v>169942.8153787945</v>
       </c>
       <c r="C110">
-        <v>26596.58965501153</v>
+        <v>9347.820382916827</v>
       </c>
       <c r="D110">
-        <v>4941.088961152949</v>
+        <v>6773.887647042153</v>
       </c>
       <c r="E110">
-        <v>4465.208020734081</v>
+        <v>2503.054363316176</v>
       </c>
       <c r="F110">
-        <v>1462.863039216938</v>
+        <v>1065.647797050486</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>319.2</v>
+        <v>365.8</v>
       </c>
       <c r="B111">
-        <v>214144.4578269272</v>
+        <v>187809.1329519456</v>
       </c>
       <c r="C111">
-        <v>22552.55316190186</v>
+        <v>12179.98635025657</v>
       </c>
       <c r="D111">
-        <v>5889.506391720701</v>
+        <v>8736.207882559145</v>
       </c>
       <c r="E111">
-        <v>3563.012263530398</v>
+        <v>2672.105763265862</v>
       </c>
       <c r="F111">
-        <v>943.435449347593</v>
+        <v>660.1804724900794</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>321.1</v>
+        <v>368.5</v>
       </c>
       <c r="B112">
-        <v>205982.2074757929</v>
+        <v>184535.9772462674</v>
       </c>
       <c r="C112">
-        <v>22438.78388498515</v>
+        <v>9047.644582900797</v>
       </c>
       <c r="D112">
-        <v>4670.807747407118</v>
+        <v>7942.237262511837</v>
       </c>
       <c r="E112">
-        <v>3882.502724970828</v>
+        <v>3019.123390476841</v>
       </c>
       <c r="F112">
-        <v>530.4300490207438</v>
+        <v>160.2887559841315</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>323.8</v>
+        <v>370.7</v>
       </c>
       <c r="B113">
-        <v>215777.9569768126</v>
+        <v>188602.2948194184</v>
       </c>
       <c r="C113">
-        <v>19814.4801756825</v>
+        <v>9579.810550240545</v>
       </c>
       <c r="D113">
-        <v>4006.34125285624</v>
+        <v>9014.557498028858</v>
       </c>
       <c r="E113">
-        <v>3588.620749123032</v>
+        <v>3968.174790426527</v>
       </c>
       <c r="F113">
-        <v>244.5802696088999</v>
+        <v>1004.821431423725</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>326.1</v>
+        <v>373</v>
       </c>
       <c r="B114">
-        <v>200644.7065517553</v>
+        <v>182980.7177368036</v>
       </c>
       <c r="C114">
-        <v>18070.44368257284</v>
+        <v>10927.07497064121</v>
       </c>
       <c r="D114">
-        <v>4294.758683424025</v>
+        <v>11705.619562433</v>
       </c>
       <c r="E114">
-        <v>4296.424991919348</v>
+        <v>4490.819435828464</v>
       </c>
       <c r="F114">
-        <v>965.1526797395554</v>
+        <v>800.4692284742105</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>328.3</v>
+        <v>375.4</v>
       </c>
       <c r="B115">
-        <v>197604.2061451789</v>
+        <v>183171.2459984231</v>
       </c>
       <c r="C115">
-        <v>17873.97399351141</v>
+        <v>6779.437844102722</v>
       </c>
       <c r="D115">
-        <v>5978.897095271463</v>
+        <v>12735.42345572427</v>
       </c>
       <c r="E115">
-        <v>3152.150789376696</v>
+        <v>5377.057326682666</v>
       </c>
       <c r="F115">
-        <v>1214.830637255833</v>
+        <v>917.2321471355854</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>330.7</v>
+        <v>377.6</v>
       </c>
       <c r="B116">
-        <v>201778.2057016408</v>
+        <v>183437.5635715741</v>
       </c>
       <c r="C116">
-        <v>16292.37069635351</v>
+        <v>10111.60381144249</v>
       </c>
       <c r="D116">
-        <v>4881.593544559568</v>
+        <v>14707.74369124127</v>
       </c>
       <c r="E116">
-        <v>2792.033477511983</v>
+        <v>7886.108726632352</v>
       </c>
       <c r="F116">
-        <v>946.2975000008628</v>
+        <v>931.7648225751823</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>333.3</v>
+        <v>380.2</v>
       </c>
       <c r="B117">
-        <v>202566.7052211413</v>
+        <v>200752.3025216617</v>
       </c>
       <c r="C117">
-        <v>18085.6337910991</v>
+        <v>9194.163591025823</v>
       </c>
       <c r="D117">
-        <v>3162.848031288337</v>
+        <v>17205.03124230685</v>
       </c>
       <c r="E117">
-        <v>3566.073056325215</v>
+        <v>7409.533108391072</v>
       </c>
       <c r="F117">
-        <v>989.5532679746448</v>
+        <v>580.7579844583383</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>335.6</v>
+        <v>382.5</v>
       </c>
       <c r="B118">
-        <v>204133.454796084</v>
+        <v>197230.7254390469</v>
       </c>
       <c r="C118">
-        <v>15701.59729798944</v>
+        <v>9841.428011426462</v>
       </c>
       <c r="D118">
-        <v>3701.265461856121</v>
+        <v>20266.09330671098</v>
       </c>
       <c r="E118">
-        <v>2603.877299121532</v>
+        <v>9602.17775379301</v>
       </c>
       <c r="F118">
-        <v>920.1256781052998</v>
+        <v>886.4057815088245</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>337.9</v>
+        <v>384.8</v>
       </c>
       <c r="B119">
-        <v>191100.2043710268</v>
+        <v>205409.1483564322</v>
       </c>
       <c r="C119">
-        <v>13837.56080487978</v>
+        <v>8628.692431827101</v>
       </c>
       <c r="D119">
-        <v>2689.68289242388</v>
+        <v>25077.15537111512</v>
       </c>
       <c r="E119">
-        <v>2631.681541917857</v>
+        <v>11304.82239919495</v>
       </c>
       <c r="F119">
-        <v>1000.698088235956</v>
+        <v>642.0535785593102</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>339.8</v>
+        <v>387.1</v>
       </c>
       <c r="B120">
-        <v>194937.9540198926</v>
+        <v>217687.5712738174</v>
       </c>
       <c r="C120">
-        <v>15343.79152796309</v>
+        <v>7355.95685222774</v>
       </c>
       <c r="D120">
-        <v>3850.984248110297</v>
+        <v>27448.21743551928</v>
       </c>
       <c r="E120">
-        <v>2521.172003358294</v>
+        <v>13687.4670445969</v>
       </c>
       <c r="F120">
-        <v>777.6926879091029</v>
+        <v>1157.701375609796</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>342.7</v>
+        <v>389.4</v>
       </c>
       <c r="B121">
-        <v>192948.2034839508</v>
+        <v>226465.9941912025</v>
       </c>
       <c r="C121">
-        <v>16734.35421056394</v>
+        <v>7713.221272628383</v>
       </c>
       <c r="D121">
-        <v>3365.075791000119</v>
+        <v>30789.27949992342</v>
       </c>
       <c r="E121">
-        <v>2981.44691818843</v>
+        <v>16650.11168999883</v>
       </c>
       <c r="F121">
-        <v>943.631813726015</v>
+        <v>543.349172660282</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="B122">
-        <v>183214.9530588935</v>
+        <v>233880.7331412902</v>
       </c>
       <c r="C122">
-        <v>15960.31771745428</v>
+        <v>9855.781052211711</v>
       </c>
       <c r="D122">
-        <v>2813.493221567875</v>
+        <v>38656.56705098897</v>
       </c>
       <c r="E122">
-        <v>2409.251160984747</v>
+        <v>20033.53607175755</v>
       </c>
       <c r="F122">
-        <v>444.2042238566669</v>
+        <v>632.3423345434417</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>347.3</v>
+        <v>394.3</v>
       </c>
       <c r="B123">
-        <v>177281.7026338362</v>
+        <v>244259.1560586755</v>
       </c>
       <c r="C123">
-        <v>15826.28122434461</v>
+        <v>9563.04547261235</v>
       </c>
       <c r="D123">
-        <v>1131.910652135655</v>
+        <v>46157.62911539312</v>
       </c>
       <c r="E123">
-        <v>2977.055403781063</v>
+        <v>25396.18071715951</v>
       </c>
       <c r="F123">
-        <v>744.7766339873224</v>
+        <v>437.9901315939273</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>349.6</v>
+        <v>396.5</v>
       </c>
       <c r="B124">
-        <v>173148.4522087789</v>
+        <v>270425.4736318265</v>
       </c>
       <c r="C124">
-        <v>14292.24473123495</v>
+        <v>10005.21143995212</v>
       </c>
       <c r="D124">
-        <v>3020.32808270344</v>
+        <v>50099.94935091013</v>
       </c>
       <c r="E124">
-        <v>1964.859646577388</v>
+        <v>30615.23211710918</v>
       </c>
       <c r="F124">
-        <v>635.3490441179774</v>
+        <v>642.5228070335211</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>351.9</v>
+        <v>398.8</v>
       </c>
       <c r="B125">
-        <v>168415.2017837217</v>
+        <v>286603.8965492118</v>
       </c>
       <c r="C125">
-        <v>12758.20823812528</v>
+        <v>8562.475860352763</v>
       </c>
       <c r="D125">
-        <v>748.7455132711984</v>
+        <v>58661.01141531426</v>
       </c>
       <c r="E125">
-        <v>2272.663889373712</v>
+        <v>37597.87676251113</v>
       </c>
       <c r="F125">
-        <v>1065.92145424863</v>
+        <v>718.1706040840068</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>354.5</v>
+        <v>401.1</v>
       </c>
       <c r="B126">
-        <v>174503.7013032222</v>
+        <v>305382.3194665969</v>
       </c>
       <c r="C126">
-        <v>14721.47133287087</v>
+        <v>8499.740280753402</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>68462.07347971843</v>
       </c>
       <c r="E126">
-        <v>3326.703468186937</v>
+        <v>44160.52140791307</v>
       </c>
       <c r="F126">
-        <v>639.1772222224117</v>
+        <v>1153.818401134496</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>356.8</v>
+        <v>403.7</v>
       </c>
       <c r="B127">
-        <v>168770.4508781649</v>
+        <v>338197.0584166846</v>
       </c>
       <c r="C127">
-        <v>16477.43483976121</v>
+        <v>9752.300060336733</v>
       </c>
       <c r="D127">
-        <v>1518.417430567755</v>
+        <v>79809.36103078397</v>
       </c>
       <c r="E127">
-        <v>2604.507710983254</v>
+        <v>50643.94578967179</v>
       </c>
       <c r="F127">
-        <v>1099.749632353067</v>
+        <v>992.8115630176485</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>359</v>
+        <v>405.9</v>
       </c>
       <c r="B128">
-        <v>171629.9504715884</v>
+        <v>381663.3759898356</v>
       </c>
       <c r="C128">
-        <v>15640.96515069981</v>
+        <v>10614.46602767648</v>
       </c>
       <c r="D128">
-        <v>1762.55584241519</v>
+        <v>92721.68126630096</v>
       </c>
       <c r="E128">
-        <v>3520.233508440601</v>
+        <v>59132.99718962147</v>
       </c>
       <c r="F128">
-        <v>439.4275898693445</v>
+        <v>1117.344238457246</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>361.3</v>
+        <v>408.2</v>
       </c>
       <c r="B129">
-        <v>176396.7000465312</v>
+        <v>409841.7989072209</v>
       </c>
       <c r="C129">
-        <v>17436.92865759015</v>
+        <v>11101.73044807712</v>
       </c>
       <c r="D129">
-        <v>1990.973272982945</v>
+        <v>107182.7433307051</v>
       </c>
       <c r="E129">
-        <v>3828.037751236918</v>
+        <v>71715.6418350234</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>402.9920355077315</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>363.6</v>
+        <v>410.5</v>
       </c>
       <c r="B130">
-        <v>170763.4496214739</v>
+        <v>466220.2218246061</v>
       </c>
       <c r="C130">
-        <v>14412.89216448048</v>
+        <v>10588.99486847776</v>
       </c>
       <c r="D130">
-        <v>3719.390703550729</v>
+        <v>122643.8053951093</v>
       </c>
       <c r="E130">
-        <v>4255.841994033234</v>
+        <v>84278.28648042536</v>
       </c>
       <c r="F130">
-        <v>1060.572410130652</v>
+        <v>818.6398325582177</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>365.8</v>
+        <v>413.1</v>
       </c>
       <c r="B131">
-        <v>188522.9492148974</v>
+        <v>540934.9607746935</v>
       </c>
       <c r="C131">
-        <v>17186.42247541905</v>
+        <v>9231.554648061086</v>
       </c>
       <c r="D131">
-        <v>5363.529115398167</v>
+        <v>137891.0929461748</v>
       </c>
       <c r="E131">
-        <v>4391.567791490589</v>
+        <v>100411.7108621841</v>
       </c>
       <c r="F131">
-        <v>650.2503676469291</v>
+        <v>187.6329944413765</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>368.5</v>
+        <v>415.3</v>
       </c>
       <c r="B132">
-        <v>185118.6987159171</v>
+        <v>612601.2783478448</v>
       </c>
       <c r="C132">
-        <v>13982.11876611641</v>
+        <v>10243.72061540083</v>
       </c>
       <c r="D132">
-        <v>4179.06262084729</v>
+        <v>161653.4131816918</v>
       </c>
       <c r="E132">
-        <v>4697.685815642792</v>
+        <v>125450.7622621338</v>
       </c>
       <c r="F132">
-        <v>144.4005882350893</v>
+        <v>1222.16566988097</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>370.7</v>
+        <v>417.6</v>
       </c>
       <c r="B133">
-        <v>189078.1983093406</v>
+        <v>732179.70126523</v>
       </c>
       <c r="C133">
-        <v>14455.64907705499</v>
+        <v>9500.98503580147</v>
       </c>
       <c r="D133">
-        <v>4933.201032694727</v>
+        <v>193634.475246096</v>
       </c>
       <c r="E133">
-        <v>5613.41161310014</v>
+        <v>165213.4069075357</v>
       </c>
       <c r="F133">
-        <v>984.0785457513671</v>
+        <v>1477.813466931456</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>373</v>
+        <v>419.9</v>
       </c>
       <c r="B134">
-        <v>183344.9478842833</v>
+        <v>913558.1241826151</v>
       </c>
       <c r="C134">
-        <v>15741.61258394532</v>
+        <v>12658.24945620211</v>
       </c>
       <c r="D134">
-        <v>7291.618463262508</v>
+        <v>231735.5373105001</v>
       </c>
       <c r="E134">
-        <v>6101.215855896457</v>
+        <v>219956.0515529377</v>
       </c>
       <c r="F134">
-        <v>774.6509558820221</v>
+        <v>1343.461263981942</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>375.4</v>
+        <v>422.2</v>
       </c>
       <c r="B135">
-        <v>183418.9474407454</v>
+        <v>1147536.5471</v>
       </c>
       <c r="C135">
-        <v>11530.00928678742</v>
+        <v>8385.513876602752</v>
       </c>
       <c r="D135">
-        <v>7974.314912550617</v>
+        <v>276746.5993749043</v>
       </c>
       <c r="E135">
-        <v>6951.098544031744</v>
+        <v>330158.6961983396</v>
       </c>
       <c r="F135">
-        <v>886.1178186270522</v>
+        <v>1859.109061032428</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>377.6</v>
+        <v>424.4</v>
       </c>
       <c r="B136">
-        <v>183578.4470341688</v>
+        <v>1600302.864673152</v>
       </c>
       <c r="C136">
-        <v>14803.53959772596</v>
+        <v>12847.67984394253</v>
       </c>
       <c r="D136">
-        <v>9628.453324398048</v>
+        <v>337998.9196104213</v>
       </c>
       <c r="E136">
-        <v>9426.824341489089</v>
+        <v>634487.7475982893</v>
       </c>
       <c r="F136">
-        <v>895.7957761433295</v>
+        <v>2023.641736472026</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>380.2</v>
+        <v>427</v>
       </c>
       <c r="B137">
-        <v>200766.9465536693</v>
+        <v>2666717.603623238</v>
       </c>
       <c r="C137">
-        <v>13816.80269247159</v>
+        <v>13030.23962352585</v>
       </c>
       <c r="D137">
-        <v>11749.70781112682</v>
+        <v>415716.2071614868</v>
       </c>
       <c r="E137">
-        <v>8910.863920302323</v>
+        <v>1379711.171980048</v>
       </c>
       <c r="F137">
-        <v>539.0515441171115</v>
+        <v>3142.634898355182</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>382.5</v>
+        <v>429.3</v>
       </c>
       <c r="B138">
-        <v>197133.696128612</v>
+        <v>4149096.026540624</v>
       </c>
       <c r="C138">
-        <v>14402.76619936192</v>
+        <v>14317.50404392649</v>
       </c>
       <c r="D138">
-        <v>14478.12524169461</v>
+        <v>486187.269225891</v>
       </c>
       <c r="E138">
-        <v>11068.66816309864</v>
+        <v>1138813.81662545</v>
       </c>
       <c r="F138">
-        <v>839.623954247767</v>
+        <v>2898.282695405667</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>384.8</v>
+        <v>431.5</v>
       </c>
       <c r="B139">
-        <v>205200.4457035548</v>
+        <v>3399762.344113775</v>
       </c>
       <c r="C139">
-        <v>13128.72970625226</v>
+        <v>15609.67001126624</v>
       </c>
       <c r="D139">
-        <v>18956.54267226236</v>
+        <v>464519.589461408</v>
       </c>
       <c r="E139">
-        <v>12736.47240589496</v>
+        <v>463502.8680253996</v>
       </c>
       <c r="F139">
-        <v>590.1963643784188</v>
+        <v>1572.815370845265</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>387.1</v>
+        <v>433.8</v>
       </c>
       <c r="B140">
-        <v>217367.1952784975</v>
+        <v>1720040.76703116</v>
       </c>
       <c r="C140">
-        <v>11794.69321314256</v>
+        <v>11966.93443166688</v>
       </c>
       <c r="D140">
-        <v>20994.96010283015</v>
+        <v>410120.6515258122</v>
       </c>
       <c r="E140">
-        <v>15084.27664869128</v>
+        <v>189135.5126708016</v>
       </c>
       <c r="F140">
-        <v>1100.768774509074</v>
+        <v>1548.463167895747</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>389.4</v>
+        <v>436</v>
       </c>
       <c r="B141">
-        <v>226033.9448534403</v>
+        <v>1030507.084604312</v>
       </c>
       <c r="C141">
-        <v>12090.65672003293</v>
+        <v>15129.10039900662</v>
       </c>
       <c r="D141">
-        <v>24003.37753339794</v>
+        <v>370672.9717613291</v>
       </c>
       <c r="E141">
-        <v>18012.0808914876</v>
+        <v>127564.5640707512</v>
       </c>
       <c r="F141">
-        <v>481.3411846397298</v>
+        <v>1652.995843335344</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>392</v>
+        <v>438.3</v>
       </c>
       <c r="B142">
-        <v>233322.4443729407</v>
+        <v>800985.507521697</v>
       </c>
       <c r="C142">
-        <v>14163.91981477852</v>
+        <v>12706.36481940726</v>
       </c>
       <c r="D142">
-        <v>31494.63202012671</v>
+        <v>326444.0338257333</v>
       </c>
       <c r="E142">
-        <v>21356.12047030083</v>
+        <v>101897.2087161532</v>
       </c>
       <c r="F142">
-        <v>564.5969526135118</v>
+        <v>1628.64364038583</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>394.3</v>
+        <v>440.6</v>
       </c>
       <c r="B143">
-        <v>243589.1939478834</v>
+        <v>688063.9304390822</v>
       </c>
       <c r="C143">
-        <v>13809.88332166883</v>
+        <v>11913.6292398079</v>
       </c>
       <c r="D143">
-        <v>38663.04945069449</v>
+        <v>287375.0958901375</v>
       </c>
       <c r="E143">
-        <v>26683.92471309714</v>
+        <v>85099.85336155513</v>
       </c>
       <c r="F143">
-        <v>365.1693627441632</v>
+        <v>674.2914374363154</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>396.5</v>
+        <v>443.2</v>
       </c>
       <c r="B144">
-        <v>269648.693541307</v>
+        <v>582378.6693891697</v>
       </c>
       <c r="C144">
-        <v>14193.41363260743</v>
+        <v>11016.18901939123</v>
       </c>
       <c r="D144">
-        <v>42287.18786254193</v>
+        <v>250362.383441203</v>
       </c>
       <c r="E144">
-        <v>31869.6505105545</v>
+        <v>75633.27774331384</v>
       </c>
       <c r="F144">
-        <v>564.8473202604409</v>
+        <v>1023.284599319475</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>398.8</v>
+        <v>445.5</v>
       </c>
       <c r="B145">
-        <v>285715.4431162497</v>
+        <v>536357.092306555</v>
       </c>
       <c r="C145">
-        <v>12689.37713949776</v>
+        <v>8633.453439791872</v>
       </c>
       <c r="D145">
-        <v>50515.60529310968</v>
+        <v>220713.4455056072</v>
       </c>
       <c r="E145">
-        <v>38817.4547533508</v>
+        <v>69065.92238871579</v>
       </c>
       <c r="F145">
-        <v>635.4197303910964</v>
+        <v>1098.932396369957</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>401.1</v>
+        <v>447.7</v>
       </c>
       <c r="B146">
-        <v>304382.1926911924</v>
+        <v>479123.4098797059</v>
       </c>
       <c r="C146">
-        <v>12565.3406463881</v>
+        <v>13355.61940713165</v>
       </c>
       <c r="D146">
-        <v>59984.02272367744</v>
+        <v>190545.7657411242</v>
       </c>
       <c r="E146">
-        <v>45345.25899614714</v>
+        <v>60604.97378866548</v>
       </c>
       <c r="F146">
-        <v>1065.992140521752</v>
+        <v>1043.465071809555</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>403.7</v>
+        <v>450</v>
       </c>
       <c r="B147">
-        <v>337070.6922106929</v>
+        <v>433401.8327970912</v>
       </c>
       <c r="C147">
-        <v>13748.60374113369</v>
+        <v>11352.88382753229</v>
       </c>
       <c r="D147">
-        <v>70955.27721040623</v>
+        <v>161386.8278055283</v>
       </c>
       <c r="E147">
-        <v>51789.29857496036</v>
+        <v>58507.61843406742</v>
       </c>
       <c r="F147">
-        <v>899.2479084955339</v>
+        <v>909.1128688600365</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>405.9</v>
+        <v>452.3</v>
       </c>
       <c r="B148">
-        <v>380430.1918041165</v>
+        <v>411980.2557144764</v>
       </c>
       <c r="C148">
-        <v>14552.13405207227</v>
+        <v>10870.14824793292</v>
       </c>
       <c r="D148">
-        <v>83549.41562225367</v>
+        <v>141577.8898699325</v>
       </c>
       <c r="E148">
-        <v>60245.02437241771</v>
+        <v>54120.26307946935</v>
       </c>
       <c r="F148">
-        <v>1018.925866011812</v>
+        <v>814.7606659105259</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>408.2</v>
+        <v>454.9</v>
       </c>
       <c r="B149">
-        <v>408496.9413790592</v>
+        <v>370694.994664564</v>
       </c>
       <c r="C149">
-        <v>14978.0975589626</v>
+        <v>10252.70802751626</v>
       </c>
       <c r="D149">
-        <v>97677.83305282146</v>
+        <v>130145.177420998</v>
       </c>
       <c r="E149">
-        <v>72792.82861521402</v>
+        <v>48663.68746122809</v>
       </c>
       <c r="F149">
-        <v>299.4982761424671</v>
+        <v>583.7538277936819</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>410.5</v>
+        <v>456.8</v>
       </c>
       <c r="B150">
-        <v>464763.6909540018</v>
+        <v>339024.9962050127</v>
       </c>
       <c r="C150">
-        <v>14404.06106585294</v>
+        <v>10599.57863567331</v>
       </c>
       <c r="D150">
-        <v>112806.2504833892</v>
+        <v>115591.2721698536</v>
       </c>
       <c r="E150">
-        <v>85320.63285801034</v>
+        <v>47481.95912482099</v>
       </c>
       <c r="F150">
-        <v>710.0706862731186</v>
+        <v>1094.941138400605</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>413.1</v>
+        <v>459.5</v>
       </c>
       <c r="B151">
-        <v>539352.1904735023</v>
+        <v>309051.8404993345</v>
       </c>
       <c r="C151">
-        <v>12977.32416059853</v>
+        <v>10217.23686831753</v>
       </c>
       <c r="D151">
-        <v>127677.504970118</v>
+        <v>109747.3015498063</v>
       </c>
       <c r="E151">
-        <v>101414.6724368236</v>
+        <v>43158.97675203196</v>
       </c>
       <c r="F151">
-        <v>73.32645424690418</v>
+        <v>715.0494218946542</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>415.3</v>
+        <v>461.8</v>
       </c>
       <c r="B152">
-        <v>610911.6900669257</v>
+        <v>285630.2634167197</v>
       </c>
       <c r="C152">
-        <v>13930.8544715371</v>
+        <v>8724.501288718173</v>
       </c>
       <c r="D152">
-        <v>151121.6433819654</v>
+        <v>102038.3636142104</v>
       </c>
       <c r="E152">
-        <v>126420.3982342809</v>
+        <v>42331.6213974339</v>
       </c>
       <c r="F152">
-        <v>1103.004411763182</v>
+        <v>860.6972189451399</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>417.6</v>
+        <v>464</v>
       </c>
       <c r="B153">
-        <v>730378.4396418686</v>
+        <v>268696.5809898708</v>
       </c>
       <c r="C153">
-        <v>13126.81797842744</v>
+        <v>8436.667256057917</v>
       </c>
       <c r="D153">
-        <v>182770.0608125332</v>
+        <v>98370.68384972741</v>
       </c>
       <c r="E153">
-        <v>166148.2024770773</v>
+        <v>38450.67279738358</v>
       </c>
       <c r="F153">
-        <v>1353.576821893833</v>
+        <v>885.2298943847372</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>419.9</v>
+        <v>466.6</v>
       </c>
       <c r="B154">
-        <v>911645.1892168112</v>
+        <v>252311.3199399584</v>
       </c>
       <c r="C154">
-        <v>16222.78148531777</v>
+        <v>4669.227035641245</v>
       </c>
       <c r="D154">
-        <v>220538.478243101</v>
+        <v>89057.97140079297</v>
       </c>
       <c r="E154">
-        <v>220856.0067198735</v>
+        <v>37004.09717914231</v>
       </c>
       <c r="F154">
-        <v>1214.149232024489</v>
+        <v>644.223056267896</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>422.2</v>
+        <v>468.6</v>
       </c>
       <c r="B155">
-        <v>1145511.938791754</v>
+        <v>237353.4268246412</v>
       </c>
       <c r="C155">
-        <v>11888.74499220811</v>
+        <v>5181.196096859196</v>
       </c>
       <c r="D155">
-        <v>265216.8956736688</v>
+        <v>89602.80797853571</v>
       </c>
       <c r="E155">
-        <v>331023.8109626699</v>
+        <v>35975.96208818747</v>
       </c>
       <c r="F155">
-        <v>1724.721642155145</v>
+        <v>806.5254884857086</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>424.4</v>
+        <v>471.2</v>
       </c>
       <c r="B156">
-        <v>1598171.438385177</v>
+        <v>224668.1657747288</v>
       </c>
       <c r="C156">
-        <v>16292.27530314671</v>
+        <v>7723.755876442556</v>
       </c>
       <c r="D156">
-        <v>326151.0340855162</v>
+        <v>86190.09552960127</v>
       </c>
       <c r="E156">
-        <v>635319.5367601272</v>
+        <v>35329.38646994619</v>
       </c>
       <c r="F156">
-        <v>1884.399599671422</v>
+        <v>975.5186503688647</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>427</v>
+        <v>473.4</v>
       </c>
       <c r="B157">
-        <v>2664459.937904678</v>
+        <v>213534.4833478799</v>
       </c>
       <c r="C157">
-        <v>16405.53839789231</v>
+        <v>8685.9218437823</v>
       </c>
       <c r="D157">
-        <v>403492.2885722449</v>
+        <v>86382.41576511829</v>
       </c>
       <c r="E157">
-        <v>1380503.57633894</v>
+        <v>31958.43786989588</v>
       </c>
       <c r="F157">
-        <v>2997.655367645204</v>
+        <v>520.0513258084584</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>429.3</v>
+        <v>475.7</v>
       </c>
       <c r="B158">
-        <v>4146726.687479621</v>
+        <v>202212.9062652651</v>
       </c>
       <c r="C158">
-        <v>17631.50190478264</v>
+        <v>9463.186264182943</v>
       </c>
       <c r="D158">
-        <v>473630.7060028128</v>
+        <v>85383.47782952242</v>
       </c>
       <c r="E158">
-        <v>1139571.380581737</v>
+        <v>30991.08251529781</v>
       </c>
       <c r="F158">
-        <v>2748.227777775856</v>
+        <v>745.6991228589477</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>431.5</v>
+        <v>478</v>
       </c>
       <c r="B159">
-        <v>3397286.187073044</v>
+        <v>191991.3291826503</v>
       </c>
       <c r="C159">
-        <v>18865.03221572121</v>
+        <v>8480.450684583582</v>
       </c>
       <c r="D159">
-        <v>451644.8444146602</v>
+        <v>82144.53989392656</v>
       </c>
       <c r="E159">
-        <v>464227.1063791941</v>
+        <v>29143.72716069975</v>
       </c>
       <c r="F159">
-        <v>1417.905735292134</v>
+        <v>411.3469199094297</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>433.8</v>
+        <v>480.6</v>
       </c>
       <c r="B160">
-        <v>1717452.936647987</v>
+        <v>185806.0681327379</v>
       </c>
       <c r="C160">
-        <v>15160.99572261155</v>
+        <v>9143.01046416691</v>
       </c>
       <c r="D160">
-        <v>396913.2618452279</v>
+        <v>78411.82744499212</v>
       </c>
       <c r="E160">
-        <v>189824.9106219904</v>
+        <v>29767.15154245847</v>
       </c>
       <c r="F160">
-        <v>1388.478145422789</v>
+        <v>920.3400817925894</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>436</v>
+        <v>482.8</v>
       </c>
       <c r="B161">
-        <v>1027812.43624141</v>
+        <v>180072.385705889</v>
       </c>
       <c r="C161">
-        <v>18264.52603355012</v>
+        <v>7705.176431506654</v>
       </c>
       <c r="D161">
-        <v>357147.4002570754</v>
+        <v>78014.14768050914</v>
       </c>
       <c r="E161">
-        <v>128220.6364194478</v>
+        <v>27646.20294240816</v>
       </c>
       <c r="F161">
-        <v>1488.156102939066</v>
+        <v>1164.872757232186</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>438.3</v>
+        <v>485.1</v>
       </c>
       <c r="B162">
-        <v>798179.1858163532</v>
+        <v>171550.8086232742</v>
       </c>
       <c r="C162">
-        <v>15780.48954044046</v>
+        <v>9942.440851907293</v>
       </c>
       <c r="D162">
-        <v>312585.8176876432</v>
+        <v>77555.20974491327</v>
       </c>
       <c r="E162">
-        <v>102518.4406622441</v>
+        <v>23688.84758781009</v>
       </c>
       <c r="F162">
-        <v>1458.728513069722</v>
+        <v>880.5205542826689</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>440.6</v>
+        <v>487.3</v>
       </c>
       <c r="B163">
-        <v>685145.9353912958</v>
+        <v>165217.1261964253</v>
       </c>
       <c r="C163">
-        <v>14926.45304733079</v>
+        <v>8954.606819247037</v>
       </c>
       <c r="D163">
-        <v>273184.235118211</v>
+        <v>72847.52998043029</v>
       </c>
       <c r="E163">
-        <v>85686.24490504042</v>
+        <v>24057.89898775979</v>
       </c>
       <c r="F163">
-        <v>499.3009232003737</v>
+        <v>1315.053229722265</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>443.2</v>
+        <v>490</v>
       </c>
       <c r="B164">
-        <v>579334.4349107962</v>
+        <v>154743.9704907471</v>
       </c>
       <c r="C164">
-        <v>13959.71614207639</v>
+        <v>6652.265051891263</v>
       </c>
       <c r="D164">
-        <v>235795.4896049397</v>
+        <v>69243.55936038299</v>
       </c>
       <c r="E164">
-        <v>76180.28448385367</v>
+        <v>23334.91661497077</v>
       </c>
       <c r="F164">
-        <v>842.5566911741557</v>
+        <v>575.1615132163142</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>445.5</v>
+        <v>492.2</v>
       </c>
       <c r="B165">
-        <v>533201.1844857392</v>
+        <v>141210.2880638982</v>
       </c>
       <c r="C165">
-        <v>11515.67964896672</v>
+        <v>9854.431019231037</v>
       </c>
       <c r="D165">
-        <v>205813.9070355075</v>
+        <v>68385.87959589998</v>
       </c>
       <c r="E165">
-        <v>69578.08872664996</v>
+        <v>20913.96801492045</v>
       </c>
       <c r="F165">
-        <v>913.1291013048112</v>
+        <v>909.694188655908</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>447.7</v>
+        <v>494.5</v>
       </c>
       <c r="B166">
-        <v>475860.6840791628</v>
+        <v>141088.7109812833</v>
       </c>
       <c r="C166">
-        <v>16179.20995990529</v>
+        <v>6091.695439631676</v>
       </c>
       <c r="D166">
-        <v>175328.0454473549</v>
+        <v>67526.94166030412</v>
       </c>
       <c r="E166">
-        <v>61083.81452410733</v>
+        <v>19356.61266032239</v>
       </c>
       <c r="F166">
-        <v>852.807058821089</v>
+        <v>1215.341985706397</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>450</v>
+        <v>496.8</v>
       </c>
       <c r="B167">
-        <v>430027.4336541055</v>
+        <v>148467.1338986686</v>
       </c>
       <c r="C167">
-        <v>14115.17346679563</v>
+        <v>9618.959860032315</v>
       </c>
       <c r="D167">
-        <v>145836.4628779227</v>
+        <v>67788.00372470828</v>
       </c>
       <c r="E167">
-        <v>58951.61876690365</v>
+        <v>20229.25730572434</v>
       </c>
       <c r="F167">
-        <v>713.379468951744</v>
+        <v>870.9897827568793</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>452.3</v>
+        <v>499.1</v>
       </c>
       <c r="B168">
-        <v>408494.1832290482</v>
+        <v>135145.5568160538</v>
       </c>
       <c r="C168">
-        <v>13571.13697368596</v>
+        <v>8706.224280432954</v>
       </c>
       <c r="D168">
-        <v>125694.8803084905</v>
+        <v>65059.06578911241</v>
       </c>
       <c r="E168">
-        <v>54529.42300969995</v>
+        <v>17021.90195112627</v>
       </c>
       <c r="F168">
-        <v>613.9518790823959</v>
+        <v>576.6375798073686</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>454.9</v>
+        <v>501.3</v>
       </c>
       <c r="B169">
-        <v>367082.6827485486</v>
+        <v>140811.8743892048</v>
       </c>
       <c r="C169">
-        <v>12884.40006843156</v>
+        <v>8428.390247772699</v>
       </c>
       <c r="D169">
-        <v>113886.1347952193</v>
+        <v>63431.38602462944</v>
       </c>
       <c r="E169">
-        <v>49033.4625885132</v>
+        <v>16260.95335107596</v>
       </c>
       <c r="F169">
-        <v>377.2076470561778</v>
+        <v>891.1702552469624</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>456.8</v>
+        <v>503.6</v>
       </c>
       <c r="B170">
-        <v>335320.4323974143</v>
+        <v>126390.2973065901</v>
       </c>
       <c r="C170">
-        <v>13180.63079151487</v>
+        <v>7125.654668173338</v>
       </c>
       <c r="D170">
-        <v>99057.43615090568</v>
+        <v>61102.44808903357</v>
       </c>
       <c r="E170">
-        <v>47822.95304995363</v>
+        <v>16023.5979964779</v>
       </c>
       <c r="F170">
-        <v>884.2022467293291</v>
+        <v>1006.818052297448</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>459.5</v>
+        <v>506.2</v>
       </c>
       <c r="B171">
-        <v>305216.1818984342</v>
+        <v>125605.0362566777</v>
       </c>
       <c r="C171">
-        <v>12726.32708221223</v>
+        <v>8168.214447756669</v>
       </c>
       <c r="D171">
-        <v>92822.96965635478</v>
+        <v>59639.73564009913</v>
       </c>
       <c r="E171">
-        <v>43459.07107410583</v>
+        <v>14557.02237823662</v>
       </c>
       <c r="F171">
-        <v>498.3524673174888</v>
+        <v>725.8112141806041</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>461.8</v>
+        <v>508.5</v>
       </c>
       <c r="B172">
-        <v>281682.9314733769</v>
+        <v>106783.4591740629</v>
       </c>
       <c r="C172">
-        <v>11172.29058910256</v>
+        <v>8285.478868157308</v>
       </c>
       <c r="D172">
-        <v>84781.38708692256</v>
+        <v>59180.79770450326</v>
       </c>
       <c r="E172">
-        <v>42596.87531690214</v>
+        <v>15569.66702363856</v>
       </c>
       <c r="F172">
-        <v>638.9248774481403</v>
+        <v>761.4590112310898</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>464</v>
+        <v>510.7</v>
       </c>
       <c r="B173">
-        <v>264642.4310668003</v>
+        <v>111849.7767472139</v>
       </c>
       <c r="C173">
-        <v>10825.82090004114</v>
+        <v>6327.644835497053</v>
       </c>
       <c r="D173">
-        <v>80795.52549877</v>
+        <v>57673.11794002028</v>
       </c>
       <c r="E173">
-        <v>38682.60111435949</v>
+        <v>15328.71842358824</v>
       </c>
       <c r="F173">
-        <v>658.6028349644184</v>
+        <v>805.9916866706872</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>466.6</v>
+        <v>513.3</v>
       </c>
       <c r="B174">
-        <v>248130.9305863008</v>
+        <v>101464.5156973016</v>
       </c>
       <c r="C174">
-        <v>6989.083994786729</v>
+        <v>9020.204615080384</v>
       </c>
       <c r="D174">
-        <v>71106.77998549878</v>
+        <v>60390.40549108584</v>
       </c>
       <c r="E174">
-        <v>37196.64069317273</v>
+        <v>13072.14280534696</v>
       </c>
       <c r="F174">
-        <v>411.8586029382031</v>
+        <v>954.9848485538432</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>468.6</v>
+        <v>515.3</v>
       </c>
       <c r="B175">
-        <v>233075.9302166858</v>
+        <v>96106.62258198438</v>
       </c>
       <c r="C175">
-        <v>7447.747913821809</v>
+        <v>10582.17367629837</v>
       </c>
       <c r="D175">
-        <v>71362.36035990555</v>
+        <v>57615.24206882858</v>
       </c>
       <c r="E175">
-        <v>36138.20959995213</v>
+        <v>13334.00771439213</v>
       </c>
       <c r="F175">
-        <v>569.7476552257285</v>
+        <v>897.2872807716594</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>471.2</v>
+        <v>517.9</v>
       </c>
       <c r="B176">
-        <v>220264.4297361863</v>
+        <v>93221.36153207204</v>
       </c>
       <c r="C176">
-        <v>9921.011008567402</v>
+        <v>11794.73345588167</v>
       </c>
       <c r="D176">
-        <v>67573.61484663436</v>
+        <v>59392.52961989414</v>
       </c>
       <c r="E176">
-        <v>35452.24917876536</v>
+        <v>12367.43209615085</v>
       </c>
       <c r="F176">
-        <v>733.0034231995114</v>
+        <v>1036.280442654815</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>473.4</v>
+        <v>520.1</v>
       </c>
       <c r="B177">
-        <v>209023.9293296098</v>
+        <v>96887.67910522316</v>
       </c>
       <c r="C177">
-        <v>10824.541319506</v>
+        <v>9796.899423221435</v>
       </c>
       <c r="D177">
-        <v>67447.7532584818</v>
+        <v>54044.84985541113</v>
       </c>
       <c r="E177">
-        <v>32047.97497622271</v>
+        <v>10736.48349610054</v>
       </c>
       <c r="F177">
-        <v>272.6813807157887</v>
+        <v>1230.813118094412</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>475.7</v>
+        <v>522.4</v>
       </c>
       <c r="B178">
-        <v>197590.6789045525</v>
+        <v>78466.10202260833</v>
       </c>
       <c r="C178">
-        <v>11540.50482639634</v>
+        <v>10324.16384362208</v>
       </c>
       <c r="D178">
-        <v>66116.17068904954</v>
+        <v>52885.91191981526</v>
       </c>
       <c r="E178">
-        <v>31045.77921901903</v>
+        <v>9599.128141502475</v>
       </c>
       <c r="F178">
-        <v>493.2537908464401</v>
+        <v>1076.460915144899</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>478</v>
+        <v>524.7</v>
       </c>
       <c r="B179">
-        <v>187257.4284794952</v>
+        <v>74744.52493999351</v>
       </c>
       <c r="C179">
-        <v>10496.46833328667</v>
+        <v>8671.428264022714</v>
       </c>
       <c r="D179">
-        <v>62544.5881196173</v>
+        <v>52536.97398421942</v>
       </c>
       <c r="E179">
-        <v>29163.58346181535</v>
+        <v>9271.772786904419</v>
       </c>
       <c r="F179">
-        <v>153.8262009770961</v>
+        <v>962.1087121953833</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>480.6</v>
+        <v>526.9</v>
       </c>
       <c r="B180">
-        <v>180945.9279989957</v>
+        <v>69410.84251314466</v>
       </c>
       <c r="C180">
-        <v>11089.73142803227</v>
+        <v>7883.594231362462</v>
       </c>
       <c r="D180">
-        <v>58435.84260634609</v>
+        <v>52019.29421973642</v>
       </c>
       <c r="E180">
-        <v>29747.62304062858</v>
+        <v>9330.824186854106</v>
       </c>
       <c r="F180">
-        <v>657.0819689508808</v>
+        <v>856.6413876349779</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>482.8</v>
+        <v>529.5</v>
       </c>
       <c r="B181">
-        <v>175105.4275924192</v>
+        <v>63325.58146323228</v>
       </c>
       <c r="C181">
-        <v>9593.261738970839</v>
+        <v>7786.154010945789</v>
       </c>
       <c r="D181">
-        <v>57719.98101819353</v>
+        <v>49536.581770802</v>
       </c>
       <c r="E181">
-        <v>27593.34883808594</v>
+        <v>9774.248568612818</v>
       </c>
       <c r="F181">
-        <v>896.7599264671589</v>
+        <v>945.6345495181367</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>485.1</v>
+        <v>531.8</v>
       </c>
       <c r="B182">
-        <v>166472.177167362</v>
+        <v>66204.00438061747</v>
       </c>
       <c r="C182">
-        <v>11769.22524586118</v>
+        <v>10113.41843134643</v>
       </c>
       <c r="D182">
-        <v>56928.39844876129</v>
+        <v>48887.64383520614</v>
       </c>
       <c r="E182">
-        <v>23601.15308088224</v>
+        <v>7786.893214014771</v>
       </c>
       <c r="F182">
-        <v>607.3323365978104</v>
+        <v>1241.28234656862</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>487.3</v>
+        <v>534.1</v>
       </c>
       <c r="B183">
-        <v>160031.6767607855</v>
+        <v>52482.42729800264</v>
       </c>
       <c r="C183">
-        <v>10722.75555679975</v>
+        <v>7030.682851747068</v>
       </c>
       <c r="D183">
-        <v>51902.53686060873</v>
+        <v>48118.70589961027</v>
       </c>
       <c r="E183">
-        <v>23936.8788783396</v>
+        <v>7409.537859416707</v>
       </c>
       <c r="F183">
-        <v>1037.010294114089</v>
+        <v>1246.930143619108</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>490</v>
+        <v>536.3</v>
       </c>
       <c r="B184">
-        <v>149427.4262618052</v>
+        <v>50648.74487115375</v>
       </c>
       <c r="C184">
-        <v>8348.451847497105</v>
+        <v>5622.848819086816</v>
       </c>
       <c r="D184">
-        <v>47908.07036605784</v>
+        <v>45791.02613512729</v>
       </c>
       <c r="E184">
-        <v>23172.9969024918</v>
+        <v>6608.589259366394</v>
       </c>
       <c r="F184">
-        <v>291.1605147022483</v>
+        <v>1131.462819058699</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>492.2</v>
+        <v>538.6</v>
       </c>
       <c r="B185">
-        <v>135786.9258552286</v>
+        <v>45827.16778853894</v>
       </c>
       <c r="C185">
-        <v>11491.98215843568</v>
+        <v>9400.113239487451</v>
       </c>
       <c r="D185">
-        <v>46732.20877790528</v>
+        <v>48522.08819953144</v>
       </c>
       <c r="E185">
-        <v>20718.72269994914</v>
+        <v>8421.233904768331</v>
       </c>
       <c r="F185">
-        <v>620.8384722185256</v>
+        <v>1057.110616109188</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>494.5</v>
+        <v>541.2</v>
       </c>
       <c r="B186">
-        <v>135553.6754301715</v>
+        <v>44341.90673862659</v>
       </c>
       <c r="C186">
-        <v>7667.945665326014</v>
+        <v>7552.673019070779</v>
       </c>
       <c r="D186">
-        <v>45540.62620847307</v>
+        <v>45589.37575059698</v>
       </c>
       <c r="E186">
-        <v>19126.52694274546</v>
+        <v>6944.65828652705</v>
       </c>
       <c r="F186">
-        <v>921.4108823491815</v>
+        <v>1026.103777992347</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>496.8</v>
+        <v>543.5</v>
       </c>
       <c r="B187">
-        <v>142820.4250051142</v>
+        <v>45220.32965601174</v>
       </c>
       <c r="C187">
-        <v>11133.90917221635</v>
+        <v>6749.937439471421</v>
       </c>
       <c r="D187">
-        <v>45469.04363904085</v>
+        <v>46270.43781500112</v>
       </c>
       <c r="E187">
-        <v>19964.33118554178</v>
+        <v>6267.302931928994</v>
       </c>
       <c r="F187">
-        <v>571.9832924798329</v>
+        <v>1451.75157504283</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>499.1</v>
+        <v>545.8</v>
       </c>
       <c r="B188">
-        <v>129387.1745800569</v>
+        <v>49098.75257339703</v>
       </c>
       <c r="C188">
-        <v>10159.87267910668</v>
+        <v>8297.201859872093</v>
       </c>
       <c r="D188">
-        <v>42407.46106960861</v>
+        <v>45291.49987940528</v>
       </c>
       <c r="E188">
-        <v>16722.13542833809</v>
+        <v>5469.94757733094</v>
       </c>
       <c r="F188">
-        <v>272.555702610488</v>
+        <v>917.3993720933158</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>501.3</v>
+        <v>548</v>
       </c>
       <c r="B189">
-        <v>134946.6741734803</v>
+        <v>44965.07014654806</v>
       </c>
       <c r="C189">
-        <v>9823.402990045255</v>
+        <v>7919.367827211838</v>
       </c>
       <c r="D189">
-        <v>40461.59948145605</v>
+        <v>45343.82011492227</v>
       </c>
       <c r="E189">
-        <v>15927.86122579544</v>
+        <v>4848.998977280625</v>
       </c>
       <c r="F189">
-        <v>582.2336601267662</v>
+        <v>1141.932047532913</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>503.6</v>
+        <v>550.3</v>
       </c>
       <c r="B190">
-        <v>120413.4237484231</v>
+        <v>40943.49306393324</v>
       </c>
       <c r="C190">
-        <v>8459.366496935592</v>
+        <v>6386.632247612481</v>
       </c>
       <c r="D190">
-        <v>37800.0169120238</v>
+        <v>41964.88217932641</v>
       </c>
       <c r="E190">
-        <v>15655.66546859177</v>
+        <v>5751.64362268257</v>
       </c>
       <c r="F190">
-        <v>692.8060702574212</v>
+        <v>1247.579844583399</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>506.2</v>
+        <v>552.8</v>
       </c>
       <c r="B191">
-        <v>119501.9232679235</v>
+        <v>38946.12666978683</v>
       </c>
       <c r="C191">
-        <v>9432.629591681187</v>
+        <v>6744.093574134913</v>
       </c>
       <c r="D191">
-        <v>35961.2713987526</v>
+        <v>41883.42790150486</v>
       </c>
       <c r="E191">
-        <v>14149.705047405</v>
+        <v>4181.474758989031</v>
       </c>
       <c r="F191">
-        <v>406.0618382312032</v>
+        <v>1035.457884855667</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>508.5</v>
+        <v>555.1</v>
       </c>
       <c r="B192">
-        <v>100568.6728428662</v>
+        <v>33424.54958717201</v>
       </c>
       <c r="C192">
-        <v>9488.59309857152</v>
+        <v>8901.357994535549</v>
       </c>
       <c r="D192">
-        <v>35169.68882932036</v>
+        <v>39504.48996590899</v>
       </c>
       <c r="E192">
-        <v>15127.50929020131</v>
+        <v>4424.119404390968</v>
       </c>
       <c r="F192">
-        <v>436.6342483618555</v>
+        <v>1271.105681906151</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>510.7</v>
+        <v>557.3</v>
       </c>
       <c r="B193">
-        <v>105528.1724362898</v>
+        <v>37090.86716032301</v>
       </c>
       <c r="C193">
-        <v>7472.123409510096</v>
+        <v>6523.523961875297</v>
       </c>
       <c r="D193">
-        <v>33343.8272411678</v>
+        <v>44146.81020142601</v>
       </c>
       <c r="E193">
-        <v>14853.23508765866</v>
+        <v>5463.170804340654</v>
       </c>
       <c r="F193">
-        <v>476.3122058781328</v>
+        <v>1175.638357345746</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>513.3</v>
+        <v>559.6</v>
       </c>
       <c r="B194">
-        <v>95016.67195579028</v>
+        <v>31969.29007770832</v>
       </c>
       <c r="C194">
-        <v>10095.38650425572</v>
+        <v>8450.788382275932</v>
       </c>
       <c r="D194">
-        <v>35685.0817278966</v>
+        <v>39687.87226583016</v>
       </c>
       <c r="E194">
-        <v>12557.27466647189</v>
+        <v>4645.815449742591</v>
       </c>
       <c r="F194">
-        <v>619.5679738519148</v>
+        <v>1401.286154396234</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>515.3</v>
+        <v>561.8</v>
       </c>
       <c r="B195">
-        <v>89561.67158617522</v>
+        <v>31935.60765085933</v>
       </c>
       <c r="C195">
-        <v>11604.05042329077</v>
+        <v>8592.95434961568</v>
       </c>
       <c r="D195">
-        <v>32620.66210230337</v>
+        <v>43020.19250134715</v>
       </c>
       <c r="E195">
-        <v>12788.8435732513</v>
+        <v>4504.866849692277</v>
       </c>
       <c r="F195">
-        <v>557.4570261394438</v>
+        <v>1565.818829835825</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>517.9</v>
+        <v>564.1</v>
       </c>
       <c r="B196">
-        <v>86550.17110567575</v>
+        <v>32514.03056824451</v>
       </c>
       <c r="C196">
-        <v>12747.31351803636</v>
+        <v>6040.218770016316</v>
       </c>
       <c r="D196">
-        <v>34021.91658903214</v>
+        <v>41031.25456575129</v>
       </c>
       <c r="E196">
-        <v>11782.88315206453</v>
+        <v>3827.511495094222</v>
       </c>
       <c r="F196">
-        <v>690.7127941132258</v>
+        <v>1231.466626886314</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>520.1</v>
+        <v>566.7</v>
       </c>
       <c r="B197">
-        <v>90109.67069909928</v>
+        <v>31928.76951833214</v>
       </c>
       <c r="C197">
-        <v>10690.84382897496</v>
+        <v>6352.778549599643</v>
       </c>
       <c r="D197">
-        <v>28356.05500087957</v>
+        <v>42078.54211681684</v>
       </c>
       <c r="E197">
-        <v>10118.60894952187</v>
+        <v>4940.935876852934</v>
       </c>
       <c r="F197">
-        <v>880.390751629503</v>
+        <v>1100.459788769474</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>522.4</v>
+        <v>569</v>
       </c>
       <c r="B198">
-        <v>71576.420274042</v>
+        <v>34707.19243571744</v>
       </c>
       <c r="C198">
-        <v>11156.8073358653</v>
+        <v>4580.042970000315</v>
       </c>
       <c r="D198">
-        <v>26864.47243144736</v>
+        <v>39999.604181221</v>
       </c>
       <c r="E198">
-        <v>8946.413192318199</v>
+        <v>4033.580522254885</v>
       </c>
       <c r="F198">
-        <v>720.9631617601553</v>
+        <v>1376.107585819956</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>524.7</v>
+        <v>571.3</v>
       </c>
       <c r="B199">
-        <v>67743.16984898472</v>
+        <v>27185.6153531026</v>
       </c>
       <c r="C199">
-        <v>9442.770842755628</v>
+        <v>4337.307390400958</v>
       </c>
       <c r="D199">
-        <v>26182.88986201511</v>
+        <v>39910.66624562517</v>
       </c>
       <c r="E199">
-        <v>8584.217435114508</v>
+        <v>4216.225167656823</v>
       </c>
       <c r="F199">
-        <v>601.535571890814</v>
+        <v>1391.755382870442</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>526.9</v>
+        <v>573.5</v>
       </c>
       <c r="B200">
-        <v>62302.66944240825</v>
+        <v>24151.93292625363</v>
       </c>
       <c r="C200">
-        <v>8596.301153694203</v>
+        <v>6329.473357740699</v>
       </c>
       <c r="D200">
-        <v>25347.02827386255</v>
+        <v>40322.98648114216</v>
       </c>
       <c r="E200">
-        <v>8609.943232571863</v>
+        <v>3525.276567606508</v>
       </c>
       <c r="F200">
-        <v>491.2135294070886</v>
+        <v>1196.288058310035</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>529.5</v>
+        <v>575.8</v>
       </c>
       <c r="B201">
-        <v>56091.16896190864</v>
+        <v>23730.35584363891</v>
       </c>
       <c r="C201">
-        <v>8429.564248439798</v>
+        <v>4486.737778141342</v>
       </c>
       <c r="D201">
-        <v>22488.28276059135</v>
+        <v>39254.04854554629</v>
       </c>
       <c r="E201">
-        <v>9013.982811385096</v>
+        <v>3407.921213008453</v>
       </c>
       <c r="F201">
-        <v>574.4692973808733</v>
+        <v>1061.935855360525</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>531.8</v>
+        <v>578.3</v>
       </c>
       <c r="B202">
-        <v>58857.91853685147</v>
+        <v>21132.98944949239</v>
       </c>
       <c r="C202">
-        <v>10695.52775533013</v>
+        <v>5454.199104663774</v>
       </c>
       <c r="D202">
-        <v>21506.70019115911</v>
+        <v>40062.59426772471</v>
       </c>
       <c r="E202">
-        <v>6991.787054181414</v>
+        <v>2347.752349314915</v>
       </c>
       <c r="F202">
-        <v>865.0417075115256</v>
+        <v>1159.813895632792</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>534.1</v>
+        <v>580.6</v>
       </c>
       <c r="B203">
-        <v>45024.66811179421</v>
+        <v>21311.41236687758</v>
       </c>
       <c r="C203">
-        <v>7551.491262220469</v>
+        <v>3701.463525064413</v>
       </c>
       <c r="D203">
-        <v>20405.11762172686</v>
+        <v>42143.65633212888</v>
       </c>
       <c r="E203">
-        <v>6579.591296977729</v>
+        <v>4360.396994716852</v>
       </c>
       <c r="F203">
-        <v>865.614117642177</v>
+        <v>1125.461692683278</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>536.3</v>
+        <v>582.9</v>
       </c>
       <c r="B204">
-        <v>43084.16770521761</v>
+        <v>27989.83528426286</v>
       </c>
       <c r="C204">
-        <v>6085.021573159044</v>
+        <v>6038.727945465056</v>
       </c>
       <c r="D204">
-        <v>17759.25603357433</v>
+        <v>41244.718396533</v>
       </c>
       <c r="E204">
-        <v>5745.317094435086</v>
+        <v>4563.041640118796</v>
       </c>
       <c r="F204">
-        <v>745.2920751584552</v>
+        <v>1631.109489733764</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>538.6</v>
+        <v>585.1</v>
       </c>
       <c r="B205">
-        <v>38150.91728016034</v>
+        <v>27156.15285741389</v>
       </c>
       <c r="C205">
-        <v>9800.985080049377</v>
+        <v>4800.893912804797</v>
       </c>
       <c r="D205">
-        <v>20157.67346414208</v>
+        <v>44327.03863205004</v>
       </c>
       <c r="E205">
-        <v>7523.121337231394</v>
+        <v>3532.093040068475</v>
       </c>
       <c r="F205">
-        <v>665.8644852891139</v>
+        <v>1305.642165173357</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>541.2</v>
+        <v>587.4</v>
       </c>
       <c r="B206">
-        <v>36539.41679966086</v>
+        <v>27434.57577479905</v>
       </c>
       <c r="C206">
-        <v>7884.248174794969</v>
+        <v>6918.15833320544</v>
       </c>
       <c r="D206">
-        <v>16848.92795087085</v>
+        <v>42468.10069645417</v>
       </c>
       <c r="E206">
-        <v>6007.160916044626</v>
+        <v>3514.737685470426</v>
       </c>
       <c r="F206">
-        <v>629.1202532628959</v>
+        <v>1761.289962223844</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>543.5</v>
+        <v>589.7</v>
       </c>
       <c r="B207">
-        <v>37306.16637460358</v>
+        <v>24212.99869218434</v>
       </c>
       <c r="C207">
-        <v>7020.211681685306</v>
+        <v>2195.422753606075</v>
       </c>
       <c r="D207">
-        <v>17197.34538143864</v>
+        <v>43289.16276085831</v>
       </c>
       <c r="E207">
-        <v>5294.965158840942</v>
+        <v>3427.382330872363</v>
       </c>
       <c r="F207">
-        <v>1049.692663393547</v>
+        <v>1356.937759274332</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>545.8</v>
+        <v>592.2</v>
       </c>
       <c r="B208">
-        <v>41072.9159495463</v>
+        <v>22015.63229803782</v>
       </c>
       <c r="C208">
-        <v>8506.175188575642</v>
+        <v>3162.884080128508</v>
       </c>
       <c r="D208">
-        <v>15885.76281200643</v>
+        <v>44567.70848303672</v>
       </c>
       <c r="E208">
-        <v>4462.769401637267</v>
+        <v>2117.213467178824</v>
       </c>
       <c r="F208">
-        <v>510.2650735241996</v>
+        <v>1664.815799546599</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>548</v>
+        <v>594.5</v>
       </c>
       <c r="B209">
-        <v>36832.41554296983</v>
+        <v>32894.055215423</v>
       </c>
       <c r="C209">
-        <v>8069.705499514243</v>
+        <v>5300.148500529151</v>
       </c>
       <c r="D209">
-        <v>15619.90122385386</v>
+        <v>44638.77054744089</v>
       </c>
       <c r="E209">
-        <v>3808.495199094615</v>
+        <v>4529.85811258077</v>
       </c>
       <c r="F209">
-        <v>729.9430310404805</v>
+        <v>1610.463596597082</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>550.3</v>
+        <v>596.7</v>
       </c>
       <c r="B210">
-        <v>32699.16511791254</v>
+        <v>28660.37278857415</v>
       </c>
       <c r="C210">
-        <v>6475.669006404581</v>
+        <v>2032.31446786892</v>
       </c>
       <c r="D210">
-        <v>11908.31865442162</v>
+        <v>49251.09078295788</v>
       </c>
       <c r="E210">
-        <v>4676.299441890932</v>
+        <v>4158.909512530448</v>
       </c>
       <c r="F210">
-        <v>830.5154411711328</v>
+        <v>1314.996272036678</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>552.8</v>
+        <v>599</v>
       </c>
       <c r="B211">
-        <v>30580.41465589376</v>
+        <v>24838.79570595931</v>
       </c>
       <c r="C211">
-        <v>6766.498905198413</v>
+        <v>3539.578888269563</v>
       </c>
       <c r="D211">
-        <v>11465.29412243007</v>
+        <v>47212.15284736204</v>
       </c>
       <c r="E211">
-        <v>3068.260575365196</v>
+        <v>2841.554157932393</v>
       </c>
       <c r="F211">
-        <v>612.8767565305407</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1">
-        <v>555.1</v>
-      </c>
-      <c r="B212">
-        <v>24947.1642308366</v>
-      </c>
-      <c r="C212">
-        <v>8862.462412088713</v>
-      </c>
-      <c r="D212">
-        <v>8753.711552997855</v>
-      </c>
-      <c r="E212">
-        <v>3276.064818161504</v>
-      </c>
-      <c r="F212">
-        <v>843.4491666611957</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1">
-        <v>557.3</v>
-      </c>
-      <c r="B213">
-        <v>28506.66382426001</v>
-      </c>
-      <c r="C213">
-        <v>6425.992723027322</v>
-      </c>
-      <c r="D213">
-        <v>13077.84996484529</v>
-      </c>
-      <c r="E213">
-        <v>4281.790615618859</v>
-      </c>
-      <c r="F213">
-        <v>743.1271241774739</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>559.6</v>
-      </c>
-      <c r="B214">
-        <v>23273.41339920273</v>
-      </c>
-      <c r="C214">
-        <v>8291.95622991765</v>
-      </c>
-      <c r="D214">
-        <v>8286.267395413044</v>
-      </c>
-      <c r="E214">
-        <v>3429.594858415175</v>
-      </c>
-      <c r="F214">
-        <v>963.6995343081244</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>561.8</v>
-      </c>
-      <c r="B215">
-        <v>23132.91299262625</v>
-      </c>
-      <c r="C215">
-        <v>8375.486540856258</v>
-      </c>
-      <c r="D215">
-        <v>11300.40580726048</v>
-      </c>
-      <c r="E215">
-        <v>3255.320655872524</v>
-      </c>
-      <c r="F215">
-        <v>1123.377491824403</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>564.1</v>
-      </c>
-      <c r="B216">
-        <v>23599.66256756898</v>
-      </c>
-      <c r="C216">
-        <v>5761.45004774656</v>
-      </c>
-      <c r="D216">
-        <v>8978.823237828234</v>
-      </c>
-      <c r="E216">
-        <v>2543.12489866884</v>
-      </c>
-      <c r="F216">
-        <v>783.9499019550576</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>566.7</v>
-      </c>
-      <c r="B217">
-        <v>22888.1620870695</v>
-      </c>
-      <c r="C217">
-        <v>6004.713142492154</v>
-      </c>
-      <c r="D217">
-        <v>9650.077724557035</v>
-      </c>
-      <c r="E217">
-        <v>3617.164477482064</v>
-      </c>
-      <c r="F217">
-        <v>647.2056699288432</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>569</v>
-      </c>
-      <c r="B218">
-        <v>25554.91166201221</v>
-      </c>
-      <c r="C218">
-        <v>4170.676649382492</v>
-      </c>
-      <c r="D218">
-        <v>7238.495155124823</v>
-      </c>
-      <c r="E218">
-        <v>2674.968720278389</v>
-      </c>
-      <c r="F218">
-        <v>917.7780800594956</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>571.3</v>
-      </c>
-      <c r="B219">
-        <v>17921.66123695493</v>
-      </c>
-      <c r="C219">
-        <v>3866.640156272858</v>
-      </c>
-      <c r="D219">
-        <v>6816.912585692582</v>
-      </c>
-      <c r="E219">
-        <v>2822.772963074714</v>
-      </c>
-      <c r="F219">
-        <v>928.3504901901479</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>573.5</v>
-      </c>
-      <c r="B220">
-        <v>14781.16083037847</v>
-      </c>
-      <c r="C220">
-        <v>5800.1704672114</v>
-      </c>
-      <c r="D220">
-        <v>6911.050997540013</v>
-      </c>
-      <c r="E220">
-        <v>2098.498760532054</v>
-      </c>
-      <c r="F220">
-        <v>728.0284477064251</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>575.8</v>
-      </c>
-      <c r="B221">
-        <v>14247.91040532118</v>
-      </c>
-      <c r="C221">
-        <v>3896.133974101737</v>
-      </c>
-      <c r="D221">
-        <v>5509.468428107801</v>
-      </c>
-      <c r="E221">
-        <v>1946.303003328379</v>
-      </c>
-      <c r="F221">
-        <v>588.6008578370811</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>578.3</v>
-      </c>
-      <c r="B222">
-        <v>11529.15994330239</v>
-      </c>
-      <c r="C222">
-        <v>4796.963872895595</v>
-      </c>
-      <c r="D222">
-        <v>5956.44389611626</v>
-      </c>
-      <c r="E222">
-        <v>848.2641368026428</v>
-      </c>
-      <c r="F222">
-        <v>680.9621731964844</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>580.6</v>
-      </c>
-      <c r="B223">
-        <v>11595.90951824512</v>
-      </c>
-      <c r="C223">
-        <v>2982.927379785929</v>
-      </c>
-      <c r="D223">
-        <v>7704.861326684004</v>
-      </c>
-      <c r="E223">
-        <v>2826.068379598951</v>
-      </c>
-      <c r="F223">
-        <v>641.5345833271431</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>582.9</v>
-      </c>
-      <c r="B224">
-        <v>18162.65909318784</v>
-      </c>
-      <c r="C224">
-        <v>5258.890886676266</v>
-      </c>
-      <c r="D224">
-        <v>6473.278757251792</v>
-      </c>
-      <c r="E224">
-        <v>2993.872622395275</v>
-      </c>
-      <c r="F224">
-        <v>1142.106993457795</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>585.1</v>
-      </c>
-      <c r="B225">
-        <v>17222.15868661137</v>
-      </c>
-      <c r="C225">
-        <v>3962.421197614808</v>
-      </c>
-      <c r="D225">
-        <v>9237.41716909923</v>
-      </c>
-      <c r="E225">
-        <v>1929.598419852622</v>
-      </c>
-      <c r="F225">
-        <v>811.7849509740727</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>587.4</v>
-      </c>
-      <c r="B226">
-        <v>17388.90826155409</v>
-      </c>
-      <c r="C226">
-        <v>6018.384704505174</v>
-      </c>
-      <c r="D226">
-        <v>7045.834599666989</v>
-      </c>
-      <c r="E226">
-        <v>1877.402662648939</v>
-      </c>
-      <c r="F226">
-        <v>1262.357361104725</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>589.7</v>
-      </c>
-      <c r="B227">
-        <v>14055.65783649682</v>
-      </c>
-      <c r="C227">
-        <v>1234.348211395479</v>
-      </c>
-      <c r="D227">
-        <v>7534.25203023474</v>
-      </c>
-      <c r="E227">
-        <v>1755.206905445254</v>
-      </c>
-      <c r="F227">
-        <v>852.9297712353837</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1">
-        <v>592.2</v>
-      </c>
-      <c r="B228">
-        <v>11736.90737447814</v>
-      </c>
-      <c r="C228">
-        <v>2135.178110189337</v>
-      </c>
-      <c r="D228">
-        <v>8451.227498243221</v>
-      </c>
-      <c r="E228">
-        <v>407.1680389195111</v>
-      </c>
-      <c r="F228">
-        <v>1155.291086594787</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1">
-        <v>594.5</v>
-      </c>
-      <c r="B229">
-        <v>22503.65694942086</v>
-      </c>
-      <c r="C229">
-        <v>4211.141617079674</v>
-      </c>
-      <c r="D229">
-        <v>8189.64492881098</v>
-      </c>
-      <c r="E229">
-        <v>2784.972281715835</v>
-      </c>
-      <c r="F229">
-        <v>1095.863496725443</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1">
-        <v>596.7</v>
-      </c>
-      <c r="B230">
-        <v>18163.15654284428</v>
-      </c>
-      <c r="C230">
-        <v>884.6719280182451</v>
-      </c>
-      <c r="D230">
-        <v>12483.78334065841</v>
-      </c>
-      <c r="E230">
-        <v>2380.698079173183</v>
-      </c>
-      <c r="F230">
-        <v>795.5414542417202</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1">
-        <v>599</v>
-      </c>
-      <c r="B231">
-        <v>14229.906117787</v>
-      </c>
-      <c r="C231">
-        <v>2330.635434908611</v>
-      </c>
-      <c r="D231">
-        <v>10112.20077122617</v>
-      </c>
-      <c r="E231">
-        <v>1028.502321969501</v>
-      </c>
-      <c r="F231">
-        <v>896.1138643723725</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1">
-        <v>601.3</v>
-      </c>
-      <c r="B232">
-        <v>22496.65569272983</v>
-      </c>
-      <c r="C232">
-        <v>3606.598941798949</v>
-      </c>
-      <c r="D232">
-        <v>11900.61820179396</v>
-      </c>
-      <c r="E232">
-        <v>926.3065647658252</v>
-      </c>
-      <c r="F232">
-        <v>1036.686274503025</v>
+        <v>1420.644069087161</v>
       </c>
     </row>
   </sheetData>
